--- a/rent.xlsx
+++ b/rent.xlsx
@@ -513,10 +513,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +691,7 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E37" si="3">D9</f>
+        <f t="shared" ref="E10:E28" si="3">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
@@ -1519,16 +1519,19 @@
         <f t="shared" si="6"/>
         <v>1362.98</v>
       </c>
+      <c r="K28" s="4">
+        <v>1800</v>
+      </c>
       <c r="M28" s="5">
         <v>1170</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="8"/>
-        <v>1303.236666666666</v>
+        <v>-496.76333333333423</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="9"/>
-        <v>1224.2333333333333</v>
+        <v>-575.76666666666665</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="10"/>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -513,10 +513,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,22 +691,22 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E28" si="3">D9</f>
+        <f t="shared" ref="E10:E30" si="3">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G28" si="4">C10+E10+F10</f>
+        <f t="shared" ref="G10:G30" si="4">C10+E10+F10</f>
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H28" si="5">G10/3</f>
+        <f t="shared" ref="H10:H30" si="5">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J28" si="6">G10</f>
+        <f t="shared" ref="J10:J30" si="6">G10</f>
         <v>1272.25</v>
       </c>
       <c r="K10" s="4">
@@ -1485,11 +1485,11 @@
         <v>1564.5833333333326</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:P28" si="9">P26 + H27 - K27</f>
+        <f t="shared" ref="P27:P30" si="9">P26 + H27 - K27</f>
         <v>769.90666666666675</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:R28" si="10">R26 + H27 - M27</f>
+        <f t="shared" ref="R27:R30" si="10">R26 + H27 - M27</f>
         <v>795.6733333333334</v>
       </c>
     </row>
@@ -1500,6 +1500,9 @@
       <c r="C28" s="2">
         <v>1145</v>
       </c>
+      <c r="D28" s="2">
+        <v>177.54</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>157.99</v>
@@ -1545,6 +1548,40 @@
       <c r="C29" s="2">
         <v>1145</v>
       </c>
+      <c r="D29" s="2">
+        <v>164.3</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>177.54</v>
+      </c>
+      <c r="F29" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>1382.53</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="5"/>
+        <v>460.84333333333331</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="6"/>
+        <v>1382.53</v>
+      </c>
+      <c r="O29" s="3">
+        <f>O28 + J29 - (H29 + K29+ L29 + M29)</f>
+        <v>424.92333333333244</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="9"/>
+        <v>-114.92333333333335</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="10"/>
+        <v>540.84333333333325</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
@@ -1552,6 +1589,37 @@
       </c>
       <c r="C30" s="2">
         <v>1145</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>164.3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="4"/>
+        <v>1369.29</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="5"/>
+        <v>456.43</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="6"/>
+        <v>1369.29</v>
+      </c>
+      <c r="O30" s="3">
+        <f>O29 + J30 - (H30 + K30+ L30 + M30)</f>
+        <v>1337.7833333333324</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="9"/>
+        <v>341.50666666666666</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="10"/>
+        <v>997.27333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>January</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Nick Balance</t>
+  </si>
+  <si>
+    <t>&lt;-- This $80 Nick and Roy agreed was an initial programming error.</t>
   </si>
 </sst>
 </file>
@@ -510,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R30" sqref="R30"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,6 +542,7 @@
     <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
     <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1004,7 +1008,7 @@
         <v>-0.99333333333345308</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>394.00333333333322</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>-0.99666666666678339</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>433.70333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>-6.6666666666606034E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>418.99</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>425.55</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>-57.370000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>389.30333333333334</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>843.96333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>795.6733333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -1540,8 +1544,11 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1590,7 @@
         <v>540.84333333333325</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -1609,9 +1616,12 @@
         <f t="shared" si="6"/>
         <v>1369.29</v>
       </c>
+      <c r="M30" s="5">
+        <v>1000</v>
+      </c>
       <c r="O30" s="3">
         <f>O29 + J30 - (H30 + K30+ L30 + M30)</f>
-        <v>1337.7833333333324</v>
+        <v>337.78333333333239</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="9"/>
@@ -1619,10 +1629,10 @@
       </c>
       <c r="R30" s="5">
         <f t="shared" si="10"/>
-        <v>997.27333333333331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-2.7266666666666879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>6</v>
       </c>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>January</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>&lt;-- This $80 Nick and Roy agreed was an initial programming error.</t>
+  </si>
+  <si>
+    <t>Chan Balance</t>
+  </si>
+  <si>
+    <t>Chan Paid</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -198,6 +204,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -513,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,15 +544,16 @@
     <col min="11" max="11" width="9.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="15" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="63.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -582,20 +590,26 @@
       <c r="M1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -603,32 +617,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -636,7 +650,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -671,20 +685,20 @@
       <c r="L9" s="1">
         <v>422</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" ref="O9:O26" si="0">O8 + J9 - (H9 + K9+ L9 + M9)</f>
+      <c r="P9" s="3">
+        <f>P8 + J9 - (H9 + K9+ L9 + M9)</f>
         <v>1.0199999999999818</v>
       </c>
-      <c r="P9" s="4">
-        <f t="shared" ref="P9:P26" si="1">P8 + H9 - K9</f>
+      <c r="Q9" s="4">
+        <f>Q8 + H9 - K9</f>
         <v>1.5099999999999909</v>
       </c>
-      <c r="Q9" s="1">
-        <f t="shared" ref="Q9:Q18" si="2">Q8 + H9 - L9</f>
+      <c r="R9" s="1">
+        <f>R8 + H9 - L9</f>
         <v>-0.49000000000000909</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -695,22 +709,22 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E30" si="3">D9</f>
+        <f t="shared" ref="E10:E31" si="0">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G30" si="4">C10+E10+F10</f>
+        <f t="shared" ref="G10:G31" si="1">C10+E10+F10</f>
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H30" si="5">G10/3</f>
+        <f t="shared" ref="H10:H31" si="2">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J30" si="6">G10</f>
+        <f t="shared" ref="J10:J30" si="3">G10</f>
         <v>1272.25</v>
       </c>
       <c r="K10" s="4">
@@ -719,20 +733,20 @@
       <c r="L10" s="1">
         <v>424</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="0"/>
+      <c r="P10" s="3">
+        <f>P9 + J10 - (H10 + K10+ L10 + M10)</f>
         <v>1.1866666666667243</v>
       </c>
-      <c r="P10" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="4">
+        <f>Q9 + H10 - K10</f>
         <v>1.5933333333333053</v>
       </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="2"/>
+      <c r="R10" s="1">
+        <f>R9 + H10 - L10</f>
         <v>-0.40666666666669471</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -743,41 +757,41 @@
         <v>88.33</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80.03</v>
       </c>
       <c r="F11" s="2">
         <v>59.99</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1265.02</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>421.67333333333335</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1265.02</v>
       </c>
       <c r="L11" s="1">
         <v>421.67</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="0"/>
+      <c r="P11" s="3">
+        <f>P10 + J11 - (H11 + K11+ L11 + M11)</f>
         <v>422.86333333333334</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="4">
+        <f>Q10 + H11 - K11</f>
         <v>423.26666666666665</v>
       </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="2"/>
+      <c r="R11" s="1">
+        <f>R10 + H11 - L11</f>
         <v>-0.40333333333336441</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -788,38 +802,38 @@
         <v>101.95</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>88.33</v>
       </c>
       <c r="F12" s="2">
         <v>59.99</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1273.32</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>424.44</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1273.32</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="0"/>
+      <c r="P12" s="3">
+        <f>P11 + J12 - (H12 + K12+ L12 + M12)</f>
         <v>1271.7433333333333</v>
       </c>
-      <c r="P12" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="4">
+        <f>Q11 + H12 - K12</f>
         <v>847.70666666666671</v>
       </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="2"/>
+      <c r="R12" s="1">
+        <f>R11 + H12 - L12</f>
         <v>424.03666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -830,22 +844,22 @@
         <v>135.81</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>101.95</v>
       </c>
       <c r="F13" s="2">
         <v>59.99</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1286.94</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>428.98</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1286.94</v>
       </c>
       <c r="K13" s="4">
@@ -854,20 +868,20 @@
       <c r="L13" s="1">
         <v>854</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="0"/>
+      <c r="P13" s="3">
+        <f>P12 + J13 - (H13 + K13+ L13 + M13)</f>
         <v>425.70333333333338</v>
       </c>
-      <c r="P13" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="4">
+        <f>Q12 + H13 - K13</f>
         <v>426.68666666666672</v>
       </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="2"/>
+      <c r="R13" s="1">
+        <f>R12 + H13 - L13</f>
         <v>-0.98333333333334849</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -881,38 +895,38 @@
         <v>191.54</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>135.81</v>
       </c>
       <c r="F14" s="2">
         <v>59.99</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1320.8</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>440.26666666666665</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1320.8</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="0"/>
+      <c r="P14" s="3">
+        <f>P13 + J14 - (H14 + K14+ L14 + M14)</f>
         <v>1306.2366666666667</v>
       </c>
-      <c r="P14" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="4">
+        <f>Q13 + H14 - K14</f>
         <v>866.95333333333338</v>
       </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="2"/>
+      <c r="R14" s="1">
+        <f>R13 + H14 - L14</f>
         <v>439.2833333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -923,22 +937,22 @@
         <v>214.48</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>191.54</v>
       </c>
       <c r="F15" s="2">
         <v>59.99</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1376.53</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>458.84333333333331</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1376.53</v>
       </c>
       <c r="K15" s="4">
@@ -947,20 +961,20 @@
       <c r="L15" s="1">
         <v>899.11</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="0"/>
+      <c r="P15" s="3">
+        <f>P14 + J15 - (H15 + K15+ L15 + M15)</f>
         <v>-3.1866666666669516</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="4">
+        <f>Q14 + H15 - K15</f>
         <v>-2.2033333333333758</v>
       </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="2"/>
+      <c r="R15" s="1">
+        <f>R14 + H15 - L15</f>
         <v>-0.98333333333346218</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -971,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>214.48</v>
       </c>
       <c r="F16" s="2">
         <v>59.99</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1399.47</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>466.49</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1399.47</v>
       </c>
       <c r="K16" s="4">
@@ -995,20 +1009,20 @@
       <c r="L16" s="1">
         <v>466.5</v>
       </c>
-      <c r="O16" s="3">
-        <f t="shared" si="0"/>
+      <c r="P16" s="3">
+        <f>P15 + J16 - (H16 + K16+ L16 + M16)</f>
         <v>-3.2066666666669335</v>
       </c>
-      <c r="P16" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="4">
+        <f>Q15 + H16 - K16</f>
         <v>-2.2133333333333667</v>
       </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="2"/>
+      <c r="R16" s="1">
+        <f>R15 + H16 - L16</f>
         <v>-0.99333333333345308</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1019,38 +1033,38 @@
         <v>271.08999999999997</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>59.99</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1184.99</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>394.99666666666667</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1184.99</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" si="0"/>
+      <c r="P17" s="3">
+        <f>P16 + J17 - (H17 + K17+ L17 + M17)</f>
         <v>786.78666666666641</v>
       </c>
-      <c r="P17" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="4">
+        <f>Q16 + H17 - K17</f>
         <v>392.7833333333333</v>
       </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="2"/>
+      <c r="R17" s="1">
+        <f>R16 + H17 - L17</f>
         <v>394.00333333333322</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1061,41 +1075,41 @@
         <v>116.12</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>271.08999999999997</v>
       </c>
       <c r="F18" s="2">
         <v>59.99</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1456.08</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>485.35999999999996</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1456.08</v>
       </c>
       <c r="L18" s="1">
         <v>880.36</v>
       </c>
-      <c r="O18" s="3">
-        <f t="shared" si="0"/>
+      <c r="P18" s="3">
+        <f>P17 + J18 - (H18 + K18+ L18 + M18)</f>
         <v>877.14666666666631</v>
       </c>
-      <c r="P18" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="4">
+        <f>Q17 + H18 - K18</f>
         <v>878.1433333333332</v>
       </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="2"/>
+      <c r="R18" s="1">
+        <f>R17 + H18 - L18</f>
         <v>-0.99666666666678339</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1106,38 +1120,38 @@
         <v>106.96</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>116.12</v>
       </c>
       <c r="F19" s="2">
         <v>59.99</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1301.1099999999999</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>433.70333333333332</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1301.1099999999999</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="0"/>
+      <c r="P19" s="3">
+        <f>P18 + J19 - (H19 + K19+ L19 + M19)</f>
         <v>1744.5533333333328</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="4">
+        <f>Q18 + H19 - K19</f>
         <v>1311.8466666666666</v>
       </c>
-      <c r="R19" s="5">
-        <f t="shared" ref="R19:R26" si="7">R18 + H19 - M19</f>
+      <c r="S19" s="5">
+        <f>S18 + H19 - M19</f>
         <v>433.70333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1148,22 +1162,22 @@
         <v>72</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>106.96</v>
       </c>
       <c r="F20" s="2">
         <v>59.99</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1291.95</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>430.65000000000003</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1291.95</v>
       </c>
       <c r="K20" s="4">
@@ -1172,20 +1186,20 @@
       <c r="M20" s="5">
         <v>864.36</v>
       </c>
-      <c r="O20" s="3">
-        <f t="shared" si="0"/>
+      <c r="P20" s="3">
+        <f>P19 + J20 - (H20 + K20+ L20 + M20)</f>
         <v>417.43333333333294</v>
       </c>
-      <c r="P20" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="4">
+        <f>Q19 + H20 - K20</f>
         <v>418.43666666666672</v>
       </c>
-      <c r="R20" s="5">
-        <f t="shared" si="7"/>
+      <c r="S20" s="5">
+        <f>S19 + H20 - M20</f>
         <v>-6.6666666666606034E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1196,38 +1210,38 @@
         <v>72.37</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F21" s="2">
         <v>59.99</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1256.99</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>418.99666666666667</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1256.99</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="0"/>
+      <c r="P21" s="3">
+        <f>P20 + J21 - (H21 + K21+ L21 + M21)</f>
         <v>1255.4266666666663</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="4">
+        <f>Q20 + H21 - K21</f>
         <v>837.43333333333339</v>
       </c>
-      <c r="R21" s="5">
-        <f t="shared" si="7"/>
+      <c r="S21" s="5">
+        <f>S20 + H21 - M21</f>
         <v>418.99</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1238,22 +1252,22 @@
         <v>71.7</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>72.37</v>
       </c>
       <c r="F22" s="2">
         <v>59.99</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>425.78666666666663</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="K22" s="4">
@@ -1262,20 +1276,20 @@
       <c r="M22" s="5">
         <v>844.79</v>
       </c>
-      <c r="O22" s="3">
-        <f t="shared" si="0"/>
+      <c r="P22" s="3">
+        <f>P21 + J22 - (H22 + K22+ L22 + M22)</f>
         <v>-337.79000000000087</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="4">
+        <f>Q21 + H22 - K22</f>
         <v>-336.78</v>
       </c>
-      <c r="R22" s="5">
-        <f t="shared" si="7"/>
+      <c r="S22" s="5">
+        <f>S21 + H22 - M22</f>
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1286,38 +1300,38 @@
         <v>79.25</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>71.7</v>
       </c>
       <c r="F23" s="2">
         <v>59.99</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1276.69</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>425.56333333333333</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1276.69</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="0"/>
+      <c r="P23" s="3">
+        <f>P22 + J23 - (H23 + K23+ L23 + M23)</f>
         <v>513.33666666666591</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q23" s="4">
+        <f>Q22 + H23 - K23</f>
         <v>88.78333333333336</v>
       </c>
-      <c r="R23" s="5">
-        <f t="shared" si="7"/>
+      <c r="S23" s="5">
+        <f>S22 + H23 - M23</f>
         <v>425.55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1328,41 +1342,41 @@
         <v>135.03</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
       <c r="F24" s="2">
         <v>59.99</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1284.24</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>428.08</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1284.24</v>
       </c>
       <c r="M24" s="5">
         <v>911</v>
       </c>
-      <c r="O24" s="3">
-        <f t="shared" si="0"/>
+      <c r="P24" s="3">
+        <f>P23 + J24 - (H24 + K24+ L24 + M24)</f>
         <v>458.49666666666599</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q24" s="4">
+        <f>Q23 + H24 - K24</f>
         <v>516.86333333333334</v>
       </c>
-      <c r="R24" s="5">
-        <f t="shared" si="7"/>
+      <c r="S24" s="5">
+        <f>S23 + H24 - M24</f>
         <v>-57.370000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1373,38 +1387,38 @@
         <v>158.99</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>135.03</v>
       </c>
       <c r="F25" s="2">
         <v>59.99</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1340.02</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>446.67333333333335</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1340.02</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="0"/>
+      <c r="P25" s="3">
+        <f>P24 + J25 - (H25 + K25+ L25 + M25)</f>
         <v>1351.8433333333326</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="4">
+        <f>Q24 + H25 - K25</f>
         <v>963.53666666666663</v>
       </c>
-      <c r="R25" s="5">
-        <f t="shared" si="7"/>
+      <c r="S25" s="5">
+        <f>S24 + H25 - M25</f>
         <v>389.30333333333334</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1418,41 +1432,41 @@
         <v>150.13999999999999</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>158.99</v>
       </c>
       <c r="F26" s="2">
         <v>59.99</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1363.98</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>454.66</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1363.98</v>
       </c>
       <c r="K26" s="4">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
-        <f t="shared" si="0"/>
+      <c r="P26" s="3">
+        <f>P25 + J26 - (H26 + K26+ L26 + M26)</f>
         <v>1161.1633333333327</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q26" s="4">
+        <f>Q25 + H26 - K26</f>
         <v>318.19666666666672</v>
       </c>
-      <c r="R26" s="5">
-        <f t="shared" si="7"/>
+      <c r="S26" s="5">
+        <f>S25 + H26 - M26</f>
         <v>843.96333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1463,41 +1477,41 @@
         <v>157.99</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150.13999999999999</v>
       </c>
       <c r="F27" s="2">
         <v>59.99</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>451.71</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="M27" s="5">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" ref="O27:O28" si="8">O26 + J27 - (H27 + K27+ L27 + M27)</f>
+      <c r="P27" s="3">
+        <f>P26 + J27 - (H27 + K27+ L27 + M27)</f>
         <v>1564.5833333333326</v>
       </c>
-      <c r="P27" s="4">
-        <f t="shared" ref="P27:P30" si="9">P26 + H27 - K27</f>
+      <c r="Q27" s="4">
+        <f>Q26 + H27 - K27</f>
         <v>769.90666666666675</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" ref="R27:R30" si="10">R26 + H27 - M27</f>
+      <c r="S27" s="5">
+        <f>S26 + H27 - M27</f>
         <v>795.6733333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -1508,22 +1522,22 @@
         <v>177.54</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>157.99</v>
       </c>
       <c r="F28" s="2">
         <v>59.99</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1362.98</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>454.32666666666665</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1362.98</v>
       </c>
       <c r="K28" s="4">
@@ -1532,23 +1546,23 @@
       <c r="M28" s="5">
         <v>1170</v>
       </c>
-      <c r="O28" s="3">
-        <f t="shared" si="8"/>
+      <c r="P28" s="3">
+        <f>P27 + J28 - (H28 + K28+ L28 + M28)</f>
         <v>-496.76333333333423</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="9"/>
+      <c r="Q28" s="4">
+        <f>Q27 + H28 - K28</f>
         <v>-575.76666666666665</v>
       </c>
-      <c r="R28" s="5">
-        <f t="shared" si="10"/>
+      <c r="S28" s="5">
+        <f>S27 + H28 - M28</f>
         <v>80</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1559,88 +1573,116 @@
         <v>164.3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>177.54</v>
       </c>
       <c r="F29" s="2">
         <v>59.99</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1382.53</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>460.84333333333331</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1382.53</v>
       </c>
-      <c r="O29" s="3">
-        <f>O28 + J29 - (H29 + K29+ L29 + M29)</f>
+      <c r="P29" s="3">
+        <f>P28 + J29 - (H29 + K29+ L29 + M29)</f>
         <v>424.92333333333244</v>
       </c>
-      <c r="P29" s="4">
-        <f t="shared" si="9"/>
+      <c r="Q29" s="4">
+        <f>Q28 + H29 - K29</f>
         <v>-114.92333333333335</v>
       </c>
-      <c r="R29" s="5">
-        <f t="shared" si="10"/>
+      <c r="S29" s="5">
+        <f>S28 + H29 - M29</f>
         <v>540.84333333333325</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>1145</v>
       </c>
+      <c r="D30" s="2">
+        <v>129.44</v>
+      </c>
       <c r="E30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>164.3</v>
       </c>
       <c r="F30" s="2">
         <v>59.99</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1369.29</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>456.43</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1369.29</v>
       </c>
       <c r="M30" s="5">
         <v>1000</v>
       </c>
-      <c r="O30" s="3">
-        <f>O29 + J30 - (H30 + K30+ L30 + M30)</f>
+      <c r="P30" s="3">
+        <f>P29 + J30 - (H30 + K30+ L30 + M30)</f>
         <v>337.78333333333239</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" si="9"/>
+      <c r="Q30" s="4">
+        <f>Q29 + H30 - K30</f>
         <v>341.50666666666666</v>
       </c>
-      <c r="R30" s="5">
-        <f t="shared" si="10"/>
+      <c r="S30" s="5">
+        <f>S29 + H30 - M30</f>
         <v>-2.7266666666666879</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>129.44</v>
+      </c>
+      <c r="F31" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>1334.43</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="2"/>
+        <v>444.81</v>
+      </c>
+      <c r="N31" s="3">
+        <v>444.81</v>
+      </c>
+      <c r="T31" s="3">
+        <f>T30 + H31 - N31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>6</v>
       </c>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -523,10 +523,10 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,15 +686,15 @@
         <v>422</v>
       </c>
       <c r="P9" s="3">
-        <f>P8 + J9 - (H9 + K9+ L9 + M9)</f>
+        <f t="shared" ref="P9:P32" si="0">P8 + J9 - (H9 + K9+ L9 + M9)</f>
         <v>1.0199999999999818</v>
       </c>
       <c r="Q9" s="4">
-        <f>Q8 + H9 - K9</f>
+        <f t="shared" ref="Q9:Q30" si="1">Q8 + H9 - K9</f>
         <v>1.5099999999999909</v>
       </c>
       <c r="R9" s="1">
-        <f>R8 + H9 - L9</f>
+        <f t="shared" ref="R9:R18" si="2">R8 + H9 - L9</f>
         <v>-0.49000000000000909</v>
       </c>
     </row>
@@ -709,22 +709,22 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E31" si="0">D9</f>
+        <f t="shared" ref="E10:E32" si="3">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G31" si="1">C10+E10+F10</f>
+        <f t="shared" ref="G10:G32" si="4">C10+E10+F10</f>
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H31" si="2">G10/3</f>
+        <f t="shared" ref="H10:H33" si="5">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J30" si="3">G10</f>
+        <f t="shared" ref="J10:J32" si="6">G10</f>
         <v>1272.25</v>
       </c>
       <c r="K10" s="4">
@@ -734,15 +734,15 @@
         <v>424</v>
       </c>
       <c r="P10" s="3">
-        <f>P9 + J10 - (H10 + K10+ L10 + M10)</f>
+        <f t="shared" si="0"/>
         <v>1.1866666666667243</v>
       </c>
       <c r="Q10" s="4">
-        <f>Q9 + H10 - K10</f>
+        <f t="shared" si="1"/>
         <v>1.5933333333333053</v>
       </c>
       <c r="R10" s="1">
-        <f>R9 + H10 - L10</f>
+        <f t="shared" si="2"/>
         <v>-0.40666666666669471</v>
       </c>
     </row>
@@ -757,37 +757,37 @@
         <v>88.33</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80.03</v>
       </c>
       <c r="F11" s="2">
         <v>59.99</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1265.02</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>421.67333333333335</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1265.02</v>
       </c>
       <c r="L11" s="1">
         <v>421.67</v>
       </c>
       <c r="P11" s="3">
-        <f>P10 + J11 - (H11 + K11+ L11 + M11)</f>
+        <f t="shared" si="0"/>
         <v>422.86333333333334</v>
       </c>
       <c r="Q11" s="4">
-        <f>Q10 + H11 - K11</f>
+        <f t="shared" si="1"/>
         <v>423.26666666666665</v>
       </c>
       <c r="R11" s="1">
-        <f>R10 + H11 - L11</f>
+        <f t="shared" si="2"/>
         <v>-0.40333333333336441</v>
       </c>
     </row>
@@ -802,34 +802,34 @@
         <v>101.95</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>88.33</v>
       </c>
       <c r="F12" s="2">
         <v>59.99</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1273.32</v>
       </c>
       <c r="H12" s="6">
+        <f t="shared" si="5"/>
+        <v>424.44</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="6"/>
+        <v>1273.32</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>1271.7433333333333</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="1"/>
+        <v>847.70666666666671</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="2"/>
-        <v>424.44</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="3"/>
-        <v>1273.32</v>
-      </c>
-      <c r="P12" s="3">
-        <f>P11 + J12 - (H12 + K12+ L12 + M12)</f>
-        <v>1271.7433333333333</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>Q11 + H12 - K12</f>
-        <v>847.70666666666671</v>
-      </c>
-      <c r="R12" s="1">
-        <f>R11 + H12 - L12</f>
         <v>424.03666666666663</v>
       </c>
     </row>
@@ -844,22 +844,22 @@
         <v>135.81</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>101.95</v>
       </c>
       <c r="F13" s="2">
         <v>59.99</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1286.94</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428.98</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1286.94</v>
       </c>
       <c r="K13" s="4">
@@ -869,15 +869,15 @@
         <v>854</v>
       </c>
       <c r="P13" s="3">
-        <f>P12 + J13 - (H13 + K13+ L13 + M13)</f>
+        <f t="shared" si="0"/>
         <v>425.70333333333338</v>
       </c>
       <c r="Q13" s="4">
-        <f>Q12 + H13 - K13</f>
+        <f t="shared" si="1"/>
         <v>426.68666666666672</v>
       </c>
       <c r="R13" s="1">
-        <f>R12 + H13 - L13</f>
+        <f t="shared" si="2"/>
         <v>-0.98333333333334849</v>
       </c>
     </row>
@@ -895,34 +895,34 @@
         <v>191.54</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>135.81</v>
       </c>
       <c r="F14" s="2">
         <v>59.99</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1320.8</v>
       </c>
       <c r="H14" s="6">
+        <f t="shared" si="5"/>
+        <v>440.26666666666665</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="6"/>
+        <v>1320.8</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="0"/>
+        <v>1306.2366666666667</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="1"/>
+        <v>866.95333333333338</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="2"/>
-        <v>440.26666666666665</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="3"/>
-        <v>1320.8</v>
-      </c>
-      <c r="P14" s="3">
-        <f>P13 + J14 - (H14 + K14+ L14 + M14)</f>
-        <v>1306.2366666666667</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>Q13 + H14 - K14</f>
-        <v>866.95333333333338</v>
-      </c>
-      <c r="R14" s="1">
-        <f>R13 + H14 - L14</f>
         <v>439.2833333333333</v>
       </c>
     </row>
@@ -937,22 +937,22 @@
         <v>214.48</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>191.54</v>
       </c>
       <c r="F15" s="2">
         <v>59.99</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1376.53</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>458.84333333333331</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1376.53</v>
       </c>
       <c r="K15" s="4">
@@ -962,15 +962,15 @@
         <v>899.11</v>
       </c>
       <c r="P15" s="3">
-        <f>P14 + J15 - (H15 + K15+ L15 + M15)</f>
+        <f t="shared" si="0"/>
         <v>-3.1866666666669516</v>
       </c>
       <c r="Q15" s="4">
-        <f>Q14 + H15 - K15</f>
+        <f t="shared" si="1"/>
         <v>-2.2033333333333758</v>
       </c>
       <c r="R15" s="1">
-        <f>R14 + H15 - L15</f>
+        <f t="shared" si="2"/>
         <v>-0.98333333333346218</v>
       </c>
     </row>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>214.48</v>
       </c>
       <c r="F16" s="2">
         <v>59.99</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1399.47</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>466.49</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1399.47</v>
       </c>
       <c r="K16" s="4">
@@ -1010,15 +1010,15 @@
         <v>466.5</v>
       </c>
       <c r="P16" s="3">
-        <f>P15 + J16 - (H16 + K16+ L16 + M16)</f>
+        <f t="shared" si="0"/>
         <v>-3.2066666666669335</v>
       </c>
       <c r="Q16" s="4">
-        <f>Q15 + H16 - K16</f>
+        <f t="shared" si="1"/>
         <v>-2.2133333333333667</v>
       </c>
       <c r="R16" s="1">
-        <f>R15 + H16 - L16</f>
+        <f t="shared" si="2"/>
         <v>-0.99333333333345308</v>
       </c>
     </row>
@@ -1033,34 +1033,34 @@
         <v>271.08999999999997</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>59.99</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1184.99</v>
       </c>
       <c r="H17" s="6">
+        <f t="shared" si="5"/>
+        <v>394.99666666666667</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>1184.99</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
+        <v>786.78666666666641</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="1"/>
+        <v>392.7833333333333</v>
+      </c>
+      <c r="R17" s="1">
         <f t="shared" si="2"/>
-        <v>394.99666666666667</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="3"/>
-        <v>1184.99</v>
-      </c>
-      <c r="P17" s="3">
-        <f>P16 + J17 - (H17 + K17+ L17 + M17)</f>
-        <v>786.78666666666641</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>Q16 + H17 - K17</f>
-        <v>392.7833333333333</v>
-      </c>
-      <c r="R17" s="1">
-        <f>R16 + H17 - L17</f>
         <v>394.00333333333322</v>
       </c>
     </row>
@@ -1075,37 +1075,37 @@
         <v>116.12</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>271.08999999999997</v>
       </c>
       <c r="F18" s="2">
         <v>59.99</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1456.08</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>485.35999999999996</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1456.08</v>
       </c>
       <c r="L18" s="1">
         <v>880.36</v>
       </c>
       <c r="P18" s="3">
-        <f>P17 + J18 - (H18 + K18+ L18 + M18)</f>
+        <f t="shared" si="0"/>
         <v>877.14666666666631</v>
       </c>
       <c r="Q18" s="4">
-        <f>Q17 + H18 - K18</f>
+        <f t="shared" si="1"/>
         <v>878.1433333333332</v>
       </c>
       <c r="R18" s="1">
-        <f>R17 + H18 - L18</f>
+        <f t="shared" si="2"/>
         <v>-0.99666666666678339</v>
       </c>
     </row>
@@ -1120,34 +1120,34 @@
         <v>106.96</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>116.12</v>
       </c>
       <c r="F19" s="2">
         <v>59.99</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1301.1099999999999</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>433.70333333333332</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1301.1099999999999</v>
       </c>
       <c r="P19" s="3">
-        <f>P18 + J19 - (H19 + K19+ L19 + M19)</f>
+        <f t="shared" si="0"/>
         <v>1744.5533333333328</v>
       </c>
       <c r="Q19" s="4">
-        <f>Q18 + H19 - K19</f>
+        <f t="shared" si="1"/>
         <v>1311.8466666666666</v>
       </c>
       <c r="S19" s="5">
-        <f>S18 + H19 - M19</f>
+        <f t="shared" ref="S19:S32" si="7">S18 + H19 - M19</f>
         <v>433.70333333333332</v>
       </c>
     </row>
@@ -1162,22 +1162,22 @@
         <v>72</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>106.96</v>
       </c>
       <c r="F20" s="2">
         <v>59.99</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1291.95</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>430.65000000000003</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1291.95</v>
       </c>
       <c r="K20" s="4">
@@ -1187,15 +1187,15 @@
         <v>864.36</v>
       </c>
       <c r="P20" s="3">
-        <f>P19 + J20 - (H20 + K20+ L20 + M20)</f>
+        <f t="shared" si="0"/>
         <v>417.43333333333294</v>
       </c>
       <c r="Q20" s="4">
-        <f>Q19 + H20 - K20</f>
+        <f t="shared" si="1"/>
         <v>418.43666666666672</v>
       </c>
       <c r="S20" s="5">
-        <f>S19 + H20 - M20</f>
+        <f t="shared" si="7"/>
         <v>-6.6666666666606034E-3</v>
       </c>
     </row>
@@ -1210,34 +1210,34 @@
         <v>72.37</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="F21" s="2">
         <v>59.99</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1256.99</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>418.99666666666667</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1256.99</v>
       </c>
       <c r="P21" s="3">
-        <f>P20 + J21 - (H21 + K21+ L21 + M21)</f>
+        <f t="shared" si="0"/>
         <v>1255.4266666666663</v>
       </c>
       <c r="Q21" s="4">
-        <f>Q20 + H21 - K21</f>
+        <f t="shared" si="1"/>
         <v>837.43333333333339</v>
       </c>
       <c r="S21" s="5">
-        <f>S20 + H21 - M21</f>
+        <f t="shared" si="7"/>
         <v>418.99</v>
       </c>
     </row>
@@ -1252,22 +1252,22 @@
         <v>71.7</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>72.37</v>
       </c>
       <c r="F22" s="2">
         <v>59.99</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>425.78666666666663</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="K22" s="4">
@@ -1277,15 +1277,15 @@
         <v>844.79</v>
       </c>
       <c r="P22" s="3">
-        <f>P21 + J22 - (H22 + K22+ L22 + M22)</f>
+        <f t="shared" si="0"/>
         <v>-337.79000000000087</v>
       </c>
       <c r="Q22" s="4">
-        <f>Q21 + H22 - K22</f>
+        <f t="shared" si="1"/>
         <v>-336.78</v>
       </c>
       <c r="S22" s="5">
-        <f>S21 + H22 - M22</f>
+        <f t="shared" si="7"/>
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
@@ -1300,34 +1300,34 @@
         <v>79.25</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>71.7</v>
       </c>
       <c r="F23" s="2">
         <v>59.99</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1276.69</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>425.56333333333333</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1276.69</v>
       </c>
       <c r="P23" s="3">
-        <f>P22 + J23 - (H23 + K23+ L23 + M23)</f>
+        <f t="shared" si="0"/>
         <v>513.33666666666591</v>
       </c>
       <c r="Q23" s="4">
-        <f>Q22 + H23 - K23</f>
+        <f t="shared" si="1"/>
         <v>88.78333333333336</v>
       </c>
       <c r="S23" s="5">
-        <f>S22 + H23 - M23</f>
+        <f t="shared" si="7"/>
         <v>425.55</v>
       </c>
     </row>
@@ -1342,37 +1342,37 @@
         <v>135.03</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>79.25</v>
       </c>
       <c r="F24" s="2">
         <v>59.99</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1284.24</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428.08</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1284.24</v>
       </c>
       <c r="M24" s="5">
         <v>911</v>
       </c>
       <c r="P24" s="3">
-        <f>P23 + J24 - (H24 + K24+ L24 + M24)</f>
+        <f t="shared" si="0"/>
         <v>458.49666666666599</v>
       </c>
       <c r="Q24" s="4">
-        <f>Q23 + H24 - K24</f>
+        <f t="shared" si="1"/>
         <v>516.86333333333334</v>
       </c>
       <c r="S24" s="5">
-        <f>S23 + H24 - M24</f>
+        <f t="shared" si="7"/>
         <v>-57.370000000000005</v>
       </c>
     </row>
@@ -1387,34 +1387,34 @@
         <v>158.99</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>135.03</v>
       </c>
       <c r="F25" s="2">
         <v>59.99</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1340.02</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>446.67333333333335</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1340.02</v>
       </c>
       <c r="P25" s="3">
-        <f>P24 + J25 - (H25 + K25+ L25 + M25)</f>
+        <f t="shared" si="0"/>
         <v>1351.8433333333326</v>
       </c>
       <c r="Q25" s="4">
-        <f>Q24 + H25 - K25</f>
+        <f t="shared" si="1"/>
         <v>963.53666666666663</v>
       </c>
       <c r="S25" s="5">
-        <f>S24 + H25 - M25</f>
+        <f t="shared" si="7"/>
         <v>389.30333333333334</v>
       </c>
     </row>
@@ -1432,37 +1432,37 @@
         <v>150.13999999999999</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>158.99</v>
       </c>
       <c r="F26" s="2">
         <v>59.99</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1363.98</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>454.66</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1363.98</v>
       </c>
       <c r="K26" s="4">
         <v>1100</v>
       </c>
       <c r="P26" s="3">
-        <f>P25 + J26 - (H26 + K26+ L26 + M26)</f>
+        <f t="shared" si="0"/>
         <v>1161.1633333333327</v>
       </c>
       <c r="Q26" s="4">
-        <f>Q25 + H26 - K26</f>
+        <f t="shared" si="1"/>
         <v>318.19666666666672</v>
       </c>
       <c r="S26" s="5">
-        <f>S25 + H26 - M26</f>
+        <f t="shared" si="7"/>
         <v>843.96333333333337</v>
       </c>
     </row>
@@ -1477,37 +1477,37 @@
         <v>157.99</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150.13999999999999</v>
       </c>
       <c r="F27" s="2">
         <v>59.99</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>451.71</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="M27" s="5">
         <v>500</v>
       </c>
       <c r="P27" s="3">
-        <f>P26 + J27 - (H27 + K27+ L27 + M27)</f>
+        <f t="shared" si="0"/>
         <v>1564.5833333333326</v>
       </c>
       <c r="Q27" s="4">
-        <f>Q26 + H27 - K27</f>
+        <f t="shared" si="1"/>
         <v>769.90666666666675</v>
       </c>
       <c r="S27" s="5">
-        <f>S26 + H27 - M27</f>
+        <f t="shared" si="7"/>
         <v>795.6733333333334</v>
       </c>
     </row>
@@ -1522,22 +1522,22 @@
         <v>177.54</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>157.99</v>
       </c>
       <c r="F28" s="2">
         <v>59.99</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1362.98</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>454.32666666666665</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1362.98</v>
       </c>
       <c r="K28" s="4">
@@ -1547,15 +1547,15 @@
         <v>1170</v>
       </c>
       <c r="P28" s="3">
-        <f>P27 + J28 - (H28 + K28+ L28 + M28)</f>
+        <f t="shared" si="0"/>
         <v>-496.76333333333423</v>
       </c>
       <c r="Q28" s="4">
-        <f>Q27 + H28 - K28</f>
+        <f t="shared" si="1"/>
         <v>-575.76666666666665</v>
       </c>
       <c r="S28" s="5">
-        <f>S27 + H28 - M28</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="U28" t="s">
@@ -1573,34 +1573,34 @@
         <v>164.3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>177.54</v>
       </c>
       <c r="F29" s="2">
         <v>59.99</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1382.53</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>460.84333333333331</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1382.53</v>
       </c>
       <c r="P29" s="3">
-        <f>P28 + J29 - (H29 + K29+ L29 + M29)</f>
+        <f t="shared" si="0"/>
         <v>424.92333333333244</v>
       </c>
       <c r="Q29" s="4">
-        <f>Q28 + H29 - K29</f>
+        <f t="shared" si="1"/>
         <v>-114.92333333333335</v>
       </c>
       <c r="S29" s="5">
-        <f>S28 + H29 - M29</f>
+        <f t="shared" si="7"/>
         <v>540.84333333333325</v>
       </c>
     </row>
@@ -1615,37 +1615,37 @@
         <v>129.44</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>164.3</v>
       </c>
       <c r="F30" s="2">
         <v>59.99</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1369.29</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>456.43</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1369.29</v>
       </c>
       <c r="M30" s="5">
         <v>1000</v>
       </c>
       <c r="P30" s="3">
-        <f>P29 + J30 - (H30 + K30+ L30 + M30)</f>
+        <f t="shared" si="0"/>
         <v>337.78333333333239</v>
       </c>
       <c r="Q30" s="4">
-        <f>Q29 + H30 - K30</f>
+        <f t="shared" si="1"/>
         <v>341.50666666666666</v>
       </c>
       <c r="S30" s="5">
-        <f>S29 + H30 - M30</f>
+        <f t="shared" si="7"/>
         <v>-2.7266666666666879</v>
       </c>
       <c r="T30" s="3">
@@ -1659,23 +1659,41 @@
       <c r="C31" s="2">
         <v>1145</v>
       </c>
+      <c r="D31" s="2">
+        <v>102.17</v>
+      </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>129.44</v>
       </c>
       <c r="F31" s="2">
         <v>59.99</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1334.43</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>444.81</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="6"/>
+        <v>1334.43</v>
+      </c>
+      <c r="M31" s="5">
         <v>444.81</v>
       </c>
       <c r="N31" s="3">
         <v>444.81</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="0"/>
+        <v>782.59333333333245</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.7266666666666879</v>
       </c>
       <c r="T31" s="3">
         <f>T30 + H31 - N31</f>
@@ -1688,6 +1706,40 @@
       </c>
       <c r="C32" s="2">
         <v>1145</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>102.17</v>
+      </c>
+      <c r="F32" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="4"/>
+        <v>1307.1600000000001</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="5"/>
+        <v>435.72</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="6"/>
+        <v>1307.1600000000001</v>
+      </c>
+      <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="0"/>
+        <v>1654.0333333333326</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="7"/>
+        <v>432.99333333333334</v>
+      </c>
+      <c r="T32" s="3">
+        <f>T31 + H32 - N32</f>
+        <v>35.720000000000027</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -526,7 +526,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,7 +720,7 @@
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H33" si="5">G10/3</f>
+        <f t="shared" ref="H10:H32" si="5">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
@@ -1726,16 +1726,19 @@
         <f t="shared" si="6"/>
         <v>1307.1600000000001</v>
       </c>
+      <c r="M32" s="5">
+        <v>433</v>
+      </c>
       <c r="N32" s="3">
         <v>400</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="0"/>
-        <v>1654.0333333333326</v>
+        <v>1221.0333333333326</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="7"/>
-        <v>432.99333333333334</v>
+        <v>-6.6666666666606034E-3</v>
       </c>
       <c r="T32" s="3">
         <f>T31 + H32 - N32</f>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F4DEDB8-F432-485D-AA4E-1BCEB2B206A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="7540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -145,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBD1FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -204,7 +211,8 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -212,6 +220,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBD1FB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,14 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,12 +557,12 @@
     <col min="11" max="11" width="9.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08984375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" style="7" customWidth="1"/>
     <col min="16" max="16" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.36328125" style="4" customWidth="1"/>
     <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.54296875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" style="8" customWidth="1"/>
     <col min="21" max="21" width="63.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,7 +603,7 @@
       <c r="M1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -605,7 +618,7 @@
       <c r="S1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -686,7 +699,7 @@
         <v>422</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" ref="P9:P32" si="0">P8 + J9 - (H9 + K9+ L9 + M9)</f>
+        <f t="shared" ref="P9:P30" si="0">P8 + J9 - (H9 + K9+ L9 + M9)</f>
         <v>1.0199999999999818</v>
       </c>
       <c r="Q9" s="4">
@@ -709,22 +722,22 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E32" si="3">D9</f>
+        <f t="shared" ref="E10:E35" si="3">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G32" si="4">C10+E10+F10</f>
+        <f t="shared" ref="G10:G35" si="4">C10+E10+F10</f>
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H32" si="5">G10/3</f>
+        <f t="shared" ref="H10:H34" si="5">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J32" si="6">G10</f>
+        <f t="shared" ref="J10:J34" si="6">G10</f>
         <v>1272.25</v>
       </c>
       <c r="K10" s="4">
@@ -1147,7 +1160,7 @@
         <v>1311.8466666666666</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ref="S19:S32" si="7">S18 + H19 - M19</f>
+        <f t="shared" ref="S19:S34" si="7">S18 + H19 - M19</f>
         <v>433.70333333333332</v>
       </c>
     </row>
@@ -1648,7 +1661,7 @@
         <f t="shared" si="7"/>
         <v>-2.7266666666666879</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1684,18 +1697,18 @@
       <c r="M31" s="5">
         <v>444.81</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="7">
         <v>444.81</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="0"/>
-        <v>782.59333333333245</v>
+        <f>P30 + J31 - (H31 + K31+ L31 + M31 + N31)</f>
+        <v>337.78333333333239</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="7"/>
         <v>-2.7266666666666879</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="7">
         <f>T30 + H31 - N31</f>
         <v>0</v>
       </c>
@@ -1707,6 +1720,9 @@
       <c r="C32" s="2">
         <v>1145</v>
       </c>
+      <c r="D32" s="2">
+        <v>75.099999999999994</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="3"/>
         <v>102.17</v>
@@ -1729,47 +1745,138 @@
       <c r="M32" s="5">
         <v>433</v>
       </c>
-      <c r="N32" s="3">
-        <v>400</v>
+      <c r="N32" s="7">
+        <v>440</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="0"/>
-        <v>1221.0333333333326</v>
+        <f t="shared" ref="P32:P34" si="8">P31 + J32 - (H32 + K32+ L32 + M32 + N32)</f>
+        <v>336.22333333333245</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="7"/>
         <v>-6.6666666666606034E-3</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="7">
         <f>T31 + H32 - N32</f>
-        <v>35.720000000000027</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+        <v>-4.2799999999999727</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="2">
+        <v>94.57</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F33" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="4"/>
+        <v>1280.0899999999999</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="5"/>
+        <v>426.69666666666666</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="6"/>
+        <v>1280.0899999999999</v>
+      </c>
+      <c r="M33" s="5">
+        <v>440</v>
+      </c>
+      <c r="N33" s="7">
+        <v>420</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="8"/>
+        <v>329.61666666666565</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="7"/>
+        <v>-13.310000000000002</v>
+      </c>
+      <c r="T33" s="7">
+        <f>T32 + H33 - N33</f>
+        <v>2.4166666666666856</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>94.57</v>
+      </c>
+      <c r="F34" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="4"/>
+        <v>1299.56</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="5"/>
+        <v>433.18666666666667</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="6"/>
+        <v>1299.56</v>
+      </c>
+      <c r="M34" s="5">
+        <v>420</v>
+      </c>
+      <c r="N34" s="7">
+        <v>420</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="8"/>
+        <v>355.98999999999887</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.12333333333333485</v>
+      </c>
+      <c r="T34" s="7">
+        <f>T33 + H34 - N34</f>
+        <v>15.603333333333353</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>79.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="4"/>
+        <v>1284.49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1884,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -1785,12 +1892,13 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F4DEDB8-F432-485D-AA4E-1BCEB2B206A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83627371-DA53-4C4B-AD6C-EB1726B0E10C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>January</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Shifted Uitlities</t>
   </si>
   <si>
-    <t>TOTALS</t>
-  </si>
-  <si>
     <t>Roy Paid</t>
   </si>
   <si>
@@ -114,13 +111,16 @@
     <t>Nick Balance</t>
   </si>
   <si>
-    <t>&lt;-- This $80 Nick and Roy agreed was an initial programming error.</t>
-  </si>
-  <si>
     <t>Chan Balance</t>
   </si>
   <si>
     <t>Chan Paid</t>
+  </si>
+  <si>
+    <t>Cappy Paid</t>
+  </si>
+  <si>
+    <t>Cappy Balance</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -203,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -213,6 +219,8 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -222,6 +230,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FFEBD1FB"/>
     </mruColors>
   </colors>
@@ -533,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,15 +567,16 @@
     <col min="12" max="12" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.08984375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.54296875" style="8" customWidth="1"/>
-    <col min="21" max="21" width="63.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.54296875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -592,37 +602,43 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="U1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -630,32 +646,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -663,7 +679,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -698,20 +714,20 @@
       <c r="L9" s="1">
         <v>422</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" ref="P9:P30" si="0">P8 + J9 - (H9 + K9+ L9 + M9)</f>
+      <c r="Q9" s="3">
+        <f>Q8 + J9 - (H9 + K9+ L9 + M9)</f>
         <v>1.0199999999999818</v>
       </c>
-      <c r="Q9" s="4">
-        <f t="shared" ref="Q9:Q30" si="1">Q8 + H9 - K9</f>
+      <c r="R9" s="4">
+        <f>R8 + H9 - K9</f>
         <v>1.5099999999999909</v>
       </c>
-      <c r="R9" s="1">
-        <f t="shared" ref="R9:R18" si="2">R8 + H9 - L9</f>
+      <c r="S9" s="1">
+        <f>S8 + H9 - L9</f>
         <v>-0.49000000000000909</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -722,22 +738,22 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E35" si="3">D9</f>
+        <f t="shared" ref="E10:E37" si="0">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G35" si="4">C10+E10+F10</f>
+        <f t="shared" ref="G10:G42" si="1">C10+E10+F10</f>
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H34" si="5">G10/3</f>
+        <f t="shared" ref="H10:H42" si="2">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J34" si="6">G10</f>
+        <f t="shared" ref="J10:J37" si="3">G10</f>
         <v>1272.25</v>
       </c>
       <c r="K10" s="4">
@@ -746,20 +762,20 @@
       <c r="L10" s="1">
         <v>424</v>
       </c>
-      <c r="P10" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="3">
+        <f>Q9 + J10 - (H10 + K10+ L10 + M10)</f>
         <v>1.1866666666667243</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="1"/>
+      <c r="R10" s="4">
+        <f>R9 + H10 - K10</f>
         <v>1.5933333333333053</v>
       </c>
-      <c r="R10" s="1">
-        <f t="shared" si="2"/>
+      <c r="S10" s="1">
+        <f>S9 + H10 - L10</f>
         <v>-0.40666666666669471</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -770,41 +786,41 @@
         <v>88.33</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80.03</v>
       </c>
       <c r="F11" s="2">
         <v>59.99</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1265.02</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>421.67333333333335</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1265.02</v>
       </c>
       <c r="L11" s="1">
         <v>421.67</v>
       </c>
-      <c r="P11" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q11" s="3">
+        <f>Q10 + J11 - (H11 + K11+ L11 + M11)</f>
         <v>422.86333333333334</v>
       </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="1"/>
+      <c r="R11" s="4">
+        <f>R10 + H11 - K11</f>
         <v>423.26666666666665</v>
       </c>
-      <c r="R11" s="1">
-        <f t="shared" si="2"/>
+      <c r="S11" s="1">
+        <f>S10 + H11 - L11</f>
         <v>-0.40333333333336441</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -815,38 +831,38 @@
         <v>101.95</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>88.33</v>
       </c>
       <c r="F12" s="2">
         <v>59.99</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1273.32</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>424.44</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1273.32</v>
       </c>
-      <c r="P12" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q12" s="3">
+        <f>Q11 + J12 - (H12 + K12+ L12 + M12)</f>
         <v>1271.7433333333333</v>
       </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="1"/>
+      <c r="R12" s="4">
+        <f>R11 + H12 - K12</f>
         <v>847.70666666666671</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" si="2"/>
+      <c r="S12" s="1">
+        <f>S11 + H12 - L12</f>
         <v>424.03666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -857,22 +873,22 @@
         <v>135.81</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>101.95</v>
       </c>
       <c r="F13" s="2">
         <v>59.99</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1286.94</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>428.98</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1286.94</v>
       </c>
       <c r="K13" s="4">
@@ -881,20 +897,20 @@
       <c r="L13" s="1">
         <v>854</v>
       </c>
-      <c r="P13" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q13" s="3">
+        <f>Q12 + J13 - (H13 + K13+ L13 + M13)</f>
         <v>425.70333333333338</v>
       </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="1"/>
+      <c r="R13" s="4">
+        <f>R12 + H13 - K13</f>
         <v>426.68666666666672</v>
       </c>
-      <c r="R13" s="1">
-        <f t="shared" si="2"/>
+      <c r="S13" s="1">
+        <f>S12 + H13 - L13</f>
         <v>-0.98333333333334849</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -908,38 +924,38 @@
         <v>191.54</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>135.81</v>
       </c>
       <c r="F14" s="2">
         <v>59.99</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1320.8</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>440.26666666666665</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1320.8</v>
       </c>
-      <c r="P14" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q14" s="3">
+        <f>Q13 + J14 - (H14 + K14+ L14 + M14)</f>
         <v>1306.2366666666667</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="1"/>
+      <c r="R14" s="4">
+        <f>R13 + H14 - K14</f>
         <v>866.95333333333338</v>
       </c>
-      <c r="R14" s="1">
-        <f t="shared" si="2"/>
+      <c r="S14" s="1">
+        <f>S13 + H14 - L14</f>
         <v>439.2833333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -950,22 +966,22 @@
         <v>214.48</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>191.54</v>
       </c>
       <c r="F15" s="2">
         <v>59.99</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1376.53</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>458.84333333333331</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1376.53</v>
       </c>
       <c r="K15" s="4">
@@ -974,20 +990,20 @@
       <c r="L15" s="1">
         <v>899.11</v>
       </c>
-      <c r="P15" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q15" s="3">
+        <f>Q14 + J15 - (H15 + K15+ L15 + M15)</f>
         <v>-3.1866666666669516</v>
       </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="1"/>
+      <c r="R15" s="4">
+        <f>R14 + H15 - K15</f>
         <v>-2.2033333333333758</v>
       </c>
-      <c r="R15" s="1">
-        <f t="shared" si="2"/>
+      <c r="S15" s="1">
+        <f>S14 + H15 - L15</f>
         <v>-0.98333333333346218</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -998,22 +1014,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>214.48</v>
       </c>
       <c r="F16" s="2">
         <v>59.99</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1399.47</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>466.49</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1399.47</v>
       </c>
       <c r="K16" s="4">
@@ -1022,16 +1038,16 @@
       <c r="L16" s="1">
         <v>466.5</v>
       </c>
-      <c r="P16" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q16" s="3">
+        <f>Q15 + J16 - (H16 + K16+ L16 + M16)</f>
         <v>-3.2066666666669335</v>
       </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="1"/>
+      <c r="R16" s="4">
+        <f>R15 + H16 - K16</f>
         <v>-2.2133333333333667</v>
       </c>
-      <c r="R16" s="1">
-        <f t="shared" si="2"/>
+      <c r="S16" s="1">
+        <f>S15 + H16 - L16</f>
         <v>-0.99333333333345308</v>
       </c>
     </row>
@@ -1046,34 +1062,34 @@
         <v>271.08999999999997</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>59.99</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1184.99</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>394.99666666666667</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1184.99</v>
       </c>
-      <c r="P17" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q17" s="3">
+        <f>Q16 + J17 - (H17 + K17+ L17 + M17)</f>
         <v>786.78666666666641</v>
       </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="1"/>
+      <c r="R17" s="4">
+        <f>R16 + H17 - K17</f>
         <v>392.7833333333333</v>
       </c>
-      <c r="R17" s="1">
-        <f t="shared" si="2"/>
+      <c r="S17" s="1">
+        <f>S16 + H17 - L17</f>
         <v>394.00333333333322</v>
       </c>
     </row>
@@ -1088,37 +1104,37 @@
         <v>116.12</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>271.08999999999997</v>
       </c>
       <c r="F18" s="2">
         <v>59.99</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1456.08</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>485.35999999999996</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1456.08</v>
       </c>
       <c r="L18" s="1">
         <v>880.36</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q18" s="3">
+        <f>Q17 + J18 - (H18 + K18+ L18 + M18)</f>
         <v>877.14666666666631</v>
       </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="1"/>
+      <c r="R18" s="4">
+        <f>R17 + H18 - K18</f>
         <v>878.1433333333332</v>
       </c>
-      <c r="R18" s="1">
-        <f t="shared" si="2"/>
+      <c r="S18" s="1">
+        <f>S17 + H18 - L18</f>
         <v>-0.99666666666678339</v>
       </c>
     </row>
@@ -1133,34 +1149,34 @@
         <v>106.96</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>116.12</v>
       </c>
       <c r="F19" s="2">
         <v>59.99</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1301.1099999999999</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>433.70333333333332</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1301.1099999999999</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="3">
+        <f>Q18 + J19 - (H19 + K19+ L19 + M19)</f>
         <v>1744.5533333333328</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="1"/>
+      <c r="R19" s="4">
+        <f>R18 + H19 - K19</f>
         <v>1311.8466666666666</v>
       </c>
-      <c r="S19" s="5">
-        <f t="shared" ref="S19:S34" si="7">S18 + H19 - M19</f>
+      <c r="T19" s="5">
+        <f>T18 + H19 - M19</f>
         <v>433.70333333333332</v>
       </c>
     </row>
@@ -1175,22 +1191,22 @@
         <v>72</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>106.96</v>
       </c>
       <c r="F20" s="2">
         <v>59.99</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1291.95</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>430.65000000000003</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1291.95</v>
       </c>
       <c r="K20" s="4">
@@ -1199,16 +1215,16 @@
       <c r="M20" s="5">
         <v>864.36</v>
       </c>
-      <c r="P20" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q20" s="3">
+        <f>Q19 + J20 - (H20 + K20+ L20 + M20)</f>
         <v>417.43333333333294</v>
       </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="1"/>
+      <c r="R20" s="4">
+        <f>R19 + H20 - K20</f>
         <v>418.43666666666672</v>
       </c>
-      <c r="S20" s="5">
-        <f t="shared" si="7"/>
+      <c r="T20" s="5">
+        <f>T19 + H20 - M20</f>
         <v>-6.6666666666606034E-3</v>
       </c>
     </row>
@@ -1223,34 +1239,34 @@
         <v>72.37</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F21" s="2">
         <v>59.99</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1256.99</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>418.99666666666667</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1256.99</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q21" s="3">
+        <f>Q20 + J21 - (H21 + K21+ L21 + M21)</f>
         <v>1255.4266666666663</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="1"/>
+      <c r="R21" s="4">
+        <f>R20 + H21 - K21</f>
         <v>837.43333333333339</v>
       </c>
-      <c r="S21" s="5">
-        <f t="shared" si="7"/>
+      <c r="T21" s="5">
+        <f>T20 + H21 - M21</f>
         <v>418.99</v>
       </c>
     </row>
@@ -1265,22 +1281,22 @@
         <v>71.7</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>72.37</v>
       </c>
       <c r="F22" s="2">
         <v>59.99</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>425.78666666666663</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="K22" s="4">
@@ -1289,16 +1305,16 @@
       <c r="M22" s="5">
         <v>844.79</v>
       </c>
-      <c r="P22" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q22" s="3">
+        <f>Q21 + J22 - (H22 + K22+ L22 + M22)</f>
         <v>-337.79000000000087</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="1"/>
+      <c r="R22" s="4">
+        <f>R21 + H22 - K22</f>
         <v>-336.78</v>
       </c>
-      <c r="S22" s="5">
-        <f t="shared" si="7"/>
+      <c r="T22" s="5">
+        <f>T21 + H22 - M22</f>
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
@@ -1313,34 +1329,34 @@
         <v>79.25</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>71.7</v>
       </c>
       <c r="F23" s="2">
         <v>59.99</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1276.69</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>425.56333333333333</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1276.69</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q23" s="3">
+        <f>Q22 + J23 - (H23 + K23+ L23 + M23)</f>
         <v>513.33666666666591</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="1"/>
+      <c r="R23" s="4">
+        <f>R22 + H23 - K23</f>
         <v>88.78333333333336</v>
       </c>
-      <c r="S23" s="5">
-        <f t="shared" si="7"/>
+      <c r="T23" s="5">
+        <f>T22 + H23 - M23</f>
         <v>425.55</v>
       </c>
     </row>
@@ -1355,37 +1371,37 @@
         <v>135.03</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
       <c r="F24" s="2">
         <v>59.99</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1284.24</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>428.08</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1284.24</v>
       </c>
       <c r="M24" s="5">
         <v>911</v>
       </c>
-      <c r="P24" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q24" s="3">
+        <f>Q23 + J24 - (H24 + K24+ L24 + M24)</f>
         <v>458.49666666666599</v>
       </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="1"/>
+      <c r="R24" s="4">
+        <f>R23 + H24 - K24</f>
         <v>516.86333333333334</v>
       </c>
-      <c r="S24" s="5">
-        <f t="shared" si="7"/>
+      <c r="T24" s="5">
+        <f>T23 + H24 - M24</f>
         <v>-57.370000000000005</v>
       </c>
     </row>
@@ -1400,34 +1416,34 @@
         <v>158.99</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>135.03</v>
       </c>
       <c r="F25" s="2">
         <v>59.99</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1340.02</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>446.67333333333335</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1340.02</v>
       </c>
-      <c r="P25" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q25" s="3">
+        <f>Q24 + J25 - (H25 + K25+ L25 + M25)</f>
         <v>1351.8433333333326</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="1"/>
+      <c r="R25" s="4">
+        <f>R24 + H25 - K25</f>
         <v>963.53666666666663</v>
       </c>
-      <c r="S25" s="5">
-        <f t="shared" si="7"/>
+      <c r="T25" s="5">
+        <f>T24 + H25 - M25</f>
         <v>389.30333333333334</v>
       </c>
     </row>
@@ -1445,37 +1461,37 @@
         <v>150.13999999999999</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>158.99</v>
       </c>
       <c r="F26" s="2">
         <v>59.99</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1363.98</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>454.66</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1363.98</v>
       </c>
       <c r="K26" s="4">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q26" s="3">
+        <f>Q25 + J26 - (H26 + K26+ L26 + M26)</f>
         <v>1161.1633333333327</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="1"/>
+      <c r="R26" s="4">
+        <f>R25 + H26 - K26</f>
         <v>318.19666666666672</v>
       </c>
-      <c r="S26" s="5">
-        <f t="shared" si="7"/>
+      <c r="T26" s="5">
+        <f>T25 + H26 - M26</f>
         <v>843.96333333333337</v>
       </c>
     </row>
@@ -1490,37 +1506,37 @@
         <v>157.99</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150.13999999999999</v>
       </c>
       <c r="F27" s="2">
         <v>59.99</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>451.71</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="M27" s="5">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q27" s="3">
+        <f>Q26 + J27 - (H27 + K27+ L27 + M27)</f>
         <v>1564.5833333333326</v>
       </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="1"/>
+      <c r="R27" s="4">
+        <f>R26 + H27 - K27</f>
         <v>769.90666666666675</v>
       </c>
-      <c r="S27" s="5">
-        <f t="shared" si="7"/>
+      <c r="T27" s="5">
+        <f>T26 + H27 - M27</f>
         <v>795.6733333333334</v>
       </c>
     </row>
@@ -1535,22 +1551,22 @@
         <v>177.54</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>157.99</v>
       </c>
       <c r="F28" s="2">
         <v>59.99</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1362.98</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>454.32666666666665</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1362.98</v>
       </c>
       <c r="K28" s="4">
@@ -1559,20 +1575,17 @@
       <c r="M28" s="5">
         <v>1170</v>
       </c>
-      <c r="P28" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q28" s="3">
+        <f>Q27 + J28 - (H28 + K28+ L28 + M28)</f>
         <v>-496.76333333333423</v>
       </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="1"/>
+      <c r="R28" s="4">
+        <f>R27 + H28 - K28</f>
         <v>-575.76666666666665</v>
       </c>
-      <c r="S28" s="5">
-        <f t="shared" si="7"/>
+      <c r="T28" s="5">
+        <f>T27 + H28 - M28</f>
         <v>80</v>
-      </c>
-      <c r="U28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
@@ -1586,34 +1599,34 @@
         <v>164.3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>177.54</v>
       </c>
       <c r="F29" s="2">
         <v>59.99</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1382.53</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>460.84333333333331</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1382.53</v>
       </c>
-      <c r="P29" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q29" s="3">
+        <f>Q28 + J29 - (H29 + K29+ L29 + M29)</f>
         <v>424.92333333333244</v>
       </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="1"/>
+      <c r="R29" s="4">
+        <f>R28 + H29 - K29</f>
         <v>-114.92333333333335</v>
       </c>
-      <c r="S29" s="5">
-        <f t="shared" si="7"/>
+      <c r="T29" s="5">
+        <f>T28 + H29 - M29</f>
         <v>540.84333333333325</v>
       </c>
     </row>
@@ -1628,40 +1641,40 @@
         <v>129.44</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>164.3</v>
       </c>
       <c r="F30" s="2">
         <v>59.99</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1369.29</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>456.43</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1369.29</v>
       </c>
       <c r="M30" s="5">
         <v>1000</v>
       </c>
-      <c r="P30" s="3">
-        <f t="shared" si="0"/>
+      <c r="Q30" s="3">
+        <f>Q29 + J30 - (H30 + K30+ L30 + M30)</f>
         <v>337.78333333333239</v>
       </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="1"/>
+      <c r="R30" s="4">
+        <f>R29 + H30 - K30</f>
         <v>341.50666666666666</v>
       </c>
-      <c r="S30" s="5">
-        <f t="shared" si="7"/>
+      <c r="T30" s="5">
+        <f>T29 + H30 - M30</f>
         <v>-2.7266666666666879</v>
       </c>
-      <c r="T30" s="7">
+      <c r="U30" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1676,22 +1689,22 @@
         <v>102.17</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>129.44</v>
       </c>
       <c r="F31" s="2">
         <v>59.99</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1334.43</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>444.81</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1334.43</v>
       </c>
       <c r="M31" s="5">
@@ -1700,16 +1713,16 @@
       <c r="N31" s="7">
         <v>444.81</v>
       </c>
-      <c r="P31" s="3">
-        <f>P30 + J31 - (H31 + K31+ L31 + M31 + N31)</f>
+      <c r="Q31" s="3">
+        <f>Q30 + J31 - (H31 + K31+ L31 + M31 + N31)</f>
         <v>337.78333333333239</v>
       </c>
-      <c r="S31" s="5">
-        <f t="shared" si="7"/>
+      <c r="T31" s="5">
+        <f>T30 + H31 - M31</f>
         <v>-2.7266666666666879</v>
       </c>
-      <c r="T31" s="7">
-        <f>T30 + H31 - N31</f>
+      <c r="U31" s="7">
+        <f>U30 + H31 - N31</f>
         <v>0</v>
       </c>
     </row>
@@ -1724,22 +1737,22 @@
         <v>75.099999999999994</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>102.17</v>
       </c>
       <c r="F32" s="2">
         <v>59.99</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1307.1600000000001</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>435.72</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1307.1600000000001</v>
       </c>
       <c r="M32" s="5">
@@ -1748,20 +1761,20 @@
       <c r="N32" s="7">
         <v>440</v>
       </c>
-      <c r="P32" s="3">
-        <f t="shared" ref="P32:P34" si="8">P31 + J32 - (H32 + K32+ L32 + M32 + N32)</f>
+      <c r="Q32" s="3">
+        <f>Q31 + J32 - (H32 + K32+ L32 + M32 + N32)</f>
         <v>336.22333333333245</v>
       </c>
-      <c r="S32" s="5">
-        <f t="shared" si="7"/>
+      <c r="T32" s="5">
+        <f>T31 + H32 - M32</f>
         <v>-6.6666666666606034E-3</v>
       </c>
-      <c r="T32" s="7">
-        <f>T31 + H32 - N32</f>
+      <c r="U32" s="7">
+        <f>U31 + H32 - N32</f>
         <v>-4.2799999999999727</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -1772,22 +1785,22 @@
         <v>94.57</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>75.099999999999994</v>
       </c>
       <c r="F33" s="2">
         <v>59.99</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1280.0899999999999</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>426.69666666666666</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1280.0899999999999</v>
       </c>
       <c r="M33" s="5">
@@ -1796,20 +1809,20 @@
       <c r="N33" s="7">
         <v>420</v>
       </c>
-      <c r="P33" s="3">
-        <f t="shared" si="8"/>
+      <c r="Q33" s="3">
+        <f>Q32 + J33 - (H33 + K33+ L33 + M33 + N33)</f>
         <v>329.61666666666565</v>
       </c>
-      <c r="S33" s="5">
-        <f t="shared" si="7"/>
+      <c r="T33" s="5">
+        <f>T32 + H33 - M33</f>
         <v>-13.310000000000002</v>
       </c>
-      <c r="T33" s="7">
-        <f>T32 + H33 - N33</f>
+      <c r="U33" s="7">
+        <f>U32 + H33 - N33</f>
         <v>2.4166666666666856</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -1820,22 +1833,22 @@
         <v>79.5</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>94.57</v>
       </c>
       <c r="F34" s="2">
         <v>59.99</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1299.56</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>433.18666666666667</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1299.56</v>
       </c>
       <c r="M34" s="5">
@@ -1844,57 +1857,269 @@
       <c r="N34" s="7">
         <v>420</v>
       </c>
-      <c r="P34" s="3">
-        <f t="shared" si="8"/>
+      <c r="Q34" s="3">
+        <f>Q33 + J34 - (H34 + K34+ L34 + M34 + N34)</f>
         <v>355.98999999999887</v>
       </c>
-      <c r="S34" s="5">
-        <f t="shared" si="7"/>
+      <c r="R34" s="4">
+        <f>R30</f>
+        <v>341.50666666666666</v>
+      </c>
+      <c r="T34" s="5">
+        <f>T33 + H34 - M34</f>
         <v>-0.12333333333333485</v>
       </c>
-      <c r="T34" s="7">
-        <f>T33 + H34 - N34</f>
+      <c r="U34" s="7">
+        <f>U33 + H34 - N34</f>
         <v>15.603333333333353</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="2">
         <v>1145</v>
       </c>
+      <c r="D35" s="2">
+        <v>88.87</v>
+      </c>
       <c r="E35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
       <c r="F35" s="2">
         <v>59.99</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1284.49</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="H35" s="6">
+        <f t="shared" si="2"/>
+        <v>428.16333333333336</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="3"/>
+        <v>1284.49</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>Q34 + J35 - (H35 + K35+ L35 + M35 + N35 + O35)</f>
+        <v>1212.3166666666655</v>
+      </c>
+      <c r="R35" s="4">
+        <f>R34 + H35 - K35</f>
+        <v>769.67000000000007</v>
+      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D36" s="2">
+        <v>104.95</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>88.87</v>
+      </c>
+      <c r="F36" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>1293.8599999999999</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="2"/>
+        <v>431.28666666666663</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="3"/>
+        <v>1293.8599999999999</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3800</v>
+      </c>
+      <c r="O36" s="9">
+        <f>381.67</f>
+        <v>381.67</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>Q35 + J36 - (H36 + K36+ L36 + M36 + N36 + O36)</f>
+        <v>-2106.7800000000016</v>
+      </c>
+      <c r="R36" s="4">
+        <f>R35 + H36 - K36</f>
+        <v>-2599.0433333333331</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="10">
+        <f>V35 + H36 - O36</f>
+        <v>49.616666666666617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>104.95</v>
+      </c>
+      <c r="F37" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="1"/>
+        <v>1309.94</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="2"/>
+        <v>436.6466666666667</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="3"/>
+        <v>1309.94</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" ref="Q37" si="4">Q36 + J37 - (H37 + K37+ L37 + M37 + N37 + O37)</f>
+        <v>-1233.4866666666683</v>
+      </c>
+      <c r="R37" s="4">
+        <f>R36 + H37 - K37</f>
+        <v>-2162.3966666666665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1145</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>1145</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="2"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" ref="R38:R42" si="5">R37 + H38 - K38</f>
+        <v>-1780.7299999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1145</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>1145</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="2"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="5"/>
+        <v>-1399.063333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1145</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="1"/>
+        <v>1145</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="2"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="5"/>
+        <v>-1017.3966666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1145</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="1"/>
+        <v>1145</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="2"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="5"/>
+        <v>-635.72999999999956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1145</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="1"/>
+        <v>1145</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="2"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="5"/>
+        <v>-254.06333333333288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E43" s="2">
+        <f>AVERAGE(E9:E42)</f>
+        <v>116.79379310344828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I45" s="2">
+        <f>3545.94+5*(60+110)/3</f>
+        <v>3829.2733333333335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I46" s="2">
+        <f>5*(60+110)/3</f>
+        <v>283.33333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83627371-DA53-4C4B-AD6C-EB1726B0E10C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882FECD6-D114-4FBD-B497-149BB2B0D9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -542,24 +547,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.90625" style="3" bestFit="1" customWidth="1"/>
@@ -715,15 +720,15 @@
         <v>422</v>
       </c>
       <c r="Q9" s="3">
-        <f>Q8 + J9 - (H9 + K9+ L9 + M9)</f>
+        <f t="shared" ref="Q9:Q30" si="0">Q8 + J9 - (H9 + K9+ L9 + M9)</f>
         <v>1.0199999999999818</v>
       </c>
       <c r="R9" s="4">
-        <f>R8 + H9 - K9</f>
+        <f t="shared" ref="R9:R30" si="1">R8 + H9 - K9</f>
         <v>1.5099999999999909</v>
       </c>
       <c r="S9" s="1">
-        <f>S8 + H9 - L9</f>
+        <f t="shared" ref="S9:S18" si="2">S8 + H9 - L9</f>
         <v>-0.49000000000000909</v>
       </c>
     </row>
@@ -738,22 +743,22 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E37" si="0">D9</f>
+        <f t="shared" ref="E10:E39" si="3">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="2">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G42" si="1">C10+E10+F10</f>
+        <f t="shared" ref="G10:G42" si="4">C10+E10+F10</f>
         <v>1272.25</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H42" si="2">G10/3</f>
+        <f t="shared" ref="H10:H42" si="5">G10/3</f>
         <v>424.08333333333331</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J37" si="3">G10</f>
+        <f t="shared" ref="J10:J39" si="6">G10</f>
         <v>1272.25</v>
       </c>
       <c r="K10" s="4">
@@ -763,15 +768,15 @@
         <v>424</v>
       </c>
       <c r="Q10" s="3">
-        <f>Q9 + J10 - (H10 + K10+ L10 + M10)</f>
+        <f t="shared" si="0"/>
         <v>1.1866666666667243</v>
       </c>
       <c r="R10" s="4">
-        <f>R9 + H10 - K10</f>
+        <f t="shared" si="1"/>
         <v>1.5933333333333053</v>
       </c>
       <c r="S10" s="1">
-        <f>S9 + H10 - L10</f>
+        <f t="shared" si="2"/>
         <v>-0.40666666666669471</v>
       </c>
     </row>
@@ -786,37 +791,37 @@
         <v>88.33</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80.03</v>
       </c>
       <c r="F11" s="2">
         <v>59.99</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1265.02</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>421.67333333333335</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1265.02</v>
       </c>
       <c r="L11" s="1">
         <v>421.67</v>
       </c>
       <c r="Q11" s="3">
-        <f>Q10 + J11 - (H11 + K11+ L11 + M11)</f>
+        <f t="shared" si="0"/>
         <v>422.86333333333334</v>
       </c>
       <c r="R11" s="4">
-        <f>R10 + H11 - K11</f>
+        <f t="shared" si="1"/>
         <v>423.26666666666665</v>
       </c>
       <c r="S11" s="1">
-        <f>S10 + H11 - L11</f>
+        <f t="shared" si="2"/>
         <v>-0.40333333333336441</v>
       </c>
     </row>
@@ -831,34 +836,34 @@
         <v>101.95</v>
       </c>
       <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>88.33</v>
+      </c>
+      <c r="F12" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>1273.32</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="5"/>
+        <v>424.44</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="6"/>
+        <v>1273.32</v>
+      </c>
+      <c r="Q12" s="3">
         <f t="shared" si="0"/>
-        <v>88.33</v>
-      </c>
-      <c r="F12" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G12" s="2">
+        <v>1271.7433333333333</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="1"/>
-        <v>1273.32</v>
-      </c>
-      <c r="H12" s="6">
+        <v>847.70666666666671</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="2"/>
-        <v>424.44</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="3"/>
-        <v>1273.32</v>
-      </c>
-      <c r="Q12" s="3">
-        <f>Q11 + J12 - (H12 + K12+ L12 + M12)</f>
-        <v>1271.7433333333333</v>
-      </c>
-      <c r="R12" s="4">
-        <f>R11 + H12 - K12</f>
-        <v>847.70666666666671</v>
-      </c>
-      <c r="S12" s="1">
-        <f>S11 + H12 - L12</f>
         <v>424.03666666666663</v>
       </c>
     </row>
@@ -873,22 +878,22 @@
         <v>135.81</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>101.95</v>
       </c>
       <c r="F13" s="2">
         <v>59.99</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1286.94</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428.98</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1286.94</v>
       </c>
       <c r="K13" s="4">
@@ -898,15 +903,15 @@
         <v>854</v>
       </c>
       <c r="Q13" s="3">
-        <f>Q12 + J13 - (H13 + K13+ L13 + M13)</f>
+        <f t="shared" si="0"/>
         <v>425.70333333333338</v>
       </c>
       <c r="R13" s="4">
-        <f>R12 + H13 - K13</f>
+        <f t="shared" si="1"/>
         <v>426.68666666666672</v>
       </c>
       <c r="S13" s="1">
-        <f>S12 + H13 - L13</f>
+        <f t="shared" si="2"/>
         <v>-0.98333333333334849</v>
       </c>
     </row>
@@ -924,34 +929,34 @@
         <v>191.54</v>
       </c>
       <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>135.81</v>
+      </c>
+      <c r="F14" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
+        <v>1320.8</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="5"/>
+        <v>440.26666666666665</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="6"/>
+        <v>1320.8</v>
+      </c>
+      <c r="Q14" s="3">
         <f t="shared" si="0"/>
-        <v>135.81</v>
-      </c>
-      <c r="F14" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G14" s="2">
+        <v>1306.2366666666667</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="1"/>
-        <v>1320.8</v>
-      </c>
-      <c r="H14" s="6">
+        <v>866.95333333333338</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="2"/>
-        <v>440.26666666666665</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="3"/>
-        <v>1320.8</v>
-      </c>
-      <c r="Q14" s="3">
-        <f>Q13 + J14 - (H14 + K14+ L14 + M14)</f>
-        <v>1306.2366666666667</v>
-      </c>
-      <c r="R14" s="4">
-        <f>R13 + H14 - K14</f>
-        <v>866.95333333333338</v>
-      </c>
-      <c r="S14" s="1">
-        <f>S13 + H14 - L14</f>
         <v>439.2833333333333</v>
       </c>
     </row>
@@ -966,22 +971,22 @@
         <v>214.48</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>191.54</v>
       </c>
       <c r="F15" s="2">
         <v>59.99</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1376.53</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>458.84333333333331</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1376.53</v>
       </c>
       <c r="K15" s="4">
@@ -991,15 +996,15 @@
         <v>899.11</v>
       </c>
       <c r="Q15" s="3">
-        <f>Q14 + J15 - (H15 + K15+ L15 + M15)</f>
+        <f t="shared" si="0"/>
         <v>-3.1866666666669516</v>
       </c>
       <c r="R15" s="4">
-        <f>R14 + H15 - K15</f>
+        <f t="shared" si="1"/>
         <v>-2.2033333333333758</v>
       </c>
       <c r="S15" s="1">
-        <f>S14 + H15 - L15</f>
+        <f t="shared" si="2"/>
         <v>-0.98333333333346218</v>
       </c>
     </row>
@@ -1014,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>214.48</v>
       </c>
       <c r="F16" s="2">
         <v>59.99</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1399.47</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>466.49</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1399.47</v>
       </c>
       <c r="K16" s="4">
@@ -1039,15 +1044,15 @@
         <v>466.5</v>
       </c>
       <c r="Q16" s="3">
-        <f>Q15 + J16 - (H16 + K16+ L16 + M16)</f>
+        <f t="shared" si="0"/>
         <v>-3.2066666666669335</v>
       </c>
       <c r="R16" s="4">
-        <f>R15 + H16 - K16</f>
+        <f t="shared" si="1"/>
         <v>-2.2133333333333667</v>
       </c>
       <c r="S16" s="1">
-        <f>S15 + H16 - L16</f>
+        <f t="shared" si="2"/>
         <v>-0.99333333333345308</v>
       </c>
     </row>
@@ -1062,34 +1067,34 @@
         <v>271.08999999999997</v>
       </c>
       <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>1184.99</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="5"/>
+        <v>394.99666666666667</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>1184.99</v>
+      </c>
+      <c r="Q17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G17" s="2">
+        <v>786.78666666666641</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="1"/>
-        <v>1184.99</v>
-      </c>
-      <c r="H17" s="6">
+        <v>392.7833333333333</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" si="2"/>
-        <v>394.99666666666667</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="3"/>
-        <v>1184.99</v>
-      </c>
-      <c r="Q17" s="3">
-        <f>Q16 + J17 - (H17 + K17+ L17 + M17)</f>
-        <v>786.78666666666641</v>
-      </c>
-      <c r="R17" s="4">
-        <f>R16 + H17 - K17</f>
-        <v>392.7833333333333</v>
-      </c>
-      <c r="S17" s="1">
-        <f>S16 + H17 - L17</f>
         <v>394.00333333333322</v>
       </c>
     </row>
@@ -1104,37 +1109,37 @@
         <v>116.12</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>271.08999999999997</v>
       </c>
       <c r="F18" s="2">
         <v>59.99</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1456.08</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>485.35999999999996</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1456.08</v>
       </c>
       <c r="L18" s="1">
         <v>880.36</v>
       </c>
       <c r="Q18" s="3">
-        <f>Q17 + J18 - (H18 + K18+ L18 + M18)</f>
+        <f t="shared" si="0"/>
         <v>877.14666666666631</v>
       </c>
       <c r="R18" s="4">
-        <f>R17 + H18 - K18</f>
+        <f t="shared" si="1"/>
         <v>878.1433333333332</v>
       </c>
       <c r="S18" s="1">
-        <f>S17 + H18 - L18</f>
+        <f t="shared" si="2"/>
         <v>-0.99666666666678339</v>
       </c>
     </row>
@@ -1149,34 +1154,34 @@
         <v>106.96</v>
       </c>
       <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>116.12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="4"/>
+        <v>1301.1099999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="5"/>
+        <v>433.70333333333332</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="6"/>
+        <v>1301.1099999999999</v>
+      </c>
+      <c r="Q19" s="3">
         <f t="shared" si="0"/>
-        <v>116.12</v>
-      </c>
-      <c r="F19" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G19" s="2">
+        <v>1744.5533333333328</v>
+      </c>
+      <c r="R19" s="4">
         <f t="shared" si="1"/>
-        <v>1301.1099999999999</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>433.70333333333332</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="3"/>
-        <v>1301.1099999999999</v>
-      </c>
-      <c r="Q19" s="3">
-        <f>Q18 + J19 - (H19 + K19+ L19 + M19)</f>
-        <v>1744.5533333333328</v>
-      </c>
-      <c r="R19" s="4">
-        <f>R18 + H19 - K19</f>
         <v>1311.8466666666666</v>
       </c>
       <c r="T19" s="5">
-        <f>T18 + H19 - M19</f>
+        <f t="shared" ref="T19:T34" si="7">T18 + H19 - M19</f>
         <v>433.70333333333332</v>
       </c>
     </row>
@@ -1191,22 +1196,22 @@
         <v>72</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>106.96</v>
       </c>
       <c r="F20" s="2">
         <v>59.99</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1291.95</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>430.65000000000003</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1291.95</v>
       </c>
       <c r="K20" s="4">
@@ -1216,15 +1221,15 @@
         <v>864.36</v>
       </c>
       <c r="Q20" s="3">
-        <f>Q19 + J20 - (H20 + K20+ L20 + M20)</f>
+        <f t="shared" si="0"/>
         <v>417.43333333333294</v>
       </c>
       <c r="R20" s="4">
-        <f>R19 + H20 - K20</f>
+        <f t="shared" si="1"/>
         <v>418.43666666666672</v>
       </c>
       <c r="T20" s="5">
-        <f>T19 + H20 - M20</f>
+        <f t="shared" si="7"/>
         <v>-6.6666666666606034E-3</v>
       </c>
     </row>
@@ -1239,34 +1244,34 @@
         <v>72.37</v>
       </c>
       <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F21" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="4"/>
+        <v>1256.99</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="5"/>
+        <v>418.99666666666667</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="6"/>
+        <v>1256.99</v>
+      </c>
+      <c r="Q21" s="3">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="F21" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G21" s="2">
+        <v>1255.4266666666663</v>
+      </c>
+      <c r="R21" s="4">
         <f t="shared" si="1"/>
-        <v>1256.99</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>418.99666666666667</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="3"/>
-        <v>1256.99</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>Q20 + J21 - (H21 + K21+ L21 + M21)</f>
-        <v>1255.4266666666663</v>
-      </c>
-      <c r="R21" s="4">
-        <f>R20 + H21 - K21</f>
         <v>837.43333333333339</v>
       </c>
       <c r="T21" s="5">
-        <f>T20 + H21 - M21</f>
+        <f t="shared" si="7"/>
         <v>418.99</v>
       </c>
     </row>
@@ -1281,22 +1286,22 @@
         <v>71.7</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>72.37</v>
       </c>
       <c r="F22" s="2">
         <v>59.99</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>425.78666666666663</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1277.3599999999999</v>
       </c>
       <c r="K22" s="4">
@@ -1306,15 +1311,15 @@
         <v>844.79</v>
       </c>
       <c r="Q22" s="3">
-        <f>Q21 + J22 - (H22 + K22+ L22 + M22)</f>
+        <f t="shared" si="0"/>
         <v>-337.79000000000087</v>
       </c>
       <c r="R22" s="4">
-        <f>R21 + H22 - K22</f>
+        <f t="shared" si="1"/>
         <v>-336.78</v>
       </c>
       <c r="T22" s="5">
-        <f>T21 + H22 - M22</f>
+        <f t="shared" si="7"/>
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
@@ -1329,34 +1334,34 @@
         <v>79.25</v>
       </c>
       <c r="E23" s="2">
+        <f t="shared" si="3"/>
+        <v>71.7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="4"/>
+        <v>1276.69</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="5"/>
+        <v>425.56333333333333</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="6"/>
+        <v>1276.69</v>
+      </c>
+      <c r="Q23" s="3">
         <f t="shared" si="0"/>
-        <v>71.7</v>
-      </c>
-      <c r="F23" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G23" s="2">
+        <v>513.33666666666591</v>
+      </c>
+      <c r="R23" s="4">
         <f t="shared" si="1"/>
-        <v>1276.69</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="2"/>
-        <v>425.56333333333333</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="3"/>
-        <v>1276.69</v>
-      </c>
-      <c r="Q23" s="3">
-        <f>Q22 + J23 - (H23 + K23+ L23 + M23)</f>
-        <v>513.33666666666591</v>
-      </c>
-      <c r="R23" s="4">
-        <f>R22 + H23 - K23</f>
         <v>88.78333333333336</v>
       </c>
       <c r="T23" s="5">
-        <f>T22 + H23 - M23</f>
+        <f t="shared" si="7"/>
         <v>425.55</v>
       </c>
     </row>
@@ -1371,37 +1376,37 @@
         <v>135.03</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>79.25</v>
       </c>
       <c r="F24" s="2">
         <v>59.99</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1284.24</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428.08</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1284.24</v>
       </c>
       <c r="M24" s="5">
         <v>911</v>
       </c>
       <c r="Q24" s="3">
-        <f>Q23 + J24 - (H24 + K24+ L24 + M24)</f>
+        <f t="shared" si="0"/>
         <v>458.49666666666599</v>
       </c>
       <c r="R24" s="4">
-        <f>R23 + H24 - K24</f>
+        <f t="shared" si="1"/>
         <v>516.86333333333334</v>
       </c>
       <c r="T24" s="5">
-        <f>T23 + H24 - M24</f>
+        <f t="shared" si="7"/>
         <v>-57.370000000000005</v>
       </c>
     </row>
@@ -1416,34 +1421,34 @@
         <v>158.99</v>
       </c>
       <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>135.03</v>
+      </c>
+      <c r="F25" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
+        <v>1340.02</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="5"/>
+        <v>446.67333333333335</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="6"/>
+        <v>1340.02</v>
+      </c>
+      <c r="Q25" s="3">
         <f t="shared" si="0"/>
-        <v>135.03</v>
-      </c>
-      <c r="F25" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G25" s="2">
+        <v>1351.8433333333326</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="1"/>
-        <v>1340.02</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="2"/>
-        <v>446.67333333333335</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="3"/>
-        <v>1340.02</v>
-      </c>
-      <c r="Q25" s="3">
-        <f>Q24 + J25 - (H25 + K25+ L25 + M25)</f>
-        <v>1351.8433333333326</v>
-      </c>
-      <c r="R25" s="4">
-        <f>R24 + H25 - K25</f>
         <v>963.53666666666663</v>
       </c>
       <c r="T25" s="5">
-        <f>T24 + H25 - M25</f>
+        <f t="shared" si="7"/>
         <v>389.30333333333334</v>
       </c>
     </row>
@@ -1461,37 +1466,37 @@
         <v>150.13999999999999</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>158.99</v>
       </c>
       <c r="F26" s="2">
         <v>59.99</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1363.98</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>454.66</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1363.98</v>
       </c>
       <c r="K26" s="4">
         <v>1100</v>
       </c>
       <c r="Q26" s="3">
-        <f>Q25 + J26 - (H26 + K26+ L26 + M26)</f>
+        <f t="shared" si="0"/>
         <v>1161.1633333333327</v>
       </c>
       <c r="R26" s="4">
-        <f>R25 + H26 - K26</f>
+        <f t="shared" si="1"/>
         <v>318.19666666666672</v>
       </c>
       <c r="T26" s="5">
-        <f>T25 + H26 - M26</f>
+        <f t="shared" si="7"/>
         <v>843.96333333333337</v>
       </c>
     </row>
@@ -1506,37 +1511,37 @@
         <v>157.99</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150.13999999999999</v>
       </c>
       <c r="F27" s="2">
         <v>59.99</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>451.71</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="M27" s="5">
         <v>500</v>
       </c>
       <c r="Q27" s="3">
-        <f>Q26 + J27 - (H27 + K27+ L27 + M27)</f>
+        <f t="shared" si="0"/>
         <v>1564.5833333333326</v>
       </c>
       <c r="R27" s="4">
-        <f>R26 + H27 - K27</f>
+        <f t="shared" si="1"/>
         <v>769.90666666666675</v>
       </c>
       <c r="T27" s="5">
-        <f>T26 + H27 - M27</f>
+        <f t="shared" si="7"/>
         <v>795.6733333333334</v>
       </c>
     </row>
@@ -1551,22 +1556,22 @@
         <v>177.54</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>157.99</v>
       </c>
       <c r="F28" s="2">
         <v>59.99</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1362.98</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>454.32666666666665</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1362.98</v>
       </c>
       <c r="K28" s="4">
@@ -1576,15 +1581,15 @@
         <v>1170</v>
       </c>
       <c r="Q28" s="3">
-        <f>Q27 + J28 - (H28 + K28+ L28 + M28)</f>
+        <f t="shared" si="0"/>
         <v>-496.76333333333423</v>
       </c>
       <c r="R28" s="4">
-        <f>R27 + H28 - K28</f>
+        <f t="shared" si="1"/>
         <v>-575.76666666666665</v>
       </c>
       <c r="T28" s="5">
-        <f>T27 + H28 - M28</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
@@ -1599,34 +1604,34 @@
         <v>164.3</v>
       </c>
       <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>177.54</v>
+      </c>
+      <c r="F29" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>1382.53</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="5"/>
+        <v>460.84333333333331</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="6"/>
+        <v>1382.53</v>
+      </c>
+      <c r="Q29" s="3">
         <f t="shared" si="0"/>
-        <v>177.54</v>
-      </c>
-      <c r="F29" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="G29" s="2">
+        <v>424.92333333333244</v>
+      </c>
+      <c r="R29" s="4">
         <f t="shared" si="1"/>
-        <v>1382.53</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="2"/>
-        <v>460.84333333333331</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="3"/>
-        <v>1382.53</v>
-      </c>
-      <c r="Q29" s="3">
-        <f>Q28 + J29 - (H29 + K29+ L29 + M29)</f>
-        <v>424.92333333333244</v>
-      </c>
-      <c r="R29" s="4">
-        <f>R28 + H29 - K29</f>
         <v>-114.92333333333335</v>
       </c>
       <c r="T29" s="5">
-        <f>T28 + H29 - M29</f>
+        <f t="shared" si="7"/>
         <v>540.84333333333325</v>
       </c>
     </row>
@@ -1641,37 +1646,37 @@
         <v>129.44</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>164.3</v>
       </c>
       <c r="F30" s="2">
         <v>59.99</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1369.29</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>456.43</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1369.29</v>
       </c>
       <c r="M30" s="5">
         <v>1000</v>
       </c>
       <c r="Q30" s="3">
-        <f>Q29 + J30 - (H30 + K30+ L30 + M30)</f>
+        <f t="shared" si="0"/>
         <v>337.78333333333239</v>
       </c>
       <c r="R30" s="4">
-        <f>R29 + H30 - K30</f>
+        <f t="shared" si="1"/>
         <v>341.50666666666666</v>
       </c>
       <c r="T30" s="5">
-        <f>T29 + H30 - M30</f>
+        <f t="shared" si="7"/>
         <v>-2.7266666666666879</v>
       </c>
       <c r="U30" s="7">
@@ -1689,22 +1694,22 @@
         <v>102.17</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>129.44</v>
       </c>
       <c r="F31" s="2">
         <v>59.99</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1334.43</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>444.81</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1334.43</v>
       </c>
       <c r="M31" s="5">
@@ -1718,7 +1723,7 @@
         <v>337.78333333333239</v>
       </c>
       <c r="T31" s="5">
-        <f>T30 + H31 - M31</f>
+        <f t="shared" si="7"/>
         <v>-2.7266666666666879</v>
       </c>
       <c r="U31" s="7">
@@ -1737,22 +1742,22 @@
         <v>75.099999999999994</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>102.17</v>
       </c>
       <c r="F32" s="2">
         <v>59.99</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1307.1600000000001</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>435.72</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1307.1600000000001</v>
       </c>
       <c r="M32" s="5">
@@ -1766,7 +1771,7 @@
         <v>336.22333333333245</v>
       </c>
       <c r="T32" s="5">
-        <f>T31 + H32 - M32</f>
+        <f t="shared" si="7"/>
         <v>-6.6666666666606034E-3</v>
       </c>
       <c r="U32" s="7">
@@ -1785,22 +1790,22 @@
         <v>94.57</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75.099999999999994</v>
       </c>
       <c r="F33" s="2">
         <v>59.99</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1280.0899999999999</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>426.69666666666666</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1280.0899999999999</v>
       </c>
       <c r="M33" s="5">
@@ -1814,7 +1819,7 @@
         <v>329.61666666666565</v>
       </c>
       <c r="T33" s="5">
-        <f>T32 + H33 - M33</f>
+        <f t="shared" si="7"/>
         <v>-13.310000000000002</v>
       </c>
       <c r="U33" s="7">
@@ -1833,22 +1838,22 @@
         <v>79.5</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>94.57</v>
       </c>
       <c r="F34" s="2">
         <v>59.99</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1299.56</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>433.18666666666667</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1299.56</v>
       </c>
       <c r="M34" s="5">
@@ -1866,7 +1871,7 @@
         <v>341.50666666666666</v>
       </c>
       <c r="T34" s="5">
-        <f>T33 + H34 - M34</f>
+        <f t="shared" si="7"/>
         <v>-0.12333333333333485</v>
       </c>
       <c r="U34" s="7">
@@ -1885,22 +1890,22 @@
         <v>88.87</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>79.5</v>
       </c>
       <c r="F35" s="2">
         <v>59.99</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1284.49</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>428.16333333333336</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1284.49</v>
       </c>
       <c r="Q35" s="3">
@@ -1927,22 +1932,22 @@
         <v>104.95</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>88.87</v>
       </c>
       <c r="F36" s="2">
         <v>59.99</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1293.8599999999999</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>431.28666666666663</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1293.8599999999999</v>
       </c>
       <c r="K36" s="4">
@@ -1973,33 +1978,44 @@
       <c r="C37" s="2">
         <v>1145</v>
       </c>
+      <c r="D37" s="2">
+        <v>130.52000000000001</v>
+      </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>104.95</v>
       </c>
       <c r="F37" s="2">
         <v>59.99</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1309.94</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>436.6466666666667</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1309.94</v>
       </c>
+      <c r="O37" s="9">
+        <f>381.67+49.62+54.97</f>
+        <v>486.26</v>
+      </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="4">Q36 + J37 - (H37 + K37+ L37 + M37 + N37 + O37)</f>
-        <v>-1233.4866666666683</v>
+        <f t="shared" ref="Q37:Q39" si="8">Q36 + J37 - (H37 + K37+ L37 + M37 + N37 + O37)</f>
+        <v>-1719.7466666666683</v>
       </c>
       <c r="R37" s="4">
         <f>R36 + H37 - K37</f>
         <v>-2162.3966666666665</v>
       </c>
+      <c r="V37" s="10">
+        <f>V36 + H37 - O37</f>
+        <v>3.3333333333303017E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -2011,17 +2027,43 @@
       <c r="C38" s="2">
         <v>1145</v>
       </c>
+      <c r="D38" s="2">
+        <v>128</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>130.52000000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <v>59.99</v>
+      </c>
       <c r="G38" s="2">
-        <f t="shared" si="1"/>
-        <v>1145</v>
+        <f t="shared" si="4"/>
+        <v>1335.51</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="2"/>
-        <v>381.66666666666669</v>
+        <f t="shared" si="5"/>
+        <v>445.17</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="6"/>
+        <v>1335.51</v>
+      </c>
+      <c r="O38" s="9">
+        <f>381.67+63.5</f>
+        <v>445.17</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="8"/>
+        <v>-1274.5766666666682</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38:R42" si="5">R37 + H38 - K38</f>
-        <v>-1780.7299999999998</v>
+        <f t="shared" ref="R38:R42" si="9">R37 + H38 - K38</f>
+        <v>-1717.2266666666665</v>
+      </c>
+      <c r="V38" s="10">
+        <f>V37 + H38 - O38</f>
+        <v>3.3333333333303017E-3</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
@@ -2031,17 +2073,36 @@
       <c r="C39" s="2">
         <v>1145</v>
       </c>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="F39" s="2">
+        <v>59.99</v>
+      </c>
       <c r="G39" s="2">
-        <f t="shared" si="1"/>
-        <v>1145</v>
+        <f t="shared" si="4"/>
+        <v>1332.99</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="2"/>
-        <v>381.66666666666669</v>
+        <f t="shared" si="5"/>
+        <v>444.33</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="6"/>
+        <v>1332.99</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="8"/>
+        <v>-385.91666666666816</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="5"/>
-        <v>-1399.063333333333</v>
+        <f t="shared" si="9"/>
+        <v>-1272.8966666666665</v>
+      </c>
+      <c r="V39" s="10">
+        <f>V38 + H39 - O39</f>
+        <v>444.33333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
@@ -2052,16 +2113,16 @@
         <v>1145</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1145</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>381.66666666666669</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="5"/>
-        <v>-1017.3966666666663</v>
+        <f t="shared" si="9"/>
+        <v>-891.22999999999979</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
@@ -2072,16 +2133,16 @@
         <v>1145</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1145</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>381.66666666666669</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="5"/>
-        <v>-635.72999999999956</v>
+        <f t="shared" si="9"/>
+        <v>-509.56333333333311</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
@@ -2092,34 +2153,22 @@
         <v>1145</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1145</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>381.66666666666669</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="5"/>
-        <v>-254.06333333333288</v>
+        <f t="shared" si="9"/>
+        <v>-127.89666666666642</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E43" s="2">
         <f>AVERAGE(E9:E42)</f>
-        <v>116.79379310344828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I45" s="2">
-        <f>3545.94+5*(60+110)/3</f>
-        <v>3829.2733333333335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I46" s="2">
-        <f>5*(60+110)/3</f>
-        <v>283.33333333333331</v>
+        <v>117.59806451612903</v>
       </c>
     </row>
   </sheetData>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882FECD6-D114-4FBD-B497-149BB2B0D9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6BAF7-FAD9-4FDB-9E55-D3D647AC3B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>January</t>
   </si>
@@ -77,21 +77,12 @@
     <t>Rent</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Per Roomie</t>
   </si>
   <si>
-    <t>Shifted Uitlities</t>
-  </si>
-  <si>
     <t>Roy Paid</t>
   </si>
   <si>
@@ -126,14 +117,27 @@
   </si>
   <si>
     <t>Cappy Balance</t>
+  </si>
+  <si>
+    <t>Rent per roomie</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Shifted Power</t>
+  </si>
+  <si>
+    <t>Utilities per roomie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,18 +218,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -547,103 +552,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08984375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.36328125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.54296875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="13.36328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="2"/>
+    <col min="18" max="18" width="12.6328125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.36328125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="13.36328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -651,1524 +660,1742 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1125</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>87.26</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>D8</f>
         <v>79.540000000000006</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>59.99</v>
       </c>
       <c r="G9" s="2">
-        <f>C9+E9+F9</f>
+        <f>C9/3</f>
+        <v>375</v>
+      </c>
+      <c r="H9" s="1">
+        <f>(E9+F9)/3</f>
+        <v>46.51</v>
+      </c>
+      <c r="I9" s="3">
+        <f>G9+H9</f>
+        <v>421.51</v>
+      </c>
+      <c r="K9" s="4">
+        <f>3 *I9</f>
         <v>1264.53</v>
       </c>
-      <c r="H9" s="6">
-        <f>G9/3</f>
-        <v>421.51</v>
-      </c>
-      <c r="J9" s="3">
-        <f>G9</f>
-        <v>1264.53</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="L9" s="5">
         <v>420</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="6">
         <v>422</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" ref="Q9:Q30" si="0">Q8 + J9 - (H9 + K9+ L9 + M9)</f>
+      <c r="R9" s="4">
+        <f>R8 + K9 - (I9 + L9+ M9 + N9)</f>
         <v>1.0199999999999818</v>
       </c>
-      <c r="R9" s="4">
-        <f t="shared" ref="R9:R30" si="1">R8 + H9 - K9</f>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:S30" si="0">S8 + I9 - L9</f>
         <v>1.5099999999999909</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" ref="S9:S18" si="2">S8 + H9 - L9</f>
+      <c r="T9" s="6">
+        <f t="shared" ref="T9:T18" si="1">T8 + I9 - M9</f>
         <v>-0.49000000000000909</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1125</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>80.03</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E39" si="3">D9</f>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10:E41" si="2">D9</f>
         <v>87.26</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G42" si="4">C10+E10+F10</f>
+        <f t="shared" ref="G10:G41" si="3">C10/3</f>
+        <v>375</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10:H41" si="4">(E10+F10)/3</f>
+        <v>49.083333333333336</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I41" si="5">G10+H10</f>
+        <v>424.08333333333331</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:K40" si="6">3 *I10</f>
         <v>1272.25</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H42" si="5">G10/3</f>
-        <v>424.08333333333331</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" ref="J10:J39" si="6">G10</f>
-        <v>1272.25</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="L10" s="5">
         <v>424</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="6">
         <v>424</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="4">
+        <f>R9 + K10 - (I10 + L10+ M10 + N10)</f>
+        <v>1.1866666666667243</v>
+      </c>
+      <c r="S10" s="5">
         <f t="shared" si="0"/>
-        <v>1.1866666666667243</v>
-      </c>
-      <c r="R10" s="4">
+        <v>1.5933333333333053</v>
+      </c>
+      <c r="T10" s="6">
         <f t="shared" si="1"/>
-        <v>1.5933333333333053</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="2"/>
         <v>-0.40666666666669471</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1125</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>88.33</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
         <v>80.03</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>59.99</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>46.673333333333339</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="5"/>
+        <v>421.67333333333335</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="6"/>
         <v>1265.02</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="5"/>
-        <v>421.67333333333335</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="6"/>
-        <v>1265.02</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="M11" s="6">
         <v>421.67</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="4">
+        <f>R10 + K11 - (I11 + L11+ M11 + N11)</f>
+        <v>422.86333333333334</v>
+      </c>
+      <c r="S11" s="5">
         <f t="shared" si="0"/>
-        <v>422.86333333333334</v>
-      </c>
-      <c r="R11" s="4">
+        <v>423.26666666666665</v>
+      </c>
+      <c r="T11" s="6">
         <f t="shared" si="1"/>
-        <v>423.26666666666665</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="2"/>
         <v>-0.40333333333336441</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1125</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>101.95</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
         <v>88.33</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>59.99</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>49.44</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="5"/>
+        <v>424.44</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="6"/>
         <v>1273.32</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="5"/>
-        <v>424.44</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="6"/>
-        <v>1273.32</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="4">
+        <f>R11 + K12 - (I12 + L12+ M12 + N12)</f>
+        <v>1271.7433333333333</v>
+      </c>
+      <c r="S12" s="5">
         <f t="shared" si="0"/>
-        <v>1271.7433333333333</v>
-      </c>
-      <c r="R12" s="4">
+        <v>847.70666666666671</v>
+      </c>
+      <c r="T12" s="6">
         <f t="shared" si="1"/>
-        <v>847.70666666666671</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="2"/>
         <v>424.03666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1125</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>135.81</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
         <v>101.95</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>59.99</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>53.98</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="5"/>
+        <v>428.98</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="6"/>
         <v>1286.94</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="5"/>
-        <v>428.98</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="6"/>
-        <v>1286.94</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="L13" s="5">
         <v>850</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="6">
         <v>854</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="4">
+        <f t="shared" ref="R13:R30" si="7">R12 + K13 - (I13 + L13+ M13 + N13)</f>
+        <v>425.70333333333338</v>
+      </c>
+      <c r="S13" s="5">
         <f t="shared" si="0"/>
-        <v>425.70333333333338</v>
-      </c>
-      <c r="R13" s="4">
+        <v>426.68666666666672</v>
+      </c>
+      <c r="T13" s="6">
         <f t="shared" si="1"/>
-        <v>426.68666666666672</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="2"/>
         <v>-0.98333333333334849</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2017</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1125</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>191.54</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
         <v>135.81</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>59.99</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>65.266666666666666</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="5"/>
+        <v>440.26666666666665</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="6"/>
         <v>1320.8</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="5"/>
-        <v>440.26666666666665</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="6"/>
-        <v>1320.8</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="4">
+        <f t="shared" si="7"/>
+        <v>1306.2366666666667</v>
+      </c>
+      <c r="S14" s="5">
         <f t="shared" si="0"/>
-        <v>1306.2366666666667</v>
-      </c>
-      <c r="R14" s="4">
+        <v>866.95333333333338</v>
+      </c>
+      <c r="T14" s="6">
         <f t="shared" si="1"/>
-        <v>866.95333333333338</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="2"/>
         <v>439.2833333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1125</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>214.48</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
         <v>191.54</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>59.99</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
-        <v>1376.53</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="5"/>
-        <v>458.84333333333331</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="6"/>
-        <v>1376.53</v>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>83.843333333333334</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>458.84333333333336</v>
       </c>
       <c r="K15" s="4">
+        <f t="shared" si="6"/>
+        <v>1376.5300000000002</v>
+      </c>
+      <c r="L15" s="5">
         <v>1328</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="6">
         <v>899.11</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="4">
+        <f t="shared" si="7"/>
+        <v>-3.1866666666664969</v>
+      </c>
+      <c r="S15" s="5">
         <f t="shared" si="0"/>
-        <v>-3.1866666666669516</v>
-      </c>
-      <c r="R15" s="4">
+        <v>-2.2033333333333758</v>
+      </c>
+      <c r="T15" s="6">
         <f t="shared" si="1"/>
-        <v>-2.2033333333333758</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.98333333333346218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+        <v>-0.98333333333334849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1125</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
         <v>214.48</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>59.99</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>91.49</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>466.49</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="6"/>
         <v>1399.47</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" si="5"/>
-        <v>466.49</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="6"/>
-        <v>1399.47</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="L16" s="5">
         <v>466.5</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="6">
         <v>466.5</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="4">
+        <f>R15 + K16 - (I16 + L16+ M16 + N16)</f>
+        <v>-3.2066666666664787</v>
+      </c>
+      <c r="S16" s="5">
         <f t="shared" si="0"/>
-        <v>-3.2066666666669335</v>
-      </c>
-      <c r="R16" s="4">
+        <v>-2.2133333333333667</v>
+      </c>
+      <c r="T16" s="6">
         <f t="shared" si="1"/>
-        <v>-2.2133333333333667</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.99333333333345308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+        <v>-0.9933333333333394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1125</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>271.08999999999997</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="3"/>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>59.99</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>19.996666666666666</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
+        <v>394.99666666666667</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="6"/>
         <v>1184.99</v>
       </c>
-      <c r="H17" s="6">
-        <f t="shared" si="5"/>
-        <v>394.99666666666667</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="6"/>
-        <v>1184.99</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="4">
+        <f t="shared" si="7"/>
+        <v>786.78666666666686</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" si="0"/>
-        <v>786.78666666666641</v>
-      </c>
-      <c r="R17" s="4">
+        <v>392.7833333333333</v>
+      </c>
+      <c r="T17" s="6">
         <f t="shared" si="1"/>
-        <v>392.7833333333333</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="2"/>
-        <v>394.00333333333322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+        <v>394.00333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1125</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>116.12</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
         <v>271.08999999999997</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>59.99</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>110.36</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>485.36</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="6"/>
         <v>1456.08</v>
       </c>
-      <c r="H18" s="6">
-        <f t="shared" si="5"/>
-        <v>485.35999999999996</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="6"/>
-        <v>1456.08</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="M18" s="6">
         <v>880.36</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="4">
+        <f t="shared" si="7"/>
+        <v>877.14666666666676</v>
+      </c>
+      <c r="S18" s="5">
         <f t="shared" si="0"/>
-        <v>877.14666666666631</v>
-      </c>
-      <c r="R18" s="4">
+        <v>878.14333333333332</v>
+      </c>
+      <c r="T18" s="6">
         <f t="shared" si="1"/>
-        <v>878.1433333333332</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.99666666666678339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+        <v>-0.9966666666666697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1125</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>106.96</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
         <v>116.12</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>59.99</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>58.70333333333334</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="5"/>
+        <v>433.70333333333332</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="6"/>
         <v>1301.1099999999999</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="5"/>
+      <c r="R19" s="4">
+        <f t="shared" si="7"/>
+        <v>1744.5533333333333</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="0"/>
+        <v>1311.8466666666666</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" ref="U19:U34" si="8">U18 + I19 - N19</f>
         <v>433.70333333333332</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" si="6"/>
-        <v>1301.1099999999999</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="0"/>
-        <v>1744.5533333333328</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="1"/>
-        <v>1311.8466666666666</v>
-      </c>
-      <c r="T19" s="5">
-        <f t="shared" ref="T19:T34" si="7">T18 + H19 - M19</f>
-        <v>433.70333333333332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1125</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>72</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
         <v>106.96</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>59.99</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="4"/>
-        <v>1291.95</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="5"/>
-        <v>430.65000000000003</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="6"/>
-        <v>1291.95</v>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>55.65</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="5"/>
+        <v>430.65</v>
       </c>
       <c r="K20" s="4">
+        <f t="shared" si="6"/>
+        <v>1291.9499999999998</v>
+      </c>
+      <c r="L20" s="5">
         <v>1324.06</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="7">
         <v>864.36</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="4">
+        <f t="shared" si="7"/>
+        <v>417.43333333333294</v>
+      </c>
+      <c r="S20" s="5">
         <f t="shared" si="0"/>
-        <v>417.43333333333294</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="1"/>
-        <v>418.43666666666672</v>
-      </c>
-      <c r="T20" s="5">
-        <f t="shared" si="7"/>
-        <v>-6.6666666666606034E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+        <v>418.4366666666665</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="8"/>
+        <v>-6.6666666667742902E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1125</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>72.37</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="3"/>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>59.99</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>43.99666666666667</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="5"/>
+        <v>418.99666666666667</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="6"/>
         <v>1256.99</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="5"/>
-        <v>418.99666666666667</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="6"/>
-        <v>1256.99</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="4">
+        <f t="shared" si="7"/>
+        <v>1255.4266666666663</v>
+      </c>
+      <c r="S21" s="5">
         <f t="shared" si="0"/>
-        <v>1255.4266666666663</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" si="1"/>
-        <v>837.43333333333339</v>
-      </c>
-      <c r="T21" s="5">
-        <f t="shared" si="7"/>
-        <v>418.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+        <v>837.43333333333317</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="8"/>
+        <v>418.9899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D22" s="1">
         <v>71.7</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
         <v>72.37</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>59.99</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="4"/>
-        <v>1277.3599999999999</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="5"/>
-        <v>425.78666666666663</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="6"/>
-        <v>1277.3599999999999</v>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>44.120000000000005</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="5"/>
+        <v>425.78666666666669</v>
       </c>
       <c r="K22" s="4">
+        <f t="shared" si="6"/>
+        <v>1277.3600000000001</v>
+      </c>
+      <c r="L22" s="5">
         <v>1600</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="7">
         <v>844.79</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="4">
+        <f t="shared" si="7"/>
+        <v>-337.79000000000042</v>
+      </c>
+      <c r="S22" s="5">
         <f t="shared" si="0"/>
-        <v>-337.79000000000087</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="1"/>
-        <v>-336.78</v>
-      </c>
-      <c r="T22" s="5">
-        <f t="shared" si="7"/>
+        <v>-336.7800000000002</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="8"/>
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D23" s="1">
         <v>79.25</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="3"/>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
         <v>71.7</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>59.99</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>43.896666666666668</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="5"/>
+        <v>425.56333333333333</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="6"/>
         <v>1276.69</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="5"/>
-        <v>425.56333333333333</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="6"/>
-        <v>1276.69</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="4">
+        <f t="shared" si="7"/>
+        <v>513.33666666666636</v>
+      </c>
+      <c r="S23" s="5">
         <f t="shared" si="0"/>
-        <v>513.33666666666591</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="1"/>
-        <v>88.78333333333336</v>
-      </c>
-      <c r="T23" s="5">
-        <f t="shared" si="7"/>
+        <v>88.783333333333132</v>
+      </c>
+      <c r="U23" s="7">
+        <f t="shared" si="8"/>
         <v>425.55</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D24" s="1">
         <v>135.03</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="3"/>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
         <v>79.25</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>59.99</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="4"/>
-        <v>1284.24</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="5"/>
-        <v>428.08</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" si="6"/>
-        <v>1284.24</v>
-      </c>
-      <c r="M24" s="5">
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>46.413333333333334</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="5"/>
+        <v>428.08000000000004</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="6"/>
+        <v>1284.2400000000002</v>
+      </c>
+      <c r="N24" s="7">
         <v>911</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="4">
+        <f t="shared" si="7"/>
+        <v>458.49666666666667</v>
+      </c>
+      <c r="S24" s="5">
         <f t="shared" si="0"/>
-        <v>458.49666666666599</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" si="1"/>
-        <v>516.86333333333334</v>
-      </c>
-      <c r="T24" s="5">
-        <f t="shared" si="7"/>
-        <v>-57.370000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+        <v>516.86333333333323</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="8"/>
+        <v>-57.369999999999891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D25" s="1">
         <v>158.99</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="3"/>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
         <v>135.03</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>59.99</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>65.006666666666675</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="5"/>
+        <v>446.67333333333335</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="6"/>
         <v>1340.02</v>
       </c>
-      <c r="H25" s="6">
-        <f t="shared" si="5"/>
-        <v>446.67333333333335</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="6"/>
-        <v>1340.02</v>
-      </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="4">
+        <f t="shared" si="7"/>
+        <v>1351.8433333333332</v>
+      </c>
+      <c r="S25" s="5">
         <f t="shared" si="0"/>
-        <v>1351.8433333333326</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" si="1"/>
         <v>963.53666666666663</v>
       </c>
-      <c r="T25" s="5">
-        <f t="shared" si="7"/>
-        <v>389.30333333333334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U25" s="7">
+        <f t="shared" si="8"/>
+        <v>389.30333333333346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D26" s="1">
         <v>150.13999999999999</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="3"/>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
         <v>158.99</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>59.99</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>72.993333333333339</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="5"/>
+        <v>454.66</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="6"/>
         <v>1363.98</v>
       </c>
-      <c r="H26" s="6">
-        <f t="shared" si="5"/>
-        <v>454.66</v>
-      </c>
-      <c r="J26" s="3">
-        <f t="shared" si="6"/>
-        <v>1363.98</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="L26" s="5">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="4">
+        <f t="shared" si="7"/>
+        <v>1161.1633333333332</v>
+      </c>
+      <c r="S26" s="5">
         <f t="shared" si="0"/>
-        <v>1161.1633333333327</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="1"/>
         <v>318.19666666666672</v>
       </c>
-      <c r="T26" s="5">
-        <f t="shared" si="7"/>
-        <v>843.96333333333337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U26" s="7">
+        <f t="shared" si="8"/>
+        <v>843.96333333333348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D27" s="1">
         <v>157.99</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" si="3"/>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
         <v>150.13999999999999</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>59.99</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="4"/>
-        <v>1355.1299999999999</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="5"/>
-        <v>451.71</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="6"/>
-        <v>1355.1299999999999</v>
-      </c>
-      <c r="M27" s="5">
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>70.043333333333337</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="5"/>
+        <v>451.71000000000004</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="6"/>
+        <v>1355.13</v>
+      </c>
+      <c r="N27" s="7">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="4">
+        <f t="shared" si="7"/>
+        <v>1564.583333333333</v>
+      </c>
+      <c r="S27" s="5">
         <f t="shared" si="0"/>
-        <v>1564.5833333333326</v>
-      </c>
-      <c r="R27" s="4">
-        <f t="shared" si="1"/>
         <v>769.90666666666675</v>
       </c>
-      <c r="T27" s="5">
-        <f t="shared" si="7"/>
-        <v>795.6733333333334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U27" s="7">
+        <f t="shared" si="8"/>
+        <v>795.67333333333363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D28" s="1">
         <v>177.54</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="3"/>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
         <v>157.99</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>59.99</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="4"/>
+        <v>72.660000000000011</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="5"/>
+        <v>454.32666666666671</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="6"/>
         <v>1362.98</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="5"/>
-        <v>454.32666666666665</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="6"/>
-        <v>1362.98</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="L28" s="5">
         <v>1800</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="7">
         <v>1170</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="4">
+        <f t="shared" si="7"/>
+        <v>-496.76333333333378</v>
+      </c>
+      <c r="S28" s="5">
         <f t="shared" si="0"/>
-        <v>-496.76333333333423</v>
-      </c>
-      <c r="R28" s="4">
-        <f t="shared" si="1"/>
-        <v>-575.76666666666665</v>
-      </c>
-      <c r="T28" s="5">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+        <v>-575.76666666666642</v>
+      </c>
+      <c r="U28" s="7">
+        <f t="shared" si="8"/>
+        <v>80.000000000000455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D29" s="1">
         <v>164.3</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="3"/>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
         <v>177.54</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>59.99</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="4"/>
-        <v>1382.53</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="5"/>
-        <v>460.84333333333331</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="6"/>
-        <v>1382.53</v>
-      </c>
-      <c r="Q29" s="3">
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>79.176666666666662</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="5"/>
+        <v>460.84333333333336</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="6"/>
+        <v>1382.5300000000002</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="7"/>
+        <v>424.92333333333306</v>
+      </c>
+      <c r="S29" s="5">
         <f t="shared" si="0"/>
-        <v>424.92333333333244</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" si="1"/>
-        <v>-114.92333333333335</v>
-      </c>
-      <c r="T29" s="5">
-        <f t="shared" si="7"/>
-        <v>540.84333333333325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+        <v>-114.92333333333306</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" si="8"/>
+        <v>540.84333333333382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D30" s="1">
         <v>129.44</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="3"/>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
         <v>164.3</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>59.99</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>74.763333333333335</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="5"/>
+        <v>456.43</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="6"/>
         <v>1369.29</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="5"/>
-        <v>456.43</v>
-      </c>
-      <c r="J30" s="3">
-        <f t="shared" si="6"/>
-        <v>1369.29</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="N30" s="7">
         <v>1000</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="4">
+        <f t="shared" si="7"/>
+        <v>337.78333333333308</v>
+      </c>
+      <c r="S30" s="5">
         <f t="shared" si="0"/>
-        <v>337.78333333333239</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" si="1"/>
-        <v>341.50666666666666</v>
-      </c>
-      <c r="T30" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7266666666666879</v>
+        <v>341.50666666666694</v>
       </c>
       <c r="U30" s="7">
+        <f t="shared" si="8"/>
+        <v>-2.7266666666662331</v>
+      </c>
+      <c r="V30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D31" s="1">
         <v>102.17</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="3"/>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
         <v>129.44</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>59.99</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>63.143333333333338</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="5"/>
+        <v>444.81</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="6"/>
         <v>1334.43</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="5"/>
-        <v>444.81</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="6"/>
-        <v>1334.43</v>
-      </c>
-      <c r="M31" s="5">
-        <v>444.81</v>
       </c>
       <c r="N31" s="7">
         <v>444.81</v>
       </c>
-      <c r="Q31" s="3">
-        <f>Q30 + J31 - (H31 + K31+ L31 + M31 + N31)</f>
-        <v>337.78333333333239</v>
-      </c>
-      <c r="T31" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7266666666666879</v>
+      <c r="O31" s="8">
+        <v>444.81</v>
+      </c>
+      <c r="R31" s="4">
+        <f>R30 + K31 - (I31 + L31+ M31 + N31 + O31)</f>
+        <v>337.78333333333308</v>
       </c>
       <c r="U31" s="7">
-        <f>U30 + H31 - N31</f>
+        <f t="shared" si="8"/>
+        <v>-2.7266666666662331</v>
+      </c>
+      <c r="V31" s="8">
+        <f>V30 + I31 - O31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D32" s="1">
         <v>75.099999999999994</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="3"/>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
         <v>102.17</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>59.99</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>54.053333333333335</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="5"/>
+        <v>435.72</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="6"/>
         <v>1307.1600000000001</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" si="5"/>
-        <v>435.72</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" si="6"/>
-        <v>1307.1600000000001</v>
-      </c>
-      <c r="M32" s="5">
+      <c r="N32" s="7">
         <v>433</v>
       </c>
-      <c r="N32" s="7">
+      <c r="O32" s="8">
         <v>440</v>
       </c>
-      <c r="Q32" s="3">
-        <f>Q31 + J32 - (H32 + K32+ L32 + M32 + N32)</f>
-        <v>336.22333333333245</v>
-      </c>
-      <c r="T32" s="5">
-        <f t="shared" si="7"/>
-        <v>-6.6666666666606034E-3</v>
+      <c r="R32" s="4">
+        <f>R31 + K32 - (I32 + L32+ M32 + N32 + O32)</f>
+        <v>336.22333333333313</v>
       </c>
       <c r="U32" s="7">
-        <f>U31 + H32 - N32</f>
+        <f t="shared" si="8"/>
+        <v>-6.666666666205856E-3</v>
+      </c>
+      <c r="V32" s="8">
+        <f>V31 + I32 - O32</f>
         <v>-4.2799999999999727</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D33" s="1">
         <v>94.57</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="3"/>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
         <v>75.099999999999994</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>59.99</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="4"/>
-        <v>1280.0899999999999</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="5"/>
-        <v>426.69666666666666</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="6"/>
-        <v>1280.0899999999999</v>
-      </c>
-      <c r="M33" s="5">
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>45.03</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="5"/>
+        <v>426.69666666666672</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="6"/>
+        <v>1280.0900000000001</v>
+      </c>
+      <c r="N33" s="7">
         <v>440</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O33" s="8">
         <v>420</v>
       </c>
-      <c r="Q33" s="3">
-        <f>Q32 + J33 - (H33 + K33+ L33 + M33 + N33)</f>
-        <v>329.61666666666565</v>
-      </c>
-      <c r="T33" s="5">
-        <f t="shared" si="7"/>
-        <v>-13.310000000000002</v>
+      <c r="R33" s="4">
+        <f>R32 + K33 - (I33 + L33+ M33 + N33 + O33)</f>
+        <v>329.61666666666656</v>
       </c>
       <c r="U33" s="7">
-        <f>U32 + H33 - N33</f>
-        <v>2.4166666666666856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>-13.309999999999491</v>
+      </c>
+      <c r="V33" s="8">
+        <f>V32 + I33 - O33</f>
+        <v>2.4166666666667425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D34" s="1">
         <v>79.5</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="3"/>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
         <v>94.57</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>59.99</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="4"/>
+        <v>51.52</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="5"/>
+        <v>433.18666666666667</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="6"/>
         <v>1299.56</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="5"/>
-        <v>433.18666666666667</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="6"/>
-        <v>1299.56</v>
-      </c>
-      <c r="M34" s="5">
-        <v>420</v>
       </c>
       <c r="N34" s="7">
         <v>420</v>
       </c>
-      <c r="Q34" s="3">
-        <f>Q33 + J34 - (H34 + K34+ L34 + M34 + N34)</f>
-        <v>355.98999999999887</v>
+      <c r="O34" s="8">
+        <v>420</v>
       </c>
       <c r="R34" s="4">
-        <f>R30</f>
-        <v>341.50666666666666</v>
-      </c>
-      <c r="T34" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.12333333333333485</v>
+        <f>R33 + K34 - (I34 + L34+ M34 + N34 + O34)</f>
+        <v>355.98999999999978</v>
+      </c>
+      <c r="S34" s="5">
+        <f>S30</f>
+        <v>341.50666666666694</v>
       </c>
       <c r="U34" s="7">
-        <f>U33 + H34 - N34</f>
-        <v>15.603333333333353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>-0.12333333333282326</v>
+      </c>
+      <c r="V34" s="8">
+        <f>V33 + I34 - O34</f>
+        <v>15.60333333333341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D35" s="1">
         <v>88.87</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="3"/>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
         <v>79.5</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>59.99</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="4"/>
+        <v>46.49666666666667</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="5"/>
+        <v>428.16333333333336</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="6"/>
         <v>1284.49</v>
       </c>
-      <c r="H35" s="6">
-        <f t="shared" si="5"/>
-        <v>428.16333333333336</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="6"/>
-        <v>1284.49</v>
-      </c>
-      <c r="Q35" s="3">
-        <f>Q34 + J35 - (H35 + K35+ L35 + M35 + N35 + O35)</f>
-        <v>1212.3166666666655</v>
-      </c>
       <c r="R35" s="4">
-        <f>R34 + H35 - K35</f>
-        <v>769.67000000000007</v>
-      </c>
-      <c r="U35" s="7"/>
-      <c r="V35" s="9">
+        <f>R34 + K35 - (I35 + L35+ M35 + N35 + O35 + P35)</f>
+        <v>1212.3166666666664</v>
+      </c>
+      <c r="S35" s="5">
+        <f>S34 + I35 - L35</f>
+        <v>769.6700000000003</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D36" s="1">
         <v>104.95</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="3"/>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
         <v>88.87</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>59.99</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="4"/>
-        <v>1293.8599999999999</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="5"/>
-        <v>431.28666666666663</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="6"/>
-        <v>1293.8599999999999</v>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="4"/>
+        <v>49.620000000000005</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="5"/>
+        <v>431.28666666666669</v>
       </c>
       <c r="K36" s="4">
+        <f t="shared" si="6"/>
+        <v>1293.8600000000001</v>
+      </c>
+      <c r="L36" s="5">
         <v>3800</v>
       </c>
-      <c r="O36" s="9">
+      <c r="P36" s="9">
         <f>381.67</f>
         <v>381.67</v>
       </c>
-      <c r="Q36" s="3">
-        <f>Q35 + J36 - (H36 + K36+ L36 + M36 + N36 + O36)</f>
-        <v>-2106.7800000000016</v>
-      </c>
       <c r="R36" s="4">
-        <f>R35 + H36 - K36</f>
+        <f>R35 + K36 - (I36 + L36+ M36 + N36 + O36 + P36)</f>
+        <v>-2106.7800000000007</v>
+      </c>
+      <c r="S36" s="5">
+        <f>S35 + I36 - L36</f>
         <v>-2599.0433333333331</v>
       </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="10">
-        <f>V35 + H36 - O36</f>
-        <v>49.616666666666617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="V36" s="8"/>
+      <c r="W36" s="11">
+        <f>W35 + I36 - P36</f>
+        <v>49.616666666666674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D37" s="1">
         <v>130.52000000000001</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="3"/>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
         <v>104.95</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>59.99</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="4"/>
+        <v>54.98</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="5"/>
+        <v>436.6466666666667</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="6"/>
         <v>1309.94</v>
       </c>
-      <c r="H37" s="6">
-        <f t="shared" si="5"/>
-        <v>436.6466666666667</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="6"/>
-        <v>1309.94</v>
-      </c>
-      <c r="O37" s="9">
+      <c r="P37" s="9">
         <f>381.67+49.62+54.97</f>
         <v>486.26</v>
       </c>
-      <c r="Q37" s="3">
-        <f t="shared" ref="Q37:Q39" si="8">Q36 + J37 - (H37 + K37+ L37 + M37 + N37 + O37)</f>
-        <v>-1719.7466666666683</v>
-      </c>
       <c r="R37" s="4">
-        <f>R36 + H37 - K37</f>
+        <f t="shared" ref="R37:R40" si="9">R36 + K37 - (I37 + L37+ M37 + N37 + O37 + P37)</f>
+        <v>-1719.7466666666674</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S36 + I37 - L37</f>
         <v>-2162.3966666666665</v>
       </c>
-      <c r="V37" s="10">
-        <f>V36 + H37 - O37</f>
-        <v>3.3333333333303017E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W37" s="11">
+        <f>W36 + I37 - P37</f>
+        <v>3.3333333333871451E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2019</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D38" s="1">
         <v>128</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="3"/>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
         <v>130.52000000000001</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>59.99</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>63.503333333333337</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="5"/>
+        <v>445.17</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="6"/>
         <v>1335.51</v>
       </c>
-      <c r="H38" s="6">
-        <f t="shared" si="5"/>
-        <v>445.17</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="6"/>
-        <v>1335.51</v>
-      </c>
-      <c r="O38" s="9">
+      <c r="P38" s="9">
         <f>381.67+63.5</f>
         <v>445.17</v>
       </c>
-      <c r="Q38" s="3">
-        <f t="shared" si="8"/>
-        <v>-1274.5766666666682</v>
-      </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38:R42" si="9">R37 + H38 - K38</f>
+        <f t="shared" si="9"/>
+        <v>-1274.5766666666673</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:S43" si="10">S37 + I38 - L38</f>
         <v>-1717.2266666666665</v>
       </c>
-      <c r="V38" s="10">
-        <f>V37 + H38 - O38</f>
-        <v>3.3333333333303017E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W38" s="11">
+        <f>W37 + I38 - P38</f>
+        <v>3.3333333333871451E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2">
-        <v>1145</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="3"/>
+      <c r="C39" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D39" s="1">
+        <v>161.32</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>59.99</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="4"/>
-        <v>1332.99</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="5"/>
-        <v>444.33</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="6"/>
-        <v>1332.99</v>
-      </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="8"/>
-        <v>-385.91666666666816</v>
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="4"/>
+        <v>62.663333333333334</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="5"/>
+        <v>444.33000000000004</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="6"/>
+        <v>1332.9900000000002</v>
+      </c>
+      <c r="P39" s="9">
+        <f>381.66+62.67</f>
+        <v>444.33000000000004</v>
       </c>
       <c r="R39" s="4">
         <f t="shared" si="9"/>
+        <v>-830.24666666666712</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="10"/>
         <v>-1272.8966666666665</v>
       </c>
-      <c r="V39" s="10">
-        <f>V38 + H39 - O39</f>
-        <v>444.33333333333331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W39" s="11">
+        <f>W38 + I39 - P39</f>
+        <v>3.3333333333871451E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
-        <v>1145</v>
+      <c r="C40" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D40" s="1">
+        <v>194.78</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>161.32</v>
+      </c>
+      <c r="F40" s="1">
+        <v>59.99</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="4"/>
-        <v>1145</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>381.66666666666669</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>73.77</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="5"/>
+        <v>455.43666666666667</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="6"/>
+        <v>1366.31</v>
+      </c>
+      <c r="P40" s="9">
+        <f>381.67+73.77</f>
+        <v>455.44</v>
       </c>
       <c r="R40" s="4">
         <f t="shared" si="9"/>
-        <v>-891.22999999999979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+        <v>-374.81333333333384</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="10"/>
+        <v>-817.45999999999981</v>
+      </c>
+      <c r="W40" s="11">
+        <f>W39 + I40 - P40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="2">
-        <v>1145</v>
+      <c r="C41" s="1">
+        <v>1145</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>194.78</v>
+      </c>
+      <c r="F41" s="1">
+        <v>59.99</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="4"/>
-        <v>1145</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>381.66666666666669</v>
       </c>
-      <c r="R41" s="4">
-        <f t="shared" si="9"/>
-        <v>-509.56333333333311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="H41" s="1">
+        <f t="shared" si="4"/>
+        <v>84.923333333333332</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="5"/>
+        <v>466.59000000000003</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="10"/>
+        <v>-350.86999999999978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="2">
-        <v>1145</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="4"/>
-        <v>1145</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="5"/>
-        <v>381.66666666666669</v>
-      </c>
-      <c r="R42" s="4">
-        <f t="shared" si="9"/>
-        <v>-127.89666666666642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E43" s="2">
-        <f>AVERAGE(E9:E42)</f>
-        <v>117.59806451612903</v>
+      <c r="C42" s="1">
+        <v>1145</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="10"/>
+        <v>-350.86999999999978</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1145</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="10"/>
+        <v>-350.86999999999978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1145</v>
       </c>
     </row>
   </sheetData>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6BAF7-FAD9-4FDB-9E55-D3D647AC3B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE53C28-E3D3-49C3-A238-85F4CCF08FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,10 +555,10 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,26 +756,26 @@
         <v>80.03</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E41" si="2">D9</f>
+        <f t="shared" ref="E10:E42" si="2">D9</f>
         <v>87.26</v>
       </c>
       <c r="F10" s="1">
         <v>59.99</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G41" si="3">C10/3</f>
+        <f t="shared" ref="G10:G42" si="3">C10/3</f>
         <v>375</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:H41" si="4">(E10+F10)/3</f>
+        <f t="shared" ref="H10:H42" si="4">(E10+F10)/3</f>
         <v>49.083333333333336</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ref="I10:I41" si="5">G10+H10</f>
+        <f t="shared" ref="I10:I42" si="5">G10+H10</f>
         <v>424.08333333333331</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" ref="K10:K40" si="6">3 *I10</f>
+        <f t="shared" ref="K10:K42" si="6">3 *I10</f>
         <v>1272.25</v>
       </c>
       <c r="L10" s="5">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="V36" s="8"/>
       <c r="W36" s="11">
-        <f>W35 + I36 - P36</f>
+        <f t="shared" ref="W36:W42" si="9">W35 + I36 - P36</f>
         <v>49.616666666666674</v>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <v>486.26</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" ref="R37:R40" si="9">R36 + K37 - (I37 + L37+ M37 + N37 + O37 + P37)</f>
+        <f t="shared" ref="R37:R42" si="10">R36 + K37 - (I37 + L37+ M37 + N37 + O37 + P37)</f>
         <v>-1719.7466666666674</v>
       </c>
       <c r="S37" s="5">
@@ -2138,7 +2138,7 @@
         <v>-2162.3966666666665</v>
       </c>
       <c r="W37" s="11">
-        <f>W36 + I37 - P37</f>
+        <f t="shared" si="9"/>
         <v>3.3333333333871451E-3</v>
       </c>
     </row>
@@ -2183,15 +2183,15 @@
         <v>445.17</v>
       </c>
       <c r="R38" s="4">
+        <f t="shared" si="10"/>
+        <v>-1274.5766666666673</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38:S42" si="11">S37 + I38 - L38</f>
+        <v>-1717.2266666666665</v>
+      </c>
+      <c r="W38" s="11">
         <f t="shared" si="9"/>
-        <v>-1274.5766666666673</v>
-      </c>
-      <c r="S38" s="5">
-        <f t="shared" ref="S38:S43" si="10">S37 + I38 - L38</f>
-        <v>-1717.2266666666665</v>
-      </c>
-      <c r="W38" s="11">
-        <f>W37 + I38 - P38</f>
         <v>3.3333333333871451E-3</v>
       </c>
     </row>
@@ -2233,15 +2233,15 @@
         <v>444.33000000000004</v>
       </c>
       <c r="R39" s="4">
+        <f t="shared" si="10"/>
+        <v>-830.24666666666712</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="11"/>
+        <v>-1272.8966666666665</v>
+      </c>
+      <c r="W39" s="11">
         <f t="shared" si="9"/>
-        <v>-830.24666666666712</v>
-      </c>
-      <c r="S39" s="5">
-        <f t="shared" si="10"/>
-        <v>-1272.8966666666665</v>
-      </c>
-      <c r="W39" s="11">
-        <f>W38 + I39 - P39</f>
         <v>3.3333333333871451E-3</v>
       </c>
     </row>
@@ -2283,15 +2283,15 @@
         <v>455.44</v>
       </c>
       <c r="R40" s="4">
+        <f t="shared" si="10"/>
+        <v>-374.81333333333384</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="11"/>
+        <v>-817.45999999999981</v>
+      </c>
+      <c r="W40" s="11">
         <f t="shared" si="9"/>
-        <v>-374.81333333333384</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="10"/>
-        <v>-817.45999999999981</v>
-      </c>
-      <c r="W40" s="11">
-        <f>W39 + I40 - P40</f>
         <v>0</v>
       </c>
     </row>
@@ -2302,6 +2302,9 @@
       <c r="C41" s="1">
         <v>1145</v>
       </c>
+      <c r="D41" s="1">
+        <v>147.07</v>
+      </c>
       <c r="E41" s="1">
         <f t="shared" si="2"/>
         <v>194.78</v>
@@ -2321,9 +2324,24 @@
         <f t="shared" si="5"/>
         <v>466.59000000000003</v>
       </c>
+      <c r="K41" s="4">
+        <f t="shared" si="6"/>
+        <v>1399.77</v>
+      </c>
+      <c r="L41" s="5">
+        <v>100</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="10"/>
+        <v>458.36666666666599</v>
+      </c>
       <c r="S41" s="5">
-        <f t="shared" si="10"/>
-        <v>-350.86999999999978</v>
+        <f t="shared" si="11"/>
+        <v>-450.86999999999978</v>
+      </c>
+      <c r="W41" s="11">
+        <f t="shared" si="9"/>
+        <v>466.59000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
@@ -2333,9 +2351,40 @@
       <c r="C42" s="1">
         <v>1145</v>
       </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>147.07</v>
+      </c>
+      <c r="F42" s="1">
+        <v>59.99</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>69.02</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="5"/>
+        <v>450.68666666666667</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="6"/>
+        <v>1352.06</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="10"/>
+        <v>1359.7399999999991</v>
+      </c>
       <c r="S42" s="5">
-        <f t="shared" si="10"/>
-        <v>-350.86999999999978</v>
+        <f t="shared" si="11"/>
+        <v>-0.18333333333310975</v>
+      </c>
+      <c r="W42" s="11">
+        <f t="shared" si="9"/>
+        <v>917.27666666666664</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
@@ -2344,10 +2393,6 @@
       </c>
       <c r="C43" s="1">
         <v>1145</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="10"/>
-        <v>-350.86999999999978</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE53C28-E3D3-49C3-A238-85F4CCF08FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326FF74E-DCD3-4F94-A825-C9516416363D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11680" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>January</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Utilities per roomie</t>
+  </si>
+  <si>
+    <t>HBO</t>
   </si>
 </sst>
 </file>
@@ -552,42 +555,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="2"/>
-    <col min="18" max="18" width="12.6328125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.36328125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" style="10" customWidth="1"/>
-    <col min="23" max="23" width="13.36328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="12.5703125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -612,47 +617,50 @@
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -660,32 +668,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -693,7 +701,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -718,34 +726,34 @@
         <f>(E9+F9)/3</f>
         <v>46.51</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <f>G9+H9</f>
         <v>421.51</v>
       </c>
-      <c r="K9" s="4">
-        <f>3 *I9</f>
+      <c r="L9" s="4">
+        <f>3 *J9</f>
         <v>1264.53</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>420</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>422</v>
       </c>
-      <c r="R9" s="4">
-        <f>R8 + K9 - (I9 + L9+ M9 + N9)</f>
+      <c r="S9" s="4">
+        <f>S8 + L9 - (J9 + M9+ N9 + O9)</f>
         <v>1.0199999999999818</v>
       </c>
-      <c r="S9" s="5">
-        <f t="shared" ref="S9:S30" si="0">S8 + I9 - L9</f>
+      <c r="T9" s="5">
+        <f t="shared" ref="T9:T30" si="0">T8 + J9 - M9</f>
         <v>1.5099999999999909</v>
       </c>
-      <c r="T9" s="6">
-        <f t="shared" ref="T9:T18" si="1">T8 + I9 - M9</f>
+      <c r="U9" s="6">
+        <f t="shared" ref="U9:U18" si="1">U8 + J9 - N9</f>
         <v>-0.49000000000000909</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -770,34 +778,34 @@
         <f t="shared" ref="H10:H42" si="4">(E10+F10)/3</f>
         <v>49.083333333333336</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" ref="I10:I42" si="5">G10+H10</f>
+      <c r="J10" s="3">
+        <f>G10+H10</f>
         <v>424.08333333333331</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" ref="K10:K42" si="6">3 *I10</f>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L42" si="5">3 *J10</f>
         <v>1272.25</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>424</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>424</v>
       </c>
-      <c r="R10" s="4">
-        <f>R9 + K10 - (I10 + L10+ M10 + N10)</f>
+      <c r="S10" s="4">
+        <f>S9 + L10 - (J10 + M10+ N10 + O10)</f>
         <v>1.1866666666667243</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="0"/>
         <v>1.5933333333333053</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <f t="shared" si="1"/>
         <v>-0.40666666666669471</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -822,31 +830,31 @@
         <f t="shared" si="4"/>
         <v>46.673333333333339</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="5"/>
+      <c r="J11" s="3">
+        <f>G11+H11</f>
         <v>421.67333333333335</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="6"/>
+      <c r="L11" s="4">
+        <f t="shared" si="5"/>
         <v>1265.02</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>421.67</v>
       </c>
-      <c r="R11" s="4">
-        <f>R10 + K11 - (I11 + L11+ M11 + N11)</f>
+      <c r="S11" s="4">
+        <f>S10 + L11 - (J11 + M11+ N11 + O11)</f>
         <v>422.86333333333334</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <f t="shared" si="0"/>
         <v>423.26666666666665</v>
       </c>
-      <c r="T11" s="6">
+      <c r="U11" s="6">
         <f t="shared" si="1"/>
         <v>-0.40333333333336441</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -871,28 +879,28 @@
         <f t="shared" si="4"/>
         <v>49.44</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="5"/>
+      <c r="J12" s="3">
+        <f>G12+H12</f>
         <v>424.44</v>
       </c>
-      <c r="K12" s="4">
-        <f t="shared" si="6"/>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
         <v>1273.32</v>
       </c>
-      <c r="R12" s="4">
-        <f>R11 + K12 - (I12 + L12+ M12 + N12)</f>
+      <c r="S12" s="4">
+        <f>S11 + L12 - (J12 + M12+ N12 + O12)</f>
         <v>1271.7433333333333</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <f t="shared" si="0"/>
         <v>847.70666666666671</v>
       </c>
-      <c r="T12" s="6">
+      <c r="U12" s="6">
         <f t="shared" si="1"/>
         <v>424.03666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -917,34 +925,34 @@
         <f t="shared" si="4"/>
         <v>53.98</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="5"/>
+      <c r="J13" s="3">
+        <f>G13+H13</f>
         <v>428.98</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="6"/>
+      <c r="L13" s="4">
+        <f t="shared" si="5"/>
         <v>1286.94</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>850</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>854</v>
       </c>
-      <c r="R13" s="4">
-        <f t="shared" ref="R13:R30" si="7">R12 + K13 - (I13 + L13+ M13 + N13)</f>
+      <c r="S13" s="4">
+        <f t="shared" ref="S13:S30" si="6">S12 + L13 - (J13 + M13+ N13 + O13)</f>
         <v>425.70333333333338</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <f t="shared" si="0"/>
         <v>426.68666666666672</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <f t="shared" si="1"/>
         <v>-0.98333333333334849</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -972,28 +980,28 @@
         <f t="shared" si="4"/>
         <v>65.266666666666666</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="5"/>
+      <c r="J14" s="3">
+        <f>G14+H14</f>
         <v>440.26666666666665</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
+        <f t="shared" si="5"/>
+        <v>1320.8</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="6"/>
-        <v>1320.8</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="7"/>
         <v>1306.2366666666667</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <f t="shared" si="0"/>
         <v>866.95333333333338</v>
       </c>
-      <c r="T14" s="6">
+      <c r="U14" s="6">
         <f t="shared" si="1"/>
         <v>439.2833333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1018,34 +1026,34 @@
         <f t="shared" si="4"/>
         <v>83.843333333333334</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="5"/>
+      <c r="J15" s="3">
+        <f>G15+H15</f>
         <v>458.84333333333336</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
+        <f t="shared" si="5"/>
+        <v>1376.5300000000002</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1328</v>
+      </c>
+      <c r="N15" s="6">
+        <v>899.11</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="6"/>
-        <v>1376.5300000000002</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1328</v>
-      </c>
-      <c r="M15" s="6">
-        <v>899.11</v>
-      </c>
-      <c r="R15" s="4">
-        <f t="shared" si="7"/>
         <v>-3.1866666666664969</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <f t="shared" si="0"/>
         <v>-2.2033333333333758</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="6">
         <f t="shared" si="1"/>
         <v>-0.98333333333334849</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1070,34 +1078,34 @@
         <f t="shared" si="4"/>
         <v>91.49</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="5"/>
+      <c r="J16" s="3">
+        <f>G16+H16</f>
         <v>466.49</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" si="6"/>
+      <c r="L16" s="4">
+        <f t="shared" si="5"/>
         <v>1399.47</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>466.5</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>466.5</v>
       </c>
-      <c r="R16" s="4">
-        <f>R15 + K16 - (I16 + L16+ M16 + N16)</f>
+      <c r="S16" s="4">
+        <f>S15 + L16 - (J16 + M16+ N16 + O16)</f>
         <v>-3.2066666666664787</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <f t="shared" si="0"/>
         <v>-2.2133333333333667</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="6">
         <f t="shared" si="1"/>
         <v>-0.9933333333333394</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1122,28 +1130,28 @@
         <f t="shared" si="4"/>
         <v>19.996666666666666</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="5"/>
+      <c r="J17" s="3">
+        <f>G17+H17</f>
         <v>394.99666666666667</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
+        <f t="shared" si="5"/>
+        <v>1184.99</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="6"/>
-        <v>1184.99</v>
-      </c>
-      <c r="R17" s="4">
-        <f t="shared" si="7"/>
         <v>786.78666666666686</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <f t="shared" si="0"/>
         <v>392.7833333333333</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <f t="shared" si="1"/>
         <v>394.00333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1168,31 +1176,31 @@
         <f t="shared" si="4"/>
         <v>110.36</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="5"/>
+      <c r="J18" s="3">
+        <f>G18+H18</f>
         <v>485.36</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
+        <f t="shared" si="5"/>
+        <v>1456.08</v>
+      </c>
+      <c r="N18" s="6">
+        <v>880.36</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="6"/>
-        <v>1456.08</v>
-      </c>
-      <c r="M18" s="6">
-        <v>880.36</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="7"/>
         <v>877.14666666666676</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <f t="shared" si="0"/>
         <v>878.14333333333332</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="6">
         <f t="shared" si="1"/>
         <v>-0.9966666666666697</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1217,28 +1225,28 @@
         <f t="shared" si="4"/>
         <v>58.70333333333334</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="5"/>
+      <c r="J19" s="3">
+        <f>G19+H19</f>
         <v>433.70333333333332</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
+        <f t="shared" si="5"/>
+        <v>1301.1099999999999</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="6"/>
-        <v>1301.1099999999999</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="7"/>
         <v>1744.5533333333333</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <f t="shared" si="0"/>
         <v>1311.8466666666666</v>
       </c>
-      <c r="U19" s="7">
-        <f t="shared" ref="U19:U34" si="8">U18 + I19 - N19</f>
+      <c r="V19" s="7">
+        <f t="shared" ref="V19:V34" si="7">V18 + J19 - O19</f>
         <v>433.70333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1263,34 +1271,34 @@
         <f t="shared" si="4"/>
         <v>55.65</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="5"/>
+      <c r="J20" s="3">
+        <f>G20+H20</f>
         <v>430.65</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
+        <f t="shared" si="5"/>
+        <v>1291.9499999999998</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1324.06</v>
+      </c>
+      <c r="O20" s="7">
+        <v>864.36</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="6"/>
-        <v>1291.9499999999998</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1324.06</v>
-      </c>
-      <c r="N20" s="7">
-        <v>864.36</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="7"/>
         <v>417.43333333333294</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <f t="shared" si="0"/>
         <v>418.4366666666665</v>
       </c>
-      <c r="U20" s="7">
-        <f t="shared" si="8"/>
+      <c r="V20" s="7">
+        <f t="shared" si="7"/>
         <v>-6.6666666667742902E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1315,28 +1323,28 @@
         <f t="shared" si="4"/>
         <v>43.99666666666667</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="5"/>
+      <c r="J21" s="3">
+        <f>G21+H21</f>
         <v>418.99666666666667</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
+        <f t="shared" si="5"/>
+        <v>1256.99</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="6"/>
-        <v>1256.99</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" si="7"/>
         <v>1255.4266666666663</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T21" s="5">
         <f t="shared" si="0"/>
         <v>837.43333333333317</v>
       </c>
-      <c r="U21" s="7">
-        <f t="shared" si="8"/>
+      <c r="V21" s="7">
+        <f t="shared" si="7"/>
         <v>418.9899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1361,34 +1369,34 @@
         <f t="shared" si="4"/>
         <v>44.120000000000005</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" si="5"/>
+      <c r="J22" s="3">
+        <f>G22+H22</f>
         <v>425.78666666666669</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
+        <f t="shared" si="5"/>
+        <v>1277.3600000000001</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1600</v>
+      </c>
+      <c r="O22" s="7">
+        <v>844.79</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="6"/>
-        <v>1277.3600000000001</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1600</v>
-      </c>
-      <c r="N22" s="7">
-        <v>844.79</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="7"/>
         <v>-337.79000000000042</v>
       </c>
-      <c r="S22" s="5">
+      <c r="T22" s="5">
         <f t="shared" si="0"/>
         <v>-336.7800000000002</v>
       </c>
-      <c r="U22" s="7">
-        <f t="shared" si="8"/>
+      <c r="V22" s="7">
+        <f t="shared" si="7"/>
         <v>-1.3333333333321207E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1413,28 +1421,28 @@
         <f t="shared" si="4"/>
         <v>43.896666666666668</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="5"/>
+      <c r="J23" s="3">
+        <f>G23+H23</f>
         <v>425.56333333333333</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
+        <f t="shared" si="5"/>
+        <v>1276.69</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="6"/>
-        <v>1276.69</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="7"/>
         <v>513.33666666666636</v>
       </c>
-      <c r="S23" s="5">
+      <c r="T23" s="5">
         <f t="shared" si="0"/>
         <v>88.783333333333132</v>
       </c>
-      <c r="U23" s="7">
-        <f t="shared" si="8"/>
+      <c r="V23" s="7">
+        <f t="shared" si="7"/>
         <v>425.55</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1459,31 +1467,31 @@
         <f t="shared" si="4"/>
         <v>46.413333333333334</v>
       </c>
-      <c r="I24" s="3">
-        <f t="shared" si="5"/>
+      <c r="J24" s="3">
+        <f>G24+H24</f>
         <v>428.08000000000004</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
+        <f t="shared" si="5"/>
+        <v>1284.2400000000002</v>
+      </c>
+      <c r="O24" s="7">
+        <v>911</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="6"/>
-        <v>1284.2400000000002</v>
-      </c>
-      <c r="N24" s="7">
-        <v>911</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" si="7"/>
         <v>458.49666666666667</v>
       </c>
-      <c r="S24" s="5">
+      <c r="T24" s="5">
         <f t="shared" si="0"/>
         <v>516.86333333333323</v>
       </c>
-      <c r="U24" s="7">
-        <f t="shared" si="8"/>
+      <c r="V24" s="7">
+        <f t="shared" si="7"/>
         <v>-57.369999999999891</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1508,28 +1516,28 @@
         <f t="shared" si="4"/>
         <v>65.006666666666675</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" si="5"/>
+      <c r="J25" s="3">
+        <f>G25+H25</f>
         <v>446.67333333333335</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
+        <f t="shared" si="5"/>
+        <v>1340.02</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="6"/>
-        <v>1340.02</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" si="7"/>
         <v>1351.8433333333332</v>
       </c>
-      <c r="S25" s="5">
+      <c r="T25" s="5">
         <f t="shared" si="0"/>
         <v>963.53666666666663</v>
       </c>
-      <c r="U25" s="7">
-        <f t="shared" si="8"/>
+      <c r="V25" s="7">
+        <f t="shared" si="7"/>
         <v>389.30333333333346</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1557,31 +1565,31 @@
         <f t="shared" si="4"/>
         <v>72.993333333333339</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" si="5"/>
+      <c r="J26" s="3">
+        <f>G26+H26</f>
         <v>454.66</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
+        <f t="shared" si="5"/>
+        <v>1363.98</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1100</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="6"/>
-        <v>1363.98</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1100</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="7"/>
         <v>1161.1633333333332</v>
       </c>
-      <c r="S26" s="5">
+      <c r="T26" s="5">
         <f t="shared" si="0"/>
         <v>318.19666666666672</v>
       </c>
-      <c r="U26" s="7">
-        <f t="shared" si="8"/>
+      <c r="V26" s="7">
+        <f t="shared" si="7"/>
         <v>843.96333333333348</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1606,31 +1614,31 @@
         <f t="shared" si="4"/>
         <v>70.043333333333337</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" si="5"/>
+      <c r="J27" s="3">
+        <f>G27+H27</f>
         <v>451.71000000000004</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
+        <f t="shared" si="5"/>
+        <v>1355.13</v>
+      </c>
+      <c r="O27" s="7">
+        <v>500</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="6"/>
-        <v>1355.13</v>
-      </c>
-      <c r="N27" s="7">
-        <v>500</v>
-      </c>
-      <c r="R27" s="4">
-        <f t="shared" si="7"/>
         <v>1564.583333333333</v>
       </c>
-      <c r="S27" s="5">
+      <c r="T27" s="5">
         <f t="shared" si="0"/>
         <v>769.90666666666675</v>
       </c>
-      <c r="U27" s="7">
-        <f t="shared" si="8"/>
+      <c r="V27" s="7">
+        <f t="shared" si="7"/>
         <v>795.67333333333363</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -1655,34 +1663,34 @@
         <f t="shared" si="4"/>
         <v>72.660000000000011</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="5"/>
+      <c r="J28" s="3">
+        <f>G28+H28</f>
         <v>454.32666666666671</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
+        <f t="shared" si="5"/>
+        <v>1362.98</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1800</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1170</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="6"/>
-        <v>1362.98</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1800</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1170</v>
-      </c>
-      <c r="R28" s="4">
-        <f t="shared" si="7"/>
         <v>-496.76333333333378</v>
       </c>
-      <c r="S28" s="5">
+      <c r="T28" s="5">
         <f t="shared" si="0"/>
         <v>-575.76666666666642</v>
       </c>
-      <c r="U28" s="7">
-        <f t="shared" si="8"/>
+      <c r="V28" s="7">
+        <f t="shared" si="7"/>
         <v>80.000000000000455</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1707,28 +1715,28 @@
         <f t="shared" si="4"/>
         <v>79.176666666666662</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" si="5"/>
+      <c r="J29" s="3">
+        <f>G29+H29</f>
         <v>460.84333333333336</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
+        <f t="shared" si="5"/>
+        <v>1382.5300000000002</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="6"/>
-        <v>1382.5300000000002</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" si="7"/>
         <v>424.92333333333306</v>
       </c>
-      <c r="S29" s="5">
+      <c r="T29" s="5">
         <f t="shared" si="0"/>
         <v>-114.92333333333306</v>
       </c>
-      <c r="U29" s="7">
-        <f t="shared" si="8"/>
+      <c r="V29" s="7">
+        <f t="shared" si="7"/>
         <v>540.84333333333382</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -1753,34 +1761,34 @@
         <f t="shared" si="4"/>
         <v>74.763333333333335</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="5"/>
+      <c r="J30" s="3">
+        <f>G30+H30</f>
         <v>456.43</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
+        <f t="shared" si="5"/>
+        <v>1369.29</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="6"/>
-        <v>1369.29</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" si="7"/>
         <v>337.78333333333308</v>
       </c>
-      <c r="S30" s="5">
+      <c r="T30" s="5">
         <f t="shared" si="0"/>
         <v>341.50666666666694</v>
       </c>
-      <c r="U30" s="7">
-        <f t="shared" si="8"/>
+      <c r="V30" s="7">
+        <f t="shared" si="7"/>
         <v>-2.7266666666662331</v>
       </c>
-      <c r="V30" s="8">
+      <c r="W30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1805,34 +1813,34 @@
         <f t="shared" si="4"/>
         <v>63.143333333333338</v>
       </c>
-      <c r="I31" s="3">
-        <f t="shared" si="5"/>
+      <c r="J31" s="3">
+        <f>G31+H31</f>
         <v>444.81</v>
       </c>
-      <c r="K31" s="4">
-        <f t="shared" si="6"/>
+      <c r="L31" s="4">
+        <f t="shared" si="5"/>
         <v>1334.43</v>
       </c>
-      <c r="N31" s="7">
+      <c r="O31" s="7">
         <v>444.81</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <v>444.81</v>
       </c>
-      <c r="R31" s="4">
-        <f>R30 + K31 - (I31 + L31+ M31 + N31 + O31)</f>
+      <c r="S31" s="4">
+        <f>S30 + L31 - (J31 + M31+ N31 + O31 + P31)</f>
         <v>337.78333333333308</v>
       </c>
-      <c r="U31" s="7">
-        <f t="shared" si="8"/>
+      <c r="V31" s="7">
+        <f t="shared" si="7"/>
         <v>-2.7266666666662331</v>
       </c>
-      <c r="V31" s="8">
-        <f>V30 + I31 - O31</f>
+      <c r="W31" s="8">
+        <f>W30 + J31 - P31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -1857,34 +1865,34 @@
         <f t="shared" si="4"/>
         <v>54.053333333333335</v>
       </c>
-      <c r="I32" s="3">
-        <f t="shared" si="5"/>
+      <c r="J32" s="3">
+        <f>G32+H32</f>
         <v>435.72</v>
       </c>
-      <c r="K32" s="4">
-        <f t="shared" si="6"/>
+      <c r="L32" s="4">
+        <f t="shared" si="5"/>
         <v>1307.1600000000001</v>
       </c>
-      <c r="N32" s="7">
+      <c r="O32" s="7">
         <v>433</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P32" s="8">
         <v>440</v>
       </c>
-      <c r="R32" s="4">
-        <f>R31 + K32 - (I32 + L32+ M32 + N32 + O32)</f>
+      <c r="S32" s="4">
+        <f>S31 + L32 - (J32 + M32+ N32 + O32 + P32)</f>
         <v>336.22333333333313</v>
       </c>
-      <c r="U32" s="7">
-        <f t="shared" si="8"/>
+      <c r="V32" s="7">
+        <f t="shared" si="7"/>
         <v>-6.666666666205856E-3</v>
       </c>
-      <c r="V32" s="8">
-        <f>V31 + I32 - O32</f>
+      <c r="W32" s="8">
+        <f>W31 + J32 - P32</f>
         <v>-4.2799999999999727</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -1909,34 +1917,34 @@
         <f t="shared" si="4"/>
         <v>45.03</v>
       </c>
-      <c r="I33" s="3">
-        <f t="shared" si="5"/>
+      <c r="J33" s="3">
+        <f>G33+H33</f>
         <v>426.69666666666672</v>
       </c>
-      <c r="K33" s="4">
-        <f t="shared" si="6"/>
+      <c r="L33" s="4">
+        <f t="shared" si="5"/>
         <v>1280.0900000000001</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O33" s="7">
         <v>440</v>
       </c>
-      <c r="O33" s="8">
+      <c r="P33" s="8">
         <v>420</v>
       </c>
-      <c r="R33" s="4">
-        <f>R32 + K33 - (I33 + L33+ M33 + N33 + O33)</f>
+      <c r="S33" s="4">
+        <f>S32 + L33 - (J33 + M33+ N33 + O33 + P33)</f>
         <v>329.61666666666656</v>
       </c>
-      <c r="U33" s="7">
-        <f t="shared" si="8"/>
+      <c r="V33" s="7">
+        <f t="shared" si="7"/>
         <v>-13.309999999999491</v>
       </c>
-      <c r="V33" s="8">
-        <f>V32 + I33 - O33</f>
+      <c r="W33" s="8">
+        <f>W32 + J33 - P33</f>
         <v>2.4166666666667425</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -1961,38 +1969,38 @@
         <f t="shared" si="4"/>
         <v>51.52</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="5"/>
+      <c r="J34" s="3">
+        <f>G34+H34</f>
         <v>433.18666666666667</v>
       </c>
-      <c r="K34" s="4">
-        <f t="shared" si="6"/>
+      <c r="L34" s="4">
+        <f t="shared" si="5"/>
         <v>1299.56</v>
       </c>
-      <c r="N34" s="7">
+      <c r="O34" s="7">
         <v>420</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <v>420</v>
       </c>
-      <c r="R34" s="4">
-        <f>R33 + K34 - (I34 + L34+ M34 + N34 + O34)</f>
+      <c r="S34" s="4">
+        <f>S33 + L34 - (J34 + M34+ N34 + O34 + P34)</f>
         <v>355.98999999999978</v>
       </c>
-      <c r="S34" s="5">
-        <f>S30</f>
+      <c r="T34" s="5">
+        <f>T30</f>
         <v>341.50666666666694</v>
       </c>
-      <c r="U34" s="7">
-        <f t="shared" si="8"/>
+      <c r="V34" s="7">
+        <f t="shared" si="7"/>
         <v>-0.12333333333282326</v>
       </c>
-      <c r="V34" s="8">
-        <f>V33 + I34 - O34</f>
+      <c r="W34" s="8">
+        <f>W33 + J34 - P34</f>
         <v>15.60333333333341</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -2017,28 +2025,28 @@
         <f t="shared" si="4"/>
         <v>46.49666666666667</v>
       </c>
-      <c r="I35" s="3">
-        <f t="shared" si="5"/>
+      <c r="J35" s="3">
+        <f>G35+H35</f>
         <v>428.16333333333336</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" si="6"/>
+      <c r="L35" s="4">
+        <f t="shared" si="5"/>
         <v>1284.49</v>
       </c>
-      <c r="R35" s="4">
-        <f>R34 + K35 - (I35 + L35+ M35 + N35 + O35 + P35)</f>
+      <c r="S35" s="4">
+        <f>S34 + L35 - (J35 + M35+ N35 + O35 + P35 + Q35)</f>
         <v>1212.3166666666664</v>
       </c>
-      <c r="S35" s="5">
-        <f>S34 + I35 - L35</f>
+      <c r="T35" s="5">
+        <f>T34 + J35 - M35</f>
         <v>769.6700000000003</v>
       </c>
-      <c r="V35" s="8"/>
-      <c r="W35" s="9">
+      <c r="W35" s="8"/>
+      <c r="X35" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -2063,36 +2071,36 @@
         <f t="shared" si="4"/>
         <v>49.620000000000005</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="5"/>
+      <c r="J36" s="3">
+        <f>G36+H36</f>
         <v>431.28666666666669</v>
       </c>
-      <c r="K36" s="4">
-        <f t="shared" si="6"/>
+      <c r="L36" s="4">
+        <f t="shared" si="5"/>
         <v>1293.8600000000001</v>
       </c>
-      <c r="L36" s="5">
+      <c r="M36" s="5">
         <v>3800</v>
       </c>
-      <c r="P36" s="9">
+      <c r="Q36" s="9">
         <f>381.67</f>
         <v>381.67</v>
       </c>
-      <c r="R36" s="4">
-        <f>R35 + K36 - (I36 + L36+ M36 + N36 + O36 + P36)</f>
+      <c r="S36" s="4">
+        <f>S35 + L36 - (J36 + M36+ N36 + O36 + P36 + Q36)</f>
         <v>-2106.7800000000007</v>
       </c>
-      <c r="S36" s="5">
-        <f>S35 + I36 - L36</f>
+      <c r="T36" s="5">
+        <f>T35 + J36 - M36</f>
         <v>-2599.0433333333331</v>
       </c>
-      <c r="V36" s="8"/>
-      <c r="W36" s="11">
-        <f t="shared" ref="W36:W42" si="9">W35 + I36 - P36</f>
+      <c r="W36" s="8"/>
+      <c r="X36" s="11">
+        <f t="shared" ref="X36:X42" si="8">X35 + J36 - Q36</f>
         <v>49.616666666666674</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -2117,32 +2125,32 @@
         <f t="shared" si="4"/>
         <v>54.98</v>
       </c>
-      <c r="I37" s="3">
-        <f t="shared" si="5"/>
+      <c r="J37" s="3">
+        <f>G37+H37</f>
         <v>436.6466666666667</v>
       </c>
-      <c r="K37" s="4">
-        <f t="shared" si="6"/>
+      <c r="L37" s="4">
+        <f t="shared" si="5"/>
         <v>1309.94</v>
       </c>
-      <c r="P37" s="9">
+      <c r="Q37" s="9">
         <f>381.67+49.62+54.97</f>
         <v>486.26</v>
       </c>
-      <c r="R37" s="4">
-        <f t="shared" ref="R37:R42" si="10">R36 + K37 - (I37 + L37+ M37 + N37 + O37 + P37)</f>
+      <c r="S37" s="4">
+        <f t="shared" ref="S37:S42" si="9">S36 + L37 - (J37 + M37+ N37 + O37 + P37 + Q37)</f>
         <v>-1719.7466666666674</v>
       </c>
-      <c r="S37" s="5">
-        <f>S36 + I37 - L37</f>
+      <c r="T37" s="5">
+        <f>T36 + J37 - M37</f>
         <v>-2162.3966666666665</v>
       </c>
-      <c r="W37" s="11">
-        <f t="shared" si="9"/>
+      <c r="X37" s="11">
+        <f t="shared" si="8"/>
         <v>3.3333333333871451E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -2160,7 +2168,7 @@
         <v>130.52000000000001</v>
       </c>
       <c r="F38" s="1">
-        <v>59.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="3"/>
@@ -2168,34 +2176,34 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="4"/>
-        <v>63.503333333333337</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="5"/>
-        <v>445.17</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="6"/>
-        <v>1335.51</v>
-      </c>
-      <c r="P38" s="9">
+        <v>65.50333333333333</v>
+      </c>
+      <c r="J38" s="3">
+        <f>G38+H38</f>
+        <v>447.17</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="5"/>
+        <v>1341.51</v>
+      </c>
+      <c r="Q38" s="9">
         <f>381.67+63.5</f>
         <v>445.17</v>
       </c>
-      <c r="R38" s="4">
-        <f t="shared" si="10"/>
-        <v>-1274.5766666666673</v>
-      </c>
-      <c r="S38" s="5">
-        <f t="shared" ref="S38:S42" si="11">S37 + I38 - L38</f>
-        <v>-1717.2266666666665</v>
-      </c>
-      <c r="W38" s="11">
+      <c r="S38" s="4">
         <f t="shared" si="9"/>
-        <v>3.3333333333871451E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+        <v>-1270.5766666666673</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" ref="T38:T42" si="10">T37 + J38 - M38</f>
+        <v>-1715.2266666666665</v>
+      </c>
+      <c r="X38" s="11">
+        <f t="shared" si="8"/>
+        <v>2.0033333333333871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>128</v>
       </c>
       <c r="F39" s="1">
-        <v>59.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="3"/>
@@ -2218,34 +2226,34 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="4"/>
-        <v>62.663333333333334</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="5"/>
-        <v>444.33000000000004</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="6"/>
-        <v>1332.9900000000002</v>
-      </c>
-      <c r="P39" s="9">
+        <v>64.663333333333341</v>
+      </c>
+      <c r="J39" s="3">
+        <f>G39+H39</f>
+        <v>446.33000000000004</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="5"/>
+        <v>1338.9900000000002</v>
+      </c>
+      <c r="Q39" s="9">
         <f>381.66+62.67</f>
         <v>444.33000000000004</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
+        <f t="shared" si="9"/>
+        <v>-822.24666666666712</v>
+      </c>
+      <c r="T39" s="5">
         <f t="shared" si="10"/>
-        <v>-830.24666666666712</v>
-      </c>
-      <c r="S39" s="5">
-        <f t="shared" si="11"/>
-        <v>-1272.8966666666665</v>
-      </c>
-      <c r="W39" s="11">
-        <f t="shared" si="9"/>
-        <v>3.3333333333871451E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+        <v>-1268.8966666666665</v>
+      </c>
+      <c r="X39" s="11">
+        <f t="shared" si="8"/>
+        <v>4.0033333333333871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>161.32</v>
       </c>
       <c r="F40" s="1">
-        <v>59.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="3"/>
@@ -2268,34 +2276,34 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="4"/>
-        <v>73.77</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="5"/>
-        <v>455.43666666666667</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="6"/>
-        <v>1366.31</v>
-      </c>
-      <c r="P40" s="9">
-        <f>381.67+73.77</f>
-        <v>455.44</v>
-      </c>
-      <c r="R40" s="4">
+        <v>75.77</v>
+      </c>
+      <c r="J40" s="3">
+        <f>G40+H40</f>
+        <v>457.43666666666667</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="5"/>
+        <v>1372.31</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>381.67+73.77 + 2*15</f>
+        <v>485.44</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="9"/>
+        <v>-392.81333333333384</v>
+      </c>
+      <c r="T40" s="5">
         <f t="shared" si="10"/>
-        <v>-374.81333333333384</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="11"/>
-        <v>-817.45999999999981</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+        <v>-811.45999999999981</v>
+      </c>
+      <c r="X40" s="11">
+        <f t="shared" si="8"/>
+        <v>-23.999999999999943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2318,7 @@
         <v>194.78</v>
       </c>
       <c r="F41" s="1">
-        <v>59.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="3"/>
@@ -2318,33 +2326,33 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="4"/>
-        <v>84.923333333333332</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="5"/>
-        <v>466.59000000000003</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="6"/>
-        <v>1399.77</v>
-      </c>
-      <c r="L41" s="5">
+        <v>86.923333333333332</v>
+      </c>
+      <c r="J41" s="3">
+        <f>G41+H41</f>
+        <v>468.59000000000003</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="5"/>
+        <v>1405.77</v>
+      </c>
+      <c r="M41" s="5">
         <v>100</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
+        <f t="shared" si="9"/>
+        <v>444.36666666666611</v>
+      </c>
+      <c r="T41" s="5">
         <f t="shared" si="10"/>
-        <v>458.36666666666599</v>
-      </c>
-      <c r="S41" s="5">
-        <f t="shared" si="11"/>
-        <v>-450.86999999999978</v>
-      </c>
-      <c r="W41" s="11">
-        <f t="shared" si="9"/>
-        <v>466.59000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+        <v>-442.86999999999978</v>
+      </c>
+      <c r="X41" s="11">
+        <f t="shared" si="8"/>
+        <v>444.59000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>147.07</v>
       </c>
       <c r="F42" s="1">
-        <v>59.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="3"/>
@@ -2364,38 +2372,48 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="4"/>
-        <v>69.02</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="5"/>
-        <v>450.68666666666667</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="6"/>
-        <v>1352.06</v>
-      </c>
-      <c r="R42" s="4">
+        <v>71.02</v>
+      </c>
+      <c r="I42" s="1">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3">
+        <f>G42+H42</f>
+        <v>452.68666666666667</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="5"/>
+        <v>1358.06</v>
+      </c>
+      <c r="Q42" s="9">
+        <f>2*381.67 + 86.92 + 71.02 + 6</f>
+        <v>927.28</v>
+      </c>
+      <c r="S42" s="4">
+        <f>S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
+        <v>437.45999999999935</v>
+      </c>
+      <c r="T42" s="5">
         <f t="shared" si="10"/>
-        <v>1359.7399999999991</v>
-      </c>
-      <c r="S42" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.18333333333310975</v>
-      </c>
-      <c r="W42" s="11">
-        <f t="shared" si="9"/>
-        <v>917.27666666666664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+        <v>9.8166666666668903</v>
+      </c>
+      <c r="X42" s="11">
+        <f>X41 + J42 - Q42 + I42</f>
+        <v>-15.003333333333217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>1145</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="I43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2437,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2445,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>10</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>11</v>
       </c>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -372,11 +372,11 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="U48" activeCellId="0" sqref="U48"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C44" activeCellId="0" sqref="44:44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,22 +387,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="8" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="5" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="10" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.67"/>
@@ -2069,7 +2069,7 @@
         <v>4.00333333333339</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>24</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>-23.9999999999999</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="S41" s="3" t="n">
         <f aca="false">S40 + L41 - (J41 + M41+ N41 + O41 + P41 + Q41)</f>
-        <v>444.366666666666</v>
+        <v>444.366666666667</v>
       </c>
       <c r="T41" s="4" t="n">
         <f aca="false">T40 + J41 - M41</f>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="X41" s="11" t="n">
         <f aca="false">X40 + J41 - Q41</f>
-        <v>444.59</v>
+        <v>444.590000000001</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,15 +2210,15 @@
       </c>
       <c r="S42" s="3" t="n">
         <f aca="false">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
-        <v>437.459999999999</v>
+        <v>437.460000000001</v>
       </c>
       <c r="T42" s="4" t="n">
         <f aca="false">T41 + J42 - M42</f>
-        <v>9.81666666666689</v>
+        <v>9.81666666666735</v>
       </c>
       <c r="X42" s="11" t="n">
         <f aca="false">X41 + J42 - Q42 + I42</f>
-        <v>-15.0033333333332</v>
+        <v>-15.0033333333324</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2236,7 @@
         <v>136.3</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>66.99</v>
+        <v>65.99</v>
       </c>
       <c r="G43" s="9" t="n">
         <f aca="false">C43/3</f>
@@ -2244,37 +2244,37 @@
       </c>
       <c r="H43" s="1" t="n">
         <f aca="false">(E43+F43)/3</f>
-        <v>67.7633333333333</v>
+        <v>67.43</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>15</v>
       </c>
       <c r="J43" s="2" t="n">
         <f aca="false">G43+H43</f>
-        <v>449.43</v>
+        <v>449.096666666667</v>
       </c>
       <c r="L43" s="3" t="n">
         <f aca="false">3 *J43</f>
-        <v>1348.29</v>
+        <v>1347.29</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>1754</v>
       </c>
       <c r="Q43" s="8" t="n">
-        <f aca="false"> 381.67 + 67.43</f>
+        <f aca="false">381.67 + 67.43</f>
         <v>449.1</v>
       </c>
       <c r="S43" s="3" t="n">
         <f aca="false">S42 + L43 - (J43 + M43+ N43 + O43 + P43 + Q43) + I43</f>
-        <v>-851.780000000001</v>
+        <v>-852.446666666665</v>
       </c>
       <c r="T43" s="4" t="n">
         <f aca="false">T42 + J43 - M43</f>
-        <v>-1294.75333333333</v>
+        <v>-1295.08666666667</v>
       </c>
       <c r="X43" s="11" t="n">
         <f aca="false">X42 + J43 - Q43 + I43</f>
-        <v>0.326666666666767</v>
+        <v>-0.00666666666541005</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,7 +2292,7 @@
         <v>132.13</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>67.99</v>
+        <v>65.99</v>
       </c>
       <c r="G44" s="9" t="n">
         <f aca="false">C44/3</f>
@@ -2300,33 +2300,33 @@
       </c>
       <c r="H44" s="1" t="n">
         <f aca="false">(E44+F44)/3</f>
-        <v>66.7066666666667</v>
+        <v>66.04</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>15</v>
       </c>
       <c r="J44" s="2" t="n">
         <f aca="false">G44+H44</f>
-        <v>448.373333333333</v>
+        <v>447.706666666667</v>
       </c>
       <c r="L44" s="3" t="n">
         <f aca="false">3 *J44</f>
-        <v>1345.12</v>
+        <v>1343.12</v>
       </c>
       <c r="Q44" s="8" t="n">
         <v>381.67</v>
       </c>
       <c r="S44" s="3" t="n">
         <f aca="false">S43 + L44 - (J44 + M44+ N44 + O44 + P44 + Q44) + I44</f>
-        <v>-321.703333333334</v>
+        <v>-323.703333333331</v>
       </c>
       <c r="T44" s="4" t="n">
         <f aca="false">T43 + J44 - M44</f>
-        <v>-846.38</v>
+        <v>-847.379999999999</v>
       </c>
       <c r="X44" s="11" t="n">
         <f aca="false">X43 + J44 - Q44 + I44</f>
-        <v>82.0300000000001</v>
+        <v>81.0300000000016</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,7 +2344,7 @@
         <v>89.4</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>68.99</v>
+        <v>65.99</v>
       </c>
       <c r="G45" s="9" t="n">
         <f aca="false">C45/3</f>
@@ -2352,30 +2352,30 @@
       </c>
       <c r="H45" s="1" t="n">
         <f aca="false">(E45+F45)/3</f>
-        <v>52.7966666666667</v>
+        <v>51.7966666666667</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>15</v>
       </c>
       <c r="J45" s="2" t="n">
         <f aca="false">G45+H45</f>
-        <v>434.463333333333</v>
+        <v>433.463333333334</v>
       </c>
       <c r="L45" s="3" t="n">
         <f aca="false">3 *J45</f>
-        <v>1303.39</v>
+        <v>1300.39</v>
       </c>
       <c r="S45" s="3" t="n">
         <f aca="false">S44 + L45 - (J45 + M45+ N45 + O45 + P45 + Q45) + I45</f>
-        <v>562.223333333333</v>
+        <v>558.223333333337</v>
       </c>
       <c r="T45" s="4" t="n">
         <f aca="false">T44 + J45 - M45</f>
-        <v>-411.916666666666</v>
+        <v>-413.916666666665</v>
       </c>
       <c r="X45" s="11" t="n">
         <f aca="false">X44 + J45 - Q45 + I45</f>
-        <v>531.493333333333</v>
+        <v>529.493333333335</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,12 +2385,15 @@
       <c r="C46" s="1" t="n">
         <v>1145</v>
       </c>
+      <c r="D46" s="1" t="n">
+        <v>45.6</v>
+      </c>
       <c r="E46" s="1" t="n">
         <f aca="false">D45</f>
         <v>68.34</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>69.99</v>
+        <v>65.99</v>
       </c>
       <c r="G46" s="9" t="n">
         <f aca="false">C46/3</f>
@@ -2398,38 +2401,73 @@
       </c>
       <c r="H46" s="1" t="n">
         <f aca="false">(E46+F46)/3</f>
-        <v>46.11</v>
+        <v>44.7766666666667</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>15</v>
       </c>
       <c r="J46" s="2" t="n">
         <f aca="false">G46+H46</f>
-        <v>427.776666666667</v>
+        <v>426.443333333334</v>
       </c>
       <c r="L46" s="3" t="n">
         <f aca="false">3 *J46</f>
-        <v>1283.33</v>
+        <v>1279.33</v>
       </c>
       <c r="S46" s="3" t="n">
         <f aca="false">S45 + L46 - (J46 + M46+ N46 + O46 + P46 + Q46) + I46</f>
-        <v>1432.77666666667</v>
+        <v>1426.11</v>
       </c>
       <c r="T46" s="4" t="n">
         <f aca="false">T45 + J46 - M46</f>
-        <v>15.8600000000003</v>
+        <v>12.5266666666687</v>
       </c>
       <c r="X46" s="11" t="n">
         <f aca="false">X45 + J46 - Q46 + I46</f>
-        <v>974.27</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>970.936666666669</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>1145</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <f aca="false">D46</f>
+        <v>45.6</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>65.99</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <f aca="false">C47/3</f>
+        <v>381.666666666667</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">(E47+F47)/3</f>
+        <v>37.1966666666667</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <f aca="false">G47+H47</f>
+        <v>418.863333333333</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <f aca="false">3 *J47</f>
+        <v>1256.59</v>
+      </c>
+      <c r="S47" s="3" t="n">
+        <f aca="false">S46 + L47 - (J47 + M47+ N47 + O47 + P47 + Q47) + I47</f>
+        <v>2263.83666666667</v>
+      </c>
+      <c r="T47" s="4" t="n">
+        <f aca="false">T46 + J47 - M47</f>
+        <v>431.390000000002</v>
+      </c>
+      <c r="X47" s="11" t="n">
+        <f aca="false">X46 + J47 - Q47 + I47</f>
+        <v>1389.8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -371,12 +371,12 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C44" activeCellId="0" sqref="44:44"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="AC55" activeCellId="0" sqref="AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2386,7 +2386,7 @@
         <v>1145</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45.6</v>
+        <v>63.6</v>
       </c>
       <c r="E46" s="1" t="n">
         <f aca="false">D45</f>
@@ -2434,9 +2434,12 @@
       <c r="C47" s="1" t="n">
         <v>1145</v>
       </c>
+      <c r="D47" s="1" t="n">
+        <v>45.6</v>
+      </c>
       <c r="E47" s="1" t="n">
         <f aca="false">D46</f>
-        <v>45.6</v>
+        <v>63.6</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>65.99</v>
@@ -2447,42 +2450,250 @@
       </c>
       <c r="H47" s="1" t="n">
         <f aca="false">(E47+F47)/3</f>
-        <v>37.1966666666667</v>
+        <v>43.1966666666667</v>
       </c>
       <c r="J47" s="2" t="n">
         <f aca="false">G47+H47</f>
-        <v>418.863333333333</v>
+        <v>424.863333333333</v>
       </c>
       <c r="L47" s="3" t="n">
         <f aca="false">3 *J47</f>
-        <v>1256.59</v>
+        <v>1274.59</v>
+      </c>
+      <c r="Q47" s="8" t="n">
+        <v>1389.8</v>
       </c>
       <c r="S47" s="3" t="n">
         <f aca="false">S46 + L47 - (J47 + M47+ N47 + O47 + P47 + Q47) + I47</f>
-        <v>2263.83666666667</v>
+        <v>886.036666666671</v>
       </c>
       <c r="T47" s="4" t="n">
         <f aca="false">T46 + J47 - M47</f>
-        <v>431.390000000002</v>
+        <v>437.390000000002</v>
       </c>
       <c r="X47" s="11" t="n">
         <f aca="false">X46 + J47 - Q47 + I47</f>
-        <v>1389.8</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.00000000000205</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>1145</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="1" t="n">
+        <v>147.67</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <f aca="false">D47</f>
+        <v>45.6</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>65.99</v>
+      </c>
+      <c r="G48" s="9" t="n">
+        <f aca="false">C48/3</f>
+        <v>381.666666666667</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">(E48+F48)/3</f>
+        <v>37.1966666666667</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <f aca="false">G48+H48</f>
+        <v>418.863333333333</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <f aca="false">3 *J48</f>
+        <v>1256.59</v>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v>424.86</v>
+      </c>
+      <c r="S48" s="3" t="n">
+        <f aca="false">S47 + L48 - (J48 + M48+ N48 + O48 + P48 + Q48) + I48</f>
+        <v>1298.90333333334</v>
+      </c>
+      <c r="T48" s="4" t="n">
+        <f aca="false">T47 + J48 - M48</f>
+        <v>856.253333333335</v>
+      </c>
+      <c r="X48" s="11" t="n">
+        <f aca="false">X47 + J48 - Q48 + I48</f>
+        <v>0.00333333333537666</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>149.67</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <f aca="false">D48</f>
+        <v>147.67</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>65.99</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <f aca="false">C49/3</f>
+        <v>381.666666666667</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">(E49+F49)/3</f>
+        <v>71.22</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <f aca="false">G49+H49</f>
+        <v>452.886666666667</v>
+      </c>
+      <c r="L49" s="3" t="n">
+        <f aca="false">3 *J49</f>
+        <v>1358.66</v>
+      </c>
+      <c r="S49" s="3" t="n">
+        <f aca="false">S48 + L49 - (J49 + M49+ N49 + O49 + P49 + Q49) + I49</f>
+        <v>2204.67666666667</v>
+      </c>
+      <c r="X49" s="11" t="n">
+        <f aca="false">X48 + J49 - Q49 + I49</f>
+        <v>452.890000000002</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <f aca="false">D49</f>
+        <v>149.67</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>65.99</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <f aca="false">C50/3</f>
+        <v>381.666666666667</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">(E50+F50)/3</f>
+        <v>71.8866666666667</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <f aca="false">G50+H50</f>
+        <v>453.553333333333</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <f aca="false">3 *J50</f>
+        <v>1360.66</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <f aca="false">S49 + L50 - (J50 + M50+ N50 + O50 + P50 + Q50) + I50</f>
+        <v>3111.78333333334</v>
+      </c>
+      <c r="X50" s="11" t="n">
+        <f aca="false">X49 + J50 - Q50 + I50</f>
+        <v>906.443333333336</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="1" t="n">
         <v>1145</v>
       </c>
     </row>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -372,11 +372,11 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="AC55" activeCellId="0" sqref="AC55"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="M49" activeCellId="0" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2558,9 +2558,16 @@
         <f aca="false">3 *J49</f>
         <v>1358.66</v>
       </c>
+      <c r="M49" s="4" t="n">
+        <v>3166</v>
+      </c>
       <c r="S49" s="3" t="n">
         <f aca="false">S48 + L49 - (J49 + M49+ N49 + O49 + P49 + Q49) + I49</f>
-        <v>2204.67666666667</v>
+        <v>-961.323333333327</v>
+      </c>
+      <c r="T49" s="4" t="n">
+        <f aca="false">T48 + J49 - M49</f>
+        <v>-1856.86</v>
       </c>
       <c r="X49" s="11" t="n">
         <f aca="false">X48 + J49 - Q49 + I49</f>
@@ -2600,13 +2607,20 @@
         <f aca="false">3 *J50</f>
         <v>1360.66</v>
       </c>
+      <c r="Q50" s="8" t="n">
+        <v>906.44</v>
+      </c>
       <c r="S50" s="3" t="n">
         <f aca="false">S49 + L50 - (J50 + M50+ N50 + O50 + P50 + Q50) + I50</f>
-        <v>3111.78333333334</v>
+        <v>-960.65666666666</v>
+      </c>
+      <c r="T50" s="4" t="n">
+        <f aca="false">T49 + J50 - M50</f>
+        <v>-1403.30666666666</v>
       </c>
       <c r="X50" s="11" t="n">
         <f aca="false">X49 + J50 - Q50 + I50</f>
-        <v>906.443333333336</v>
+        <v>0.00333333333492192</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70A627-69D8-4BF7-ADE3-D21E975F050B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BAAF36-93BE-4487-8D38-1A755FF908EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
+      <selection pane="bottomRight" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,26 +776,26 @@
         <v>87.26</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E52" si="0">D8</f>
+        <f t="shared" ref="E9:E54" si="0">D8</f>
         <v>79.540000000000006</v>
       </c>
       <c r="F9" s="1">
         <v>59.99</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9:G52" si="1">C9/3</f>
+        <f t="shared" ref="G9:G55" si="1">C9/3</f>
         <v>375</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H52" si="2">(E9+F9)/3</f>
+        <f t="shared" ref="H9:H55" si="2">(E9+F9)/3</f>
         <v>46.51</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J52" si="3">G9+H9</f>
+        <f t="shared" ref="J9:J55" si="3">G9+H9</f>
         <v>421.51</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L52" si="4">3 *J9</f>
+        <f t="shared" ref="L9:L55" si="4">3 *J9</f>
         <v>1264.53</v>
       </c>
       <c r="M9" s="4">
@@ -2102,7 +2102,7 @@
         <v>1212.3166666666664</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="T35:T52" si="10">T34 + J35 - M35</f>
+        <f t="shared" ref="T35:T55" si="10">T34 + J35 - M35</f>
         <v>769.6700000000003</v>
       </c>
       <c r="W35" s="7"/>
@@ -2457,7 +2457,7 @@
         <v>927.28</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" ref="S42:S52" si="12">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
+        <f t="shared" ref="S42:S55" si="12">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
         <v>437.45999999999935</v>
       </c>
       <c r="T42" s="4">
@@ -2465,7 +2465,7 @@
         <v>9.8166666666668903</v>
       </c>
       <c r="X42" s="11">
-        <f t="shared" ref="X42:X52" si="13">X41 + J42 - Q42 + I42</f>
+        <f t="shared" ref="X42:X55" si="13">X41 + J42 - Q42 + I42</f>
         <v>-15.003333333333217</v>
       </c>
     </row>
@@ -2930,6 +2930,9 @@
       <c r="C52" s="1">
         <v>1145</v>
       </c>
+      <c r="D52" s="1">
+        <v>164.8</v>
+      </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>153.19</v>
@@ -2976,6 +2979,47 @@
       <c r="C53" s="1">
         <v>1145</v>
       </c>
+      <c r="D53" s="1">
+        <v>182.17</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>164.8</v>
+      </c>
+      <c r="F53" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="1"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>76.930000000000007</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>458.59666666666669</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="4"/>
+        <v>1375.79</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>458.59</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="12"/>
+        <v>410.30333333333238</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="10"/>
+        <v>-32.346666666666351</v>
+      </c>
+      <c r="X53" s="11">
+        <f t="shared" si="13"/>
+        <v>3.3333333336145188E-3</v>
+      </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -2984,6 +3028,44 @@
       <c r="C54" s="1">
         <v>1145</v>
       </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>182.17</v>
+      </c>
+      <c r="F54" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="1"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>82.719999999999985</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="3"/>
+        <v>464.38666666666666</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="4"/>
+        <v>1393.1599999999999</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>464.39</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="12"/>
+        <v>874.68666666666559</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="10"/>
+        <v>432.0400000000003</v>
+      </c>
+      <c r="X54" s="11">
+        <f t="shared" si="13"/>
+        <v>2.8421709430404007E-13</v>
+      </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -2991,6 +3073,40 @@
       </c>
       <c r="C55" s="1">
         <v>1145</v>
+      </c>
+      <c r="F55" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="1"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>21.996666666666666</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="3"/>
+        <v>403.66333333333336</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="4"/>
+        <v>1210.99</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>403.66</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="12"/>
+        <v>1278.3533333333321</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="10"/>
+        <v>835.7033333333336</v>
+      </c>
+      <c r="X55" s="11">
+        <f t="shared" si="13"/>
+        <v>3.3333333336145188E-3</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BAAF36-93BE-4487-8D38-1A755FF908EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8DFB8-9786-42CF-BFE2-A30750248A80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="Q56" sqref="Q56"/>
+      <selection pane="bottomRight" activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,19 +783,19 @@
         <v>59.99</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9:G55" si="1">C9/3</f>
+        <f t="shared" ref="G9:G56" si="1">C9/3</f>
         <v>375</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H55" si="2">(E9+F9)/3</f>
+        <f t="shared" ref="H9:H56" si="2">(E9+F9)/3</f>
         <v>46.51</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J55" si="3">G9+H9</f>
+        <f t="shared" ref="J9:J56" si="3">G9+H9</f>
         <v>421.51</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L55" si="4">3 *J9</f>
+        <f t="shared" ref="L9:L56" si="4">3 *J9</f>
         <v>1264.53</v>
       </c>
       <c r="M9" s="4">
@@ -2102,7 +2102,7 @@
         <v>1212.3166666666664</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="T35:T55" si="10">T34 + J35 - M35</f>
+        <f t="shared" ref="T35:T56" si="10">T34 + J35 - M35</f>
         <v>769.6700000000003</v>
       </c>
       <c r="W35" s="7"/>
@@ -2457,7 +2457,7 @@
         <v>927.28</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" ref="S42:S55" si="12">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
+        <f t="shared" ref="S42:S56" si="12">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
         <v>437.45999999999935</v>
       </c>
       <c r="T42" s="4">
@@ -2465,7 +2465,7 @@
         <v>9.8166666666668903</v>
       </c>
       <c r="X42" s="11">
-        <f t="shared" ref="X42:X55" si="13">X41 + J42 - Q42 + I42</f>
+        <f t="shared" ref="X42:X56" si="13">X41 + J42 - Q42 + I42</f>
         <v>-15.003333333333217</v>
       </c>
     </row>
@@ -3115,6 +3115,37 @@
       </c>
       <c r="C56" s="1">
         <v>1145</v>
+      </c>
+      <c r="F56" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="1"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>21.996666666666666</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="3"/>
+        <v>403.66333333333336</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="4"/>
+        <v>1210.99</v>
+      </c>
+      <c r="S56" s="3">
+        <f t="shared" si="12"/>
+        <v>2085.6799999999989</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="10"/>
+        <v>1239.366666666667</v>
+      </c>
+      <c r="X56" s="11">
+        <f t="shared" si="13"/>
+        <v>403.66666666666697</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8DFB8-9786-42CF-BFE2-A30750248A80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AB458-82FA-4CB6-8D97-B8F7C24FD1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -621,10 +623,10 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="X56" sqref="X56"/>
+      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,26 +778,26 @@
         <v>87.26</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E54" si="0">D8</f>
+        <f t="shared" ref="E9:E57" si="0">D8</f>
         <v>79.540000000000006</v>
       </c>
       <c r="F9" s="1">
         <v>59.99</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9:G56" si="1">C9/3</f>
+        <f t="shared" ref="G9:G57" si="1">C9/3</f>
         <v>375</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H56" si="2">(E9+F9)/3</f>
+        <f t="shared" ref="H9:H57" si="2">(E9+F9)/3</f>
         <v>46.51</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J56" si="3">G9+H9</f>
+        <f t="shared" ref="J9:J57" si="3">G9+H9</f>
         <v>421.51</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L56" si="4">3 *J9</f>
+        <f t="shared" ref="L9:L57" si="4">3 *J9</f>
         <v>1264.53</v>
       </c>
       <c r="M9" s="4">
@@ -2102,7 +2104,7 @@
         <v>1212.3166666666664</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="T35:T56" si="10">T34 + J35 - M35</f>
+        <f t="shared" ref="T35:T57" si="10">T34 + J35 - M35</f>
         <v>769.6700000000003</v>
       </c>
       <c r="W35" s="7"/>
@@ -2457,7 +2459,7 @@
         <v>927.28</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" ref="S42:S56" si="12">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
+        <f t="shared" ref="S42:S57" si="12">S41 + L42 - (J42 + M42+ N42 + O42 + P42 + Q42) + I42</f>
         <v>437.45999999999935</v>
       </c>
       <c r="T42" s="4">
@@ -2465,7 +2467,7 @@
         <v>9.8166666666668903</v>
       </c>
       <c r="X42" s="11">
-        <f t="shared" ref="X42:X56" si="13">X41 + J42 - Q42 + I42</f>
+        <f t="shared" ref="X42:X57" si="13">X41 + J42 - Q42 + I42</f>
         <v>-15.003333333333217</v>
       </c>
     </row>
@@ -3028,6 +3030,9 @@
       <c r="C54" s="1">
         <v>1145</v>
       </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>182.17</v>
@@ -3074,6 +3079,13 @@
       <c r="C55" s="1">
         <v>1145</v>
       </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F55" s="1">
         <v>65.989999999999995</v>
       </c>
@@ -3116,6 +3128,13 @@
       <c r="C56" s="1">
         <v>1145</v>
       </c>
+      <c r="D56" s="1">
+        <v>352.35</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F56" s="1">
         <v>65.989999999999995</v>
       </c>
@@ -3135,17 +3154,23 @@
         <f t="shared" si="4"/>
         <v>1210.99</v>
       </c>
+      <c r="M56" s="4">
+        <v>1760</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>403.67</v>
+      </c>
       <c r="S56" s="3">
         <f t="shared" si="12"/>
-        <v>2085.6799999999989</v>
+        <v>-77.990000000001146</v>
       </c>
       <c r="T56" s="4">
         <f t="shared" si="10"/>
-        <v>1239.366666666667</v>
+        <v>-520.63333333333298</v>
       </c>
       <c r="X56" s="11">
         <f t="shared" si="13"/>
-        <v>403.66666666666697</v>
+        <v>-3.3333333330460846E-3</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -3154,6 +3179,41 @@
       </c>
       <c r="C57" s="1">
         <v>1145</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>352.35</v>
+      </c>
+      <c r="F57" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="1"/>
+        <v>381.66666666666669</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>139.44666666666669</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>521.11333333333334</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="4"/>
+        <v>1563.3400000000001</v>
+      </c>
+      <c r="S57" s="3">
+        <f t="shared" si="12"/>
+        <v>964.23666666666566</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="10"/>
+        <v>0.48000000000035925</v>
+      </c>
+      <c r="X57" s="11">
+        <f t="shared" si="13"/>
+        <v>521.11000000000035</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AB458-82FA-4CB6-8D97-B8F7C24FD1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D6415-093B-498C-A2BB-6283ED38E636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,11 +622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomRight" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,9 +3203,12 @@
         <f t="shared" si="4"/>
         <v>1563.3400000000001</v>
       </c>
+      <c r="Q57" s="8">
+        <v>521.11</v>
+      </c>
       <c r="S57" s="3">
         <f t="shared" si="12"/>
-        <v>964.23666666666566</v>
+        <v>443.12666666666564</v>
       </c>
       <c r="T57" s="4">
         <f t="shared" si="10"/>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="X57" s="11">
         <f t="shared" si="13"/>
-        <v>521.11000000000035</v>
+        <v>3.4106051316484809E-13</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B151EF8-B048-42E1-A827-5A177B791C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EDE4F-B39A-47C4-BB0B-2EB717D5FF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -222,14 +222,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -620,10 +620,10 @@
   <dimension ref="A1:BM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59:XFD59"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,14 +837,14 @@
         <v>59.99</v>
       </c>
       <c r="F9" s="1">
-        <f>C9 + D9 + E9</f>
+        <f t="shared" ref="F9:F40" si="0">C9 + D9 + E9</f>
         <v>1265.02</v>
       </c>
       <c r="I9" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J9" s="5">
-        <f>I9*F9</f>
+        <f t="shared" ref="J9:J40" si="1">I9*F9</f>
         <v>421.67333333333329</v>
       </c>
       <c r="K9" s="2">
@@ -861,7 +861,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="U9" s="5">
-        <f>T9*F9</f>
+        <f t="shared" ref="U9:U40" si="2">T9*F9</f>
         <v>421.67333333333329</v>
       </c>
       <c r="V9" s="3">
@@ -876,7 +876,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="Z9" s="5">
-        <f>Y9*F9</f>
+        <f t="shared" ref="Z9:Z18" si="3">Y9*F9</f>
         <v>421.67333333333329</v>
       </c>
       <c r="AA9" s="3">
@@ -901,53 +901,53 @@
         <v>59.99</v>
       </c>
       <c r="F10" s="1">
-        <f>C10 + D10 + E10</f>
+        <f t="shared" si="0"/>
         <v>1273.32</v>
       </c>
       <c r="I10" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J10" s="5">
-        <f>I10*F10</f>
+        <f t="shared" si="1"/>
         <v>424.43999999999994</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:K60" si="0">-F10-O10</f>
+        <f t="shared" ref="K10:K61" si="4">-F10-O10</f>
         <v>-1273.32</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L60" si="1">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
+        <f t="shared" ref="L10:L61" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
         <v>-2.2266666666665742</v>
       </c>
       <c r="M10" s="5"/>
       <c r="T10" s="7">
-        <f t="shared" ref="T10:Y59" si="2">1/3</f>
+        <f t="shared" ref="T10:Y59" si="6">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="U10" s="5">
-        <f>T10*F10</f>
+        <f t="shared" si="2"/>
         <v>424.43999999999994</v>
       </c>
       <c r="V10" s="3">
         <v>424</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10:W60" si="3">W9-U10+V10</f>
+        <f t="shared" ref="W10:W59" si="7">W9-U10+V10</f>
         <v>-2.1133333333332303</v>
       </c>
       <c r="Y10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Z10" s="5">
-        <f>Y10*F10</f>
+        <f t="shared" si="3"/>
         <v>424.43999999999994</v>
       </c>
       <c r="AA10" s="3">
         <v>424</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" ref="AB10:AB60" si="4">AB9-Z10+AA10</f>
+        <f t="shared" ref="AB10:AB18" si="8">AB9-Z10+AA10</f>
         <v>-0.11333333333323026</v>
       </c>
     </row>
@@ -965,50 +965,50 @@
         <v>59.99</v>
       </c>
       <c r="F11" s="1">
-        <f>C11 + D11 + E11</f>
+        <f t="shared" si="0"/>
         <v>1286.94</v>
       </c>
       <c r="I11" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J11" s="5">
-        <f>I11*F11</f>
+        <f t="shared" si="1"/>
         <v>428.98</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1286.94</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-438.51666666666648</v>
       </c>
       <c r="M11" s="5"/>
       <c r="T11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U11" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U11" s="5">
-        <f>T11*F11</f>
         <v>428.98</v>
       </c>
       <c r="W11" s="5">
+        <f t="shared" si="7"/>
+        <v>-431.09333333333325</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z11" s="5">
         <f t="shared" si="3"/>
-        <v>-431.09333333333325</v>
-      </c>
-      <c r="Y11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z11" s="5">
-        <f>Y11*F11</f>
         <v>428.98</v>
       </c>
       <c r="AA11" s="3">
         <v>421.67</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.4233333333332325</v>
       </c>
     </row>
@@ -1026,47 +1026,47 @@
         <v>59.99</v>
       </c>
       <c r="F12" s="1">
-        <f>C12 + D12 + E12</f>
+        <f t="shared" si="0"/>
         <v>1320.8</v>
       </c>
       <c r="I12" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J12" s="5">
-        <f>I12*F12</f>
+        <f t="shared" si="1"/>
         <v>440.26666666666665</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1320.8</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1319.0499999999997</v>
       </c>
       <c r="M12" s="5"/>
       <c r="T12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U12" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U12" s="5">
-        <f>T12*F12</f>
         <v>440.26666666666665</v>
       </c>
       <c r="W12" s="5">
+        <f t="shared" si="7"/>
+        <v>-871.3599999999999</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z12" s="5">
         <f t="shared" si="3"/>
-        <v>-871.3599999999999</v>
-      </c>
-      <c r="Y12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z12" s="5">
-        <f>Y12*F12</f>
         <v>440.26666666666665</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-447.68999999999988</v>
       </c>
     </row>
@@ -1084,53 +1084,53 @@
         <v>59.99</v>
       </c>
       <c r="F13" s="1">
-        <f>C13 + D13 + E13</f>
+        <f t="shared" si="0"/>
         <v>1376.53</v>
       </c>
       <c r="I13" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J13" s="5">
-        <f>I13*F13</f>
+        <f t="shared" si="1"/>
         <v>458.84333333333331</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1376.53</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-532.73666666666668</v>
       </c>
       <c r="M13" s="5"/>
       <c r="T13" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U13" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U13" s="5">
-        <f>T13*F13</f>
         <v>458.84333333333331</v>
       </c>
       <c r="V13" s="3">
         <v>850</v>
       </c>
       <c r="W13" s="5">
+        <f t="shared" si="7"/>
+        <v>-480.20333333333315</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z13" s="5">
         <f t="shared" si="3"/>
-        <v>-480.20333333333315</v>
-      </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z13" s="5">
-        <f>Y13*F13</f>
         <v>458.84333333333331</v>
       </c>
       <c r="AA13" s="3">
         <v>854</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-52.533333333333189</v>
       </c>
     </row>
@@ -1151,47 +1151,47 @@
         <v>59.99</v>
       </c>
       <c r="F14" s="1">
-        <f>C14 + D14 + E14</f>
+        <f t="shared" si="0"/>
         <v>1399.47</v>
       </c>
       <c r="I14" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J14" s="5">
-        <f>I14*F14</f>
+        <f t="shared" si="1"/>
         <v>466.49</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1399.47</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1465.7166666666667</v>
       </c>
       <c r="M14" s="5"/>
       <c r="T14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U14" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U14" s="5">
-        <f>T14*F14</f>
         <v>466.49</v>
       </c>
       <c r="W14" s="5">
+        <f t="shared" si="7"/>
+        <v>-946.69333333333316</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z14" s="5">
         <f t="shared" si="3"/>
-        <v>-946.69333333333316</v>
-      </c>
-      <c r="Y14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z14" s="5">
-        <f>Y14*F14</f>
         <v>466.49</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-519.0233333333332</v>
       </c>
     </row>
@@ -1209,53 +1209,53 @@
         <v>59.99</v>
       </c>
       <c r="F15" s="1">
-        <f>C15 + D15 + E15</f>
+        <f t="shared" si="0"/>
         <v>1184.99</v>
       </c>
       <c r="I15" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J15" s="5">
-        <f>I15*F15</f>
+        <f t="shared" si="1"/>
         <v>394.99666666666667</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1184.99</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-28.600000000000023</v>
       </c>
       <c r="M15" s="5"/>
       <c r="T15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U15" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U15" s="5">
-        <f>T15*F15</f>
         <v>394.99666666666667</v>
       </c>
       <c r="V15" s="3">
         <v>1328</v>
       </c>
       <c r="W15" s="5">
+        <f t="shared" si="7"/>
+        <v>-13.689999999999827</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z15" s="5">
         <f t="shared" si="3"/>
-        <v>-13.689999999999827</v>
-      </c>
-      <c r="Y15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z15" s="5">
-        <f>Y15*F15</f>
         <v>394.99666666666667</v>
       </c>
       <c r="AA15" s="3">
         <v>899.11</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-14.909999999999854</v>
       </c>
     </row>
@@ -1273,53 +1273,53 @@
         <v>59.99</v>
       </c>
       <c r="F16" s="1">
-        <f>C16 + D16 + E16</f>
+        <f t="shared" si="0"/>
         <v>1456.08</v>
       </c>
       <c r="I16" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J16" s="5">
-        <f>I16*F16</f>
+        <f t="shared" si="1"/>
         <v>485.35999999999996</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1456.08</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-66.319999999999936</v>
       </c>
       <c r="M16" s="5"/>
       <c r="T16" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U16" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U16" s="5">
-        <f>T16*F16</f>
         <v>485.35999999999996</v>
       </c>
       <c r="V16" s="3">
         <v>466.5</v>
       </c>
       <c r="W16" s="5">
+        <f t="shared" si="7"/>
+        <v>-32.549999999999784</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z16" s="5">
         <f t="shared" si="3"/>
-        <v>-32.549999999999784</v>
-      </c>
-      <c r="Y16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z16" s="5">
-        <f>Y16*F16</f>
         <v>485.35999999999996</v>
       </c>
       <c r="AA16" s="3">
         <v>466.5</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-33.769999999999811</v>
       </c>
     </row>
@@ -1337,47 +1337,47 @@
         <v>59.99</v>
       </c>
       <c r="F17" s="1">
-        <f>C17 + D17 + E17</f>
+        <f t="shared" si="0"/>
         <v>1301.1099999999999</v>
       </c>
       <c r="I17" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J17" s="5">
-        <f>I17*F17</f>
+        <f t="shared" si="1"/>
         <v>433.70333333333326</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1301.1099999999999</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-933.72666666666657</v>
       </c>
       <c r="M17" s="5"/>
       <c r="T17" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U17" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U17" s="5">
-        <f>T17*F17</f>
         <v>433.70333333333326</v>
       </c>
       <c r="W17" s="5">
+        <f t="shared" si="7"/>
+        <v>-466.25333333333305</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z17" s="5">
         <f t="shared" si="3"/>
-        <v>-466.25333333333305</v>
-      </c>
-      <c r="Y17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z17" s="5">
-        <f>Y17*F17</f>
         <v>433.70333333333326</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-467.47333333333307</v>
       </c>
     </row>
@@ -1395,50 +1395,50 @@
         <v>59.99</v>
       </c>
       <c r="F18" s="1">
-        <f>C18 + D18 + E18</f>
+        <f t="shared" si="0"/>
         <v>1291.95</v>
       </c>
       <c r="I18" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J18" s="5">
-        <f>I18*F18</f>
+        <f t="shared" si="1"/>
         <v>430.65</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1291.95</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-914.66666666666663</v>
       </c>
       <c r="M18" s="5"/>
       <c r="T18" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U18" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U18" s="5">
-        <f>T18*F18</f>
         <v>430.65</v>
       </c>
       <c r="W18" s="5">
+        <f t="shared" si="7"/>
+        <v>-896.90333333333297</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z18" s="5">
         <f t="shared" si="3"/>
-        <v>-896.90333333333297</v>
-      </c>
-      <c r="Y18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>Y18*F18</f>
         <v>430.65</v>
       </c>
       <c r="AA18" s="3">
         <v>880.36</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-17.76333333333298</v>
       </c>
     </row>
@@ -1456,35 +1456,35 @@
         <v>59.99</v>
       </c>
       <c r="F19" s="1">
-        <f>C19 + D19 + E19</f>
+        <f t="shared" si="0"/>
         <v>1256.99</v>
       </c>
       <c r="I19" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J19" s="5">
-        <f>I19*F19</f>
+        <f t="shared" si="1"/>
         <v>418.99666666666667</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1256.99</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1752.66</v>
       </c>
       <c r="M19" s="5"/>
       <c r="T19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U19" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U19" s="5">
-        <f>T19*F19</f>
         <v>418.99666666666667</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1315.8999999999996</v>
       </c>
       <c r="AD19" s="7">
@@ -1492,7 +1492,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AE19" s="5">
-        <f>AD19*F19</f>
+        <f t="shared" ref="AE19:AE34" si="9">AD19*F19</f>
         <v>418.99666666666667</v>
       </c>
       <c r="AG19" s="5">
@@ -1514,53 +1514,53 @@
         <v>59.99</v>
       </c>
       <c r="F20" s="1">
-        <f>C20 + D20 + E20</f>
+        <f t="shared" si="0"/>
         <v>1257.3599999999999</v>
       </c>
       <c r="I20" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J20" s="5">
-        <f>I20*F20</f>
+        <f t="shared" si="1"/>
         <v>419.11999999999995</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1257.3599999999999</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-402.48000000000013</v>
       </c>
       <c r="M20" s="5"/>
       <c r="T20" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U20" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U20" s="5">
-        <f>T20*F20</f>
         <v>419.11999999999995</v>
       </c>
       <c r="V20" s="3">
         <v>1324.06</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-410.95999999999958</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" ref="AD20:AI34" si="5">1/3</f>
+        <f t="shared" ref="AD20:AI34" si="10">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE20" s="5">
-        <f>AD20*F20</f>
+        <f t="shared" si="9"/>
         <v>419.11999999999995</v>
       </c>
       <c r="AF20" s="3">
         <v>864.36</v>
       </c>
       <c r="AG20" s="5">
-        <f t="shared" ref="AG20:AG60" si="6">AG19-AE20+AF20</f>
+        <f t="shared" ref="AG20:AG34" si="11">AG19-AE20+AF20</f>
         <v>26.243333333333453</v>
       </c>
     </row>
@@ -1578,47 +1578,47 @@
         <v>59.99</v>
       </c>
       <c r="F21" s="1">
-        <f>C21 + D21 + E21</f>
+        <f t="shared" si="0"/>
         <v>1256.69</v>
       </c>
       <c r="I21" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J21" s="5">
-        <f>I21*F21</f>
+        <f t="shared" si="1"/>
         <v>418.89666666666665</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1256.69</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1240.2733333333335</v>
       </c>
       <c r="M21" s="5"/>
       <c r="T21" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U21" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U21" s="5">
-        <f>T21*F21</f>
         <v>418.89666666666665</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-829.85666666666623</v>
       </c>
       <c r="AD21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE21" s="5">
-        <f>AD21*F21</f>
+        <f t="shared" si="9"/>
         <v>418.89666666666665</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-392.65333333333319</v>
       </c>
     </row>
@@ -1636,53 +1636,53 @@
         <v>59.99</v>
       </c>
       <c r="F22" s="1">
-        <f>C22 + D22 + E22</f>
+        <f t="shared" si="0"/>
         <v>1284.24</v>
       </c>
       <c r="I22" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J22" s="5">
-        <f>I22*F22</f>
+        <f t="shared" si="1"/>
         <v>428.08</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1284.24</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>348.35666666666657</v>
       </c>
       <c r="M22" s="5"/>
       <c r="T22" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U22" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U22" s="5">
-        <f>T22*F22</f>
         <v>428.08</v>
       </c>
       <c r="V22" s="3">
         <v>1600</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>342.06333333333373</v>
       </c>
       <c r="AD22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE22" s="5">
-        <f>AD22*F22</f>
+        <f t="shared" si="9"/>
         <v>428.08</v>
       </c>
       <c r="AF22" s="3">
         <v>844.79</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24.056666666666843</v>
       </c>
     </row>
@@ -1700,47 +1700,47 @@
         <v>59.99</v>
       </c>
       <c r="F23" s="1">
-        <f>C23 + D23 + E23</f>
+        <f t="shared" si="0"/>
         <v>1340.02</v>
       </c>
       <c r="I23" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J23" s="5">
-        <f>I23*F23</f>
+        <f t="shared" si="1"/>
         <v>446.67333333333329</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1340.02</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-544.99000000000012</v>
       </c>
       <c r="M23" s="5"/>
       <c r="T23" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U23" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U23" s="5">
-        <f>T23*F23</f>
         <v>446.67333333333329</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-104.60999999999956</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE23" s="5">
-        <f>AD23*F23</f>
+        <f t="shared" si="9"/>
         <v>446.67333333333329</v>
       </c>
       <c r="AG23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-422.61666666666645</v>
       </c>
     </row>
@@ -1758,50 +1758,50 @@
         <v>59.99</v>
       </c>
       <c r="F24" s="1">
-        <f>C24 + D24 + E24</f>
+        <f t="shared" si="0"/>
         <v>1363.98</v>
       </c>
       <c r="I24" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J24" s="5">
-        <f>I24*F24</f>
+        <f t="shared" si="1"/>
         <v>454.65999999999997</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1363.98</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-543.3100000000004</v>
       </c>
       <c r="M24" s="5"/>
       <c r="T24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U24" s="5">
-        <f>T24*F24</f>
         <v>454.65999999999997</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-559.26999999999953</v>
       </c>
       <c r="AD24" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE24" s="5">
-        <f>AD24*F24</f>
+        <f t="shared" si="9"/>
         <v>454.65999999999997</v>
       </c>
       <c r="AF24" s="3">
         <v>911</v>
       </c>
       <c r="AG24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>33.723333333333585</v>
       </c>
     </row>
@@ -1819,47 +1819,47 @@
         <v>59.99</v>
       </c>
       <c r="F25" s="1">
-        <f>C25 + D25 + E25</f>
+        <f t="shared" si="0"/>
         <v>1355.1299999999999</v>
       </c>
       <c r="I25" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J25" s="5">
-        <f>I25*F25</f>
+        <f t="shared" si="1"/>
         <v>451.70999999999992</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1355.1299999999999</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1446.7300000000005</v>
       </c>
       <c r="M25" s="5"/>
       <c r="T25" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U25" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U25" s="5">
-        <f>T25*F25</f>
         <v>451.70999999999992</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1010.9799999999994</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE25" s="5">
-        <f>AD25*F25</f>
+        <f t="shared" si="9"/>
         <v>451.70999999999992</v>
       </c>
       <c r="AG25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-417.98666666666634</v>
       </c>
     </row>
@@ -1880,50 +1880,50 @@
         <v>59.99</v>
       </c>
       <c r="F26" s="1">
-        <f>C26 + D26 + E26</f>
+        <f t="shared" si="0"/>
         <v>1362.98</v>
       </c>
       <c r="I26" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J26" s="5">
-        <f>I26*F26</f>
+        <f t="shared" si="1"/>
         <v>454.32666666666665</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1362.98</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1255.3833333333337</v>
       </c>
       <c r="M26" s="5"/>
       <c r="T26" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U26" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U26" s="5">
-        <f>T26*F26</f>
         <v>454.32666666666665</v>
       </c>
       <c r="V26" s="3">
         <v>1100</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-365.30666666666616</v>
       </c>
       <c r="AD26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE26" s="5">
-        <f>AD26*F26</f>
+        <f t="shared" si="9"/>
         <v>454.32666666666665</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-872.31333333333305</v>
       </c>
     </row>
@@ -1941,50 +1941,50 @@
         <v>59.99</v>
       </c>
       <c r="F27" s="1">
-        <f>C27 + D27 + E27</f>
+        <f t="shared" si="0"/>
         <v>1382.53</v>
       </c>
       <c r="I27" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J27" s="5">
-        <f>I27*F27</f>
+        <f t="shared" si="1"/>
         <v>460.84333333333331</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1382.53</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1677.0700000000006</v>
       </c>
       <c r="M27" s="5"/>
       <c r="T27" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U27" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U27" s="5">
-        <f>T27*F27</f>
         <v>460.84333333333331</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-826.14999999999941</v>
       </c>
       <c r="AD27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE27" s="5">
-        <f>AD27*F27</f>
+        <f t="shared" si="9"/>
         <v>460.84333333333331</v>
       </c>
       <c r="AF27" s="3">
         <v>500</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-833.1566666666663</v>
       </c>
     </row>
@@ -2002,53 +2002,53 @@
         <v>59.99</v>
       </c>
       <c r="F28" s="1">
-        <f>C28 + D28 + E28</f>
+        <f t="shared" si="0"/>
         <v>1369.29</v>
       </c>
       <c r="I28" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J28" s="5">
-        <f>I28*F28</f>
+        <f t="shared" si="1"/>
         <v>456.42999999999995</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1369.29</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>380.06999999999925</v>
       </c>
       <c r="M28" s="5"/>
       <c r="T28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U28" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U28" s="5">
-        <f>T28*F28</f>
         <v>456.42999999999995</v>
       </c>
       <c r="V28" s="3">
         <v>1800</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>517.42000000000053</v>
       </c>
       <c r="AD28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE28" s="5">
-        <f>AD28*F28</f>
+        <f t="shared" si="9"/>
         <v>456.42999999999995</v>
       </c>
       <c r="AF28" s="3">
         <v>1170</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-119.58666666666613</v>
       </c>
     </row>
@@ -2066,47 +2066,47 @@
         <v>59.99</v>
       </c>
       <c r="F29" s="1">
-        <f>C29 + D29 + E29</f>
+        <f t="shared" si="0"/>
         <v>1334.43</v>
       </c>
       <c r="I29" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J29" s="5">
-        <f>I29*F29</f>
+        <f t="shared" si="1"/>
         <v>444.81</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1334.43</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-509.55000000000081</v>
       </c>
       <c r="M29" s="5"/>
       <c r="T29" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U29" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U29" s="5">
-        <f>T29*F29</f>
         <v>444.81</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>72.610000000000525</v>
       </c>
       <c r="AD29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE29" s="5">
-        <f>AD29*F29</f>
+        <f t="shared" si="9"/>
         <v>444.81</v>
       </c>
       <c r="AG29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-564.39666666666608</v>
       </c>
     </row>
@@ -2124,50 +2124,50 @@
         <v>59.99</v>
       </c>
       <c r="F30" s="1">
-        <f>C30 + D30 + E30</f>
+        <f t="shared" si="0"/>
         <v>1307.1600000000001</v>
       </c>
       <c r="I30" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J30" s="5">
-        <f>I30*F30</f>
+        <f t="shared" si="1"/>
         <v>435.72</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1307.1600000000001</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-380.99000000000092</v>
       </c>
       <c r="M30" s="5"/>
       <c r="T30" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U30" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U30" s="5">
-        <f>T30*F30</f>
         <v>435.72</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-363.1099999999995</v>
       </c>
       <c r="AD30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE30" s="5">
-        <f>AD30*F30</f>
+        <f t="shared" si="9"/>
         <v>435.72</v>
       </c>
       <c r="AF30" s="3">
         <v>1000</v>
       </c>
       <c r="AG30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.11666666666610581</v>
       </c>
       <c r="BJ30" s="3"/>
@@ -2186,22 +2186,22 @@
         <v>59.99</v>
       </c>
       <c r="F31" s="1">
-        <f>C31 + D31 + E31</f>
+        <f t="shared" si="0"/>
         <v>1280.0899999999999</v>
       </c>
       <c r="I31" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J31" s="5">
-        <f>I31*F31</f>
+        <f t="shared" si="1"/>
         <v>426.6966666666666</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1280.0899999999999</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-344.76333333333417</v>
       </c>
       <c r="M31" s="5"/>
@@ -2209,30 +2209,30 @@
         <v>0</v>
       </c>
       <c r="U31" s="5">
-        <f>T31*F31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-363.1099999999995</v>
       </c>
       <c r="AD31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE31" s="5">
-        <f>AD31*F31</f>
+        <f t="shared" si="9"/>
         <v>426.6966666666666</v>
       </c>
       <c r="AF31" s="3">
         <v>444.81</v>
       </c>
       <c r="AG31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>17.996666666667295</v>
       </c>
       <c r="AI31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ31" s="5">
@@ -2262,22 +2262,22 @@
         <v>59.99</v>
       </c>
       <c r="F32" s="1">
-        <f>C32 + D32 + E32</f>
+        <f t="shared" si="0"/>
         <v>1299.56</v>
       </c>
       <c r="I32" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J32" s="5">
-        <f>I32*F32</f>
+        <f t="shared" si="1"/>
         <v>433.18666666666661</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1299.56</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-338.13666666666768</v>
       </c>
       <c r="M32" s="5"/>
@@ -2285,30 +2285,30 @@
         <v>0</v>
       </c>
       <c r="U32" s="5">
-        <f>T32*F32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-363.1099999999995</v>
       </c>
       <c r="AD32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE32" s="5">
-        <f>AD32*F32</f>
+        <f t="shared" si="9"/>
         <v>433.18666666666661</v>
       </c>
       <c r="AF32" s="3">
         <v>433</v>
       </c>
       <c r="AG32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>17.810000000000684</v>
       </c>
       <c r="AI32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ32" s="5">
@@ -2319,7 +2319,7 @@
         <v>440</v>
       </c>
       <c r="AL32" s="5">
-        <f t="shared" ref="AL32:AL60" si="7">AL31-AJ32+AK32</f>
+        <f t="shared" ref="AL32:AL34" si="12">AL31-AJ32+AK32</f>
         <v>24.92666666666679</v>
       </c>
       <c r="BJ32" s="3"/>
@@ -2338,22 +2338,22 @@
         <v>59.99</v>
       </c>
       <c r="F33" s="1">
-        <f>C33 + D33 + E33</f>
+        <f t="shared" si="0"/>
         <v>1284.49</v>
       </c>
       <c r="I33" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J33" s="5">
-        <f>I33*F33</f>
+        <f t="shared" si="1"/>
         <v>428.1633333333333</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1284.49</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-334.4633333333345</v>
       </c>
       <c r="M33" s="5"/>
@@ -2361,30 +2361,30 @@
         <v>0</v>
       </c>
       <c r="U33" s="5">
-        <f>T33*F33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-363.1099999999995</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE33" s="5">
-        <f>AD33*F33</f>
+        <f t="shared" si="9"/>
         <v>428.1633333333333</v>
       </c>
       <c r="AF33" s="3">
         <v>440</v>
       </c>
       <c r="AG33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.646666666667386</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ33" s="5">
@@ -2395,7 +2395,7 @@
         <v>420</v>
       </c>
       <c r="AL33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16.763333333333492</v>
       </c>
       <c r="BJ33" s="3"/>
@@ -2414,22 +2414,22 @@
         <v>59.99</v>
       </c>
       <c r="F34" s="1">
-        <f>C34 + D34 + E34</f>
+        <f t="shared" si="0"/>
         <v>1293.8599999999999</v>
       </c>
       <c r="I34" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J34" s="5">
-        <f>I34*F34</f>
+        <f t="shared" si="1"/>
         <v>431.28666666666663</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1293.8599999999999</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-357.03666666666777</v>
       </c>
       <c r="M34" s="5"/>
@@ -2437,30 +2437,30 @@
         <v>0</v>
       </c>
       <c r="U34" s="5">
-        <f>T34*F34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-363.1099999999995</v>
       </c>
       <c r="AD34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AE34" s="5">
-        <f>AD34*F34</f>
+        <f t="shared" si="9"/>
         <v>431.28666666666663</v>
       </c>
       <c r="AF34" s="3">
         <v>420</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.360000000000753</v>
       </c>
       <c r="AI34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ34" s="5">
@@ -2471,7 +2471,7 @@
         <v>420</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.4766666666668584</v>
       </c>
       <c r="BJ34" s="3"/>
@@ -2490,7 +2490,7 @@
         <v>59.99</v>
       </c>
       <c r="F35" s="1">
-        <f>C35 + D35 + E35</f>
+        <f t="shared" si="0"/>
         <v>1309.94</v>
       </c>
       <c r="I35" s="8">
@@ -2498,15 +2498,15 @@
         <v>0.5</v>
       </c>
       <c r="J35" s="5">
-        <f>I35*F35</f>
+        <f t="shared" si="1"/>
         <v>654.97</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1309.94</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1012.0066666666678</v>
       </c>
       <c r="M35" s="5"/>
@@ -2515,11 +2515,11 @@
         <v>0.5</v>
       </c>
       <c r="U35" s="5">
-        <f>T35*F35</f>
+        <f t="shared" si="2"/>
         <v>654.97</v>
       </c>
       <c r="W35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1018.0799999999995</v>
       </c>
       <c r="AG35" s="5"/>
@@ -2539,31 +2539,31 @@
         <v>59.99</v>
       </c>
       <c r="F36" s="1">
-        <f>C36 + D36 + E36</f>
+        <f t="shared" si="0"/>
         <v>1335.51</v>
       </c>
       <c r="I36" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J36" s="5">
-        <f>I36*F36</f>
+        <f t="shared" si="1"/>
         <v>445.16999999999996</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1335.51</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2279.3233333333324</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="7">
-        <f t="shared" ref="N36:N59" si="8">1/3</f>
+        <f t="shared" ref="N36:N59" si="13">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="P36" s="5">
-        <f>N36*F36 + O36</f>
+        <f t="shared" ref="P36:P61" si="14">N36*F36 + O36</f>
         <v>445.16999999999996</v>
       </c>
       <c r="Q36" s="10">
@@ -2575,18 +2575,18 @@
         <v>-63.499999999999943</v>
       </c>
       <c r="T36" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U36" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U36" s="5">
-        <f>T36*F36</f>
         <v>445.16999999999996</v>
       </c>
       <c r="V36" s="3">
         <v>3800</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2336.7500000000005</v>
       </c>
       <c r="AG36" s="5"/>
@@ -2607,31 +2607,31 @@
         <v>59.99</v>
       </c>
       <c r="F37" s="1">
-        <f>C37 + D37 + E37</f>
+        <f t="shared" si="0"/>
         <v>1332.99</v>
       </c>
       <c r="I37" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J37" s="5">
-        <f>I37*F37</f>
+        <f t="shared" si="1"/>
         <v>444.33</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1332.99</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1876.9233333333323</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P37" s="5">
-        <f>N37*F37 + O37</f>
+        <f t="shared" si="14"/>
         <v>444.33</v>
       </c>
       <c r="Q37" s="10">
@@ -2639,19 +2639,19 @@
         <v>486.26</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37:R60" si="9">R36-P37+Q37</f>
+        <f t="shared" ref="R37:R61" si="15">R36-P37+Q37</f>
         <v>-21.569999999999936</v>
       </c>
       <c r="T37" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U37" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U37" s="5">
-        <f>T37*F37</f>
         <v>444.33</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1892.4200000000005</v>
       </c>
       <c r="AG37" s="5"/>
@@ -2674,31 +2674,31 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F38" s="1">
-        <f>C38 + D38 + E38</f>
+        <f t="shared" si="0"/>
         <v>1372.31</v>
       </c>
       <c r="I38" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J38" s="5">
-        <f>I38*F38</f>
+        <f t="shared" si="1"/>
         <v>457.43666666666661</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1372.31</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1407.2199999999989</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P38" s="5">
-        <f>N38*F38 + O38</f>
+        <f t="shared" si="14"/>
         <v>457.43666666666661</v>
       </c>
       <c r="Q38" s="10">
@@ -2706,19 +2706,19 @@
         <v>445.17</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-33.836666666666531</v>
       </c>
       <c r="T38" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U38" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U38" s="5">
-        <f>T38*F38</f>
         <v>457.43666666666661</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1434.983333333334</v>
       </c>
       <c r="AG38" s="5"/>
@@ -2738,31 +2738,31 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F39" s="1">
-        <f>C39 + D39 + E39</f>
+        <f t="shared" si="0"/>
         <v>1405.77</v>
       </c>
       <c r="I39" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J39" s="5">
-        <f>I39*F39</f>
+        <f t="shared" si="1"/>
         <v>468.59</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1405.77</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>914.36999999999898</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P39" s="5">
-        <f>N39*F39 + O39</f>
+        <f t="shared" si="14"/>
         <v>468.59</v>
       </c>
       <c r="Q39" s="10">
@@ -2770,19 +2770,19 @@
         <v>444.33000000000004</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-58.096666666666465</v>
       </c>
       <c r="T39" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U39" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U39" s="5">
-        <f>T39*F39</f>
         <v>468.59</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>966.39333333333411</v>
       </c>
       <c r="AG39" s="5"/>
@@ -2802,31 +2802,31 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F40" s="1">
-        <f>C40 + D40 + E40</f>
+        <f t="shared" si="0"/>
         <v>1358.06</v>
       </c>
       <c r="I40" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J40" s="5">
-        <f>I40*F40</f>
+        <f t="shared" si="1"/>
         <v>452.68666666666661</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1358.06</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>494.43666666666564</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P40" s="5">
-        <f>N40*F40 + O40</f>
+        <f t="shared" si="14"/>
         <v>452.68666666666661</v>
       </c>
       <c r="Q40" s="10">
@@ -2834,19 +2834,19 @@
         <v>485.44</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-25.343333333333078</v>
       </c>
       <c r="T40" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U40" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U40" s="5">
-        <f>T40*F40</f>
         <v>452.68666666666661</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>513.7066666666675</v>
       </c>
       <c r="AG40" s="5"/>
@@ -2866,50 +2866,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F41" s="1">
-        <f>C41 + D41 + E41</f>
+        <f t="shared" ref="F41:F61" si="16">C41 + D41 + E41</f>
         <v>1347.29</v>
       </c>
       <c r="I41" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J41" s="5">
-        <f>I41*F41</f>
+        <f t="shared" ref="J41:J61" si="17">I41*F41</f>
         <v>449.09666666666664</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1347.29</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-303.75666666666774</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P41" s="5">
-        <f>N41*F41 + O41</f>
+        <f t="shared" si="14"/>
         <v>449.09666666666664</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-474.43999999999971</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U41" s="5">
-        <f>T41*F41</f>
+        <f t="shared" ref="U41:U59" si="18">T41*F41</f>
         <v>449.09666666666664</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>164.61000000000087</v>
       </c>
       <c r="AG41" s="5"/>
@@ -2929,34 +2929,34 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F42" s="1">
-        <f>C42 + D42 + E42</f>
+        <f t="shared" si="16"/>
         <v>1343.1200000000001</v>
       </c>
       <c r="I42" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J42" s="5">
-        <f>I42*F42</f>
+        <f t="shared" si="17"/>
         <v>447.70666666666671</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1358.1200000000001</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-286.89000000000124</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O42" s="1">
         <v>15</v>
       </c>
       <c r="P42" s="5">
-        <f>N42*F42 + O42</f>
+        <f t="shared" si="14"/>
         <v>462.70666666666671</v>
       </c>
       <c r="Q42" s="10">
@@ -2964,19 +2964,19 @@
         <v>927.28</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-9.8666666666664469</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U42" s="5">
-        <f>T42*F42</f>
+        <f t="shared" si="18"/>
         <v>447.70666666666671</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-283.09666666666584</v>
       </c>
       <c r="AG42" s="5"/>
@@ -2996,34 +2996,34 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F43" s="1">
-        <f>C43 + D43 + E43</f>
+        <f t="shared" si="16"/>
         <v>1300.3900000000001</v>
       </c>
       <c r="I43" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J43" s="5">
-        <f>I43*F43</f>
+        <f t="shared" si="17"/>
         <v>433.46333333333337</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1315.39</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1034.2833333333319</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O43" s="1">
         <v>15</v>
       </c>
       <c r="P43" s="5">
-        <f>N43*F43 + O43</f>
+        <f t="shared" si="14"/>
         <v>448.46333333333337</v>
       </c>
       <c r="Q43" s="10">
@@ -3031,22 +3031,22 @@
         <v>449.1</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-9.2299999999997908</v>
       </c>
       <c r="T43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U43" s="5">
-        <f>T43*F43</f>
+        <f t="shared" si="18"/>
         <v>433.46333333333337</v>
       </c>
       <c r="V43" s="3">
         <v>1754</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1037.4400000000007</v>
       </c>
       <c r="AG43" s="5"/>
@@ -3066,53 +3066,53 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F44" s="1">
-        <f>C44 + D44 + E44</f>
+        <f t="shared" si="16"/>
         <v>1279.33</v>
       </c>
       <c r="I44" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J44" s="5">
-        <f>I44*F44</f>
+        <f t="shared" si="17"/>
         <v>426.44333333333327</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1294.33</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>548.06666666666524</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O44" s="1">
         <v>15</v>
       </c>
       <c r="P44" s="5">
-        <f>N44*F44 + O44</f>
+        <f t="shared" si="14"/>
         <v>441.44333333333327</v>
       </c>
       <c r="Q44" s="10">
         <v>381.67</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-69.003333333333046</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U44" s="5">
-        <f>T44*F44</f>
+        <f t="shared" si="18"/>
         <v>426.44333333333327</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>610.99666666666747</v>
       </c>
       <c r="AG44" s="5"/>
@@ -3132,50 +3132,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F45" s="1">
-        <f>C45 + D45 + E45</f>
+        <f t="shared" si="16"/>
         <v>1274.5899999999999</v>
       </c>
       <c r="I45" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J45" s="5">
-        <f>I45*F45</f>
+        <f t="shared" si="17"/>
         <v>424.86333333333329</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1289.5899999999999</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-316.66000000000139</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O45" s="1">
         <v>15</v>
       </c>
       <c r="P45" s="5">
-        <f>N45*F45 + O45</f>
+        <f t="shared" si="14"/>
         <v>439.86333333333329</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-508.86666666666633</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U45" s="5">
-        <f>T45*F45</f>
+        <f t="shared" si="18"/>
         <v>424.86333333333329</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>186.13333333333418</v>
       </c>
       <c r="AG45" s="5"/>
@@ -3195,50 +3195,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F46" s="1">
-        <f>C46 + D46 + E46</f>
+        <f t="shared" si="16"/>
         <v>1256.5899999999999</v>
       </c>
       <c r="I46" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J46" s="5">
-        <f>I46*F46</f>
+        <f t="shared" si="17"/>
         <v>418.86333333333329</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1271.5899999999999</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1169.3866666666681</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O46" s="1">
         <v>15</v>
       </c>
       <c r="P46" s="5">
-        <f>N46*F46 + O46</f>
+        <f t="shared" si="14"/>
         <v>433.86333333333329</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-942.72999999999956</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U46" s="5">
-        <f>T46*F46</f>
+        <f t="shared" si="18"/>
         <v>418.86333333333329</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-232.72999999999911</v>
       </c>
       <c r="AG46" s="5"/>
@@ -3258,50 +3258,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F47" s="1">
-        <f>C47 + D47 + E47</f>
+        <f t="shared" si="16"/>
         <v>1358.66</v>
       </c>
       <c r="I47" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J47" s="5">
-        <f>I47*F47</f>
+        <f t="shared" si="17"/>
         <v>452.88666666666666</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1358.66</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-685.36000000000126</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P47" s="5">
-        <f>N47*F47 + O47</f>
+        <f t="shared" si="14"/>
         <v>452.88666666666666</v>
       </c>
       <c r="Q47" s="10">
         <v>1389.8</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-5.8166666666663787</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U47" s="5">
-        <f>T47*F47</f>
+        <f t="shared" si="18"/>
         <v>452.88666666666666</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-685.61666666666576</v>
       </c>
       <c r="AG47" s="5"/>
@@ -3321,50 +3321,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F48" s="1">
-        <f>C48 + D48 + E48</f>
+        <f t="shared" si="16"/>
         <v>1360.66</v>
       </c>
       <c r="I48" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J48" s="5">
-        <f>I48*F48</f>
+        <f t="shared" si="17"/>
         <v>453.55333333333334</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1360.66</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1167.6066666666679</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P48" s="5">
-        <f>N48*F48 + O48</f>
+        <f t="shared" si="14"/>
         <v>453.55333333333334</v>
       </c>
       <c r="Q48" s="10">
         <v>424.86</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-34.509999999999707</v>
       </c>
       <c r="T48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U48" s="5">
-        <f>T48*F48</f>
+        <f t="shared" si="18"/>
         <v>453.55333333333334</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1139.1699999999992</v>
       </c>
       <c r="AG48" s="5"/>
@@ -3384,50 +3384,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F49" s="1">
-        <f>C49 + D49 + E49</f>
+        <f t="shared" si="16"/>
         <v>1372.91</v>
       </c>
       <c r="I49" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J49" s="5">
-        <f>I49*F49</f>
+        <f t="shared" si="17"/>
         <v>457.63666666666666</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1372.91</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1083.1199999999985</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P49" s="5">
-        <f>N49*F49 + O49</f>
+        <f t="shared" si="14"/>
         <v>457.63666666666666</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-492.14666666666636</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U49" s="5">
-        <f>T49*F49</f>
+        <f t="shared" si="18"/>
         <v>457.63666666666666</v>
       </c>
       <c r="V49" s="3">
         <v>3166</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1569.1933333333341</v>
       </c>
       <c r="AG49" s="5"/>
@@ -3450,50 +3450,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F50" s="1">
-        <f>C50 + D50 + E50</f>
+        <f t="shared" si="16"/>
         <v>1364.18</v>
       </c>
       <c r="I50" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J50" s="5">
-        <f>I50*F50</f>
+        <f t="shared" si="17"/>
         <v>454.72666666666669</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1364.18</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1080.1066666666652</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P50" s="5">
-        <f>N50*F50 + O50</f>
+        <f t="shared" si="14"/>
         <v>454.72666666666669</v>
       </c>
       <c r="Q50" s="10">
         <v>906.44</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-40.433333333332939</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U50" s="5">
-        <f>T50*F50</f>
+        <f t="shared" si="18"/>
         <v>454.72666666666669</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1114.4666666666674</v>
       </c>
       <c r="AG50" s="5"/>
@@ -3513,50 +3513,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F51" s="1">
-        <f>C51 + D51 + E51</f>
+        <f t="shared" si="16"/>
         <v>1375.79</v>
       </c>
       <c r="I51" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J51" s="5">
-        <f>I51*F51</f>
+        <f t="shared" si="17"/>
         <v>458.59666666666664</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1375.79</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>620.55333333333192</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P51" s="5">
-        <f>N51*F51 + O51</f>
+        <f t="shared" si="14"/>
         <v>458.59666666666664</v>
       </c>
       <c r="Q51" s="10">
         <v>457.64</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-41.389999999999588</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U51" s="5">
-        <f>T51*F51</f>
+        <f t="shared" si="18"/>
         <v>458.59666666666664</v>
       </c>
       <c r="W51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>655.8700000000008</v>
       </c>
       <c r="AG51" s="5"/>
@@ -3576,50 +3576,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F52" s="1">
-        <f>C52 + D52 + E52</f>
+        <f t="shared" si="16"/>
         <v>1393.16</v>
       </c>
       <c r="I52" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J52" s="5">
-        <f>I52*F52</f>
+        <f t="shared" si="17"/>
         <v>464.38666666666666</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1393.16</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>146.50999999999851</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P52" s="5">
-        <f>N52*F52 + O52</f>
+        <f t="shared" si="14"/>
         <v>464.38666666666666</v>
       </c>
       <c r="Q52" s="10">
         <v>454.73</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-51.046666666666226</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U52" s="5">
-        <f>T52*F52</f>
+        <f t="shared" si="18"/>
         <v>464.38666666666666</v>
       </c>
       <c r="W52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>191.48333333333414</v>
       </c>
       <c r="AG52" s="5"/>
@@ -3639,50 +3639,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F53" s="1">
-        <f>C53 + D53 + E53</f>
+        <f t="shared" si="16"/>
         <v>1210.99</v>
       </c>
       <c r="I53" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J53" s="5">
-        <f>I53*F53</f>
+        <f t="shared" si="17"/>
         <v>403.6633333333333</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1210.99</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-202.22666666666811</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P53" s="5">
-        <f>N53*F53 + O53</f>
+        <f t="shared" si="14"/>
         <v>403.6633333333333</v>
       </c>
       <c r="Q53" s="10">
         <v>458.59</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.8800000000004502</v>
       </c>
       <c r="T53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U53" s="5">
-        <f>T53*F53</f>
+        <f t="shared" si="18"/>
         <v>403.6633333333333</v>
       </c>
       <c r="W53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-212.17999999999915</v>
       </c>
       <c r="AG53" s="5"/>
@@ -3702,50 +3702,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F54" s="1">
-        <f>C54 + D54 + E54</f>
+        <f t="shared" si="16"/>
         <v>1210.99</v>
       </c>
       <c r="I54" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J54" s="5">
-        <f>I54*F54</f>
+        <f t="shared" si="17"/>
         <v>403.6633333333333</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1210.99</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-545.16333333333478</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P54" s="5">
-        <f>N54*F54 + O54</f>
+        <f t="shared" si="14"/>
         <v>403.6633333333333</v>
       </c>
       <c r="Q54" s="10">
         <v>464.39</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>64.606666666667138</v>
       </c>
       <c r="T54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U54" s="5">
-        <f>T54*F54</f>
+        <f t="shared" si="18"/>
         <v>403.6633333333333</v>
       </c>
       <c r="W54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-615.84333333333245</v>
       </c>
       <c r="AG54" s="5"/>
@@ -3765,50 +3765,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F55" s="1">
-        <f>C55 + D55 + E55</f>
+        <f t="shared" si="16"/>
         <v>1563.34</v>
       </c>
       <c r="I55" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J55" s="5">
-        <f>I55*F55</f>
+        <f t="shared" si="17"/>
         <v>521.11333333333323</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1563.34</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1183.7300000000016</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P55" s="5">
-        <f>N55*F55 + O55</f>
+        <f t="shared" si="14"/>
         <v>521.11333333333323</v>
       </c>
       <c r="Q55" s="10">
         <v>403.66</v>
       </c>
       <c r="R55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-52.846666666666067</v>
       </c>
       <c r="T55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U55" s="5">
-        <f>T55*F55</f>
+        <f t="shared" si="18"/>
         <v>521.11333333333323</v>
       </c>
       <c r="W55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1136.9566666666656</v>
       </c>
       <c r="AG55" s="5"/>
@@ -3828,53 +3828,53 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F56" s="1">
-        <f>C56 + D56 + E56</f>
+        <f t="shared" si="16"/>
         <v>1319.31</v>
       </c>
       <c r="I56" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J56" s="5">
-        <f>I56*F56</f>
+        <f t="shared" si="17"/>
         <v>439.77</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1319.31</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100.39999999999827</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P56" s="5">
-        <f>N56*F56 + O56</f>
+        <f t="shared" si="14"/>
         <v>439.77</v>
       </c>
       <c r="Q56" s="10">
         <v>403.67</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-88.946666666666033</v>
       </c>
       <c r="T56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U56" s="5">
-        <f>T56*F56</f>
+        <f t="shared" si="18"/>
         <v>439.77</v>
       </c>
       <c r="V56" s="3">
         <v>1760</v>
       </c>
       <c r="W56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>183.27333333333445</v>
       </c>
       <c r="AG56" s="5"/>
@@ -3894,50 +3894,50 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F57" s="1">
-        <f>C57 + D57 + E57</f>
+        <f t="shared" si="16"/>
         <v>1315.96</v>
       </c>
       <c r="I57" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J57" s="5">
-        <f>I57*F57</f>
+        <f t="shared" si="17"/>
         <v>438.65333333333331</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1315.96</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-255.79666666666844</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P57" s="5">
-        <f>N57*F57 + O57</f>
+        <f t="shared" si="14"/>
         <v>438.65333333333331</v>
       </c>
       <c r="Q57" s="10">
         <v>521.11</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-6.489999999999327</v>
       </c>
       <c r="T57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U57" s="5">
-        <f>T57*F57</f>
+        <f t="shared" si="18"/>
         <v>438.65333333333331</v>
       </c>
       <c r="W57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-255.37999999999886</v>
       </c>
       <c r="AG57" s="5"/>
@@ -3957,18 +3957,18 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F58" s="1">
-        <f>C58 + D58 + E58</f>
+        <f t="shared" si="16"/>
         <v>1341.83</v>
       </c>
       <c r="I58" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J58" s="5">
-        <f>I58*F58</f>
+        <f t="shared" si="17"/>
         <v>447.27666666666664</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1341.83</v>
       </c>
       <c r="L58" s="5">
@@ -3977,33 +3977,33 @@
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P58" s="5">
-        <f>N58*F58 + O58</f>
+        <f t="shared" si="14"/>
         <v>447.27666666666664</v>
       </c>
       <c r="Q58" s="10">
         <v>439.77</v>
       </c>
       <c r="R58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-13.996666666665988</v>
       </c>
       <c r="T58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U58" s="5">
-        <f>T58*F58</f>
+        <f t="shared" si="18"/>
         <v>447.27666666666664</v>
       </c>
       <c r="V58" s="3">
         <v>440</v>
       </c>
       <c r="W58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-262.6566666666655</v>
       </c>
       <c r="AG58" s="5"/>
@@ -4023,51 +4023,54 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F59" s="1">
-        <f>C59 + D59 + E59</f>
+        <f t="shared" si="16"/>
         <v>1264.02</v>
       </c>
       <c r="I59" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J59" s="5">
-        <f>I59*F59</f>
+        <f t="shared" si="17"/>
         <v>421.34</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1264.02</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="1"/>
-        <v>-674.61000000000183</v>
+        <f t="shared" si="5"/>
+        <v>-174.61000000000183</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P59" s="5">
-        <f>N59*F59 + O59</f>
+        <f t="shared" si="14"/>
         <v>421.34</v>
       </c>
       <c r="Q59" s="10">
         <v>438.65</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.3133333333340147</v>
       </c>
       <c r="T59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U59" s="5">
-        <f>T59*F59</f>
+        <f t="shared" si="18"/>
         <v>421.34</v>
       </c>
+      <c r="V59" s="3">
+        <v>500</v>
+      </c>
       <c r="W59" s="5">
-        <f t="shared" si="3"/>
-        <v>-683.99666666666553</v>
+        <f t="shared" si="7"/>
+        <v>-183.99666666666553</v>
       </c>
       <c r="AG59" s="5"/>
       <c r="BK59" s="3"/>
@@ -4079,28 +4082,31 @@
       <c r="C60" s="1">
         <v>1145</v>
       </c>
+      <c r="D60" s="1">
+        <v>117.83</v>
+      </c>
       <c r="E60" s="1">
         <v>65.989999999999995</v>
       </c>
       <c r="F60" s="1">
-        <f>C60 + D60 + E60</f>
-        <v>1210.99</v>
+        <f t="shared" si="16"/>
+        <v>1328.82</v>
       </c>
       <c r="I60" s="8">
         <f>35000/(35000+24000)</f>
         <v>0.59322033898305082</v>
       </c>
       <c r="J60" s="5">
-        <f>I60*F60</f>
-        <v>718.3838983050847</v>
+        <f t="shared" si="17"/>
+        <v>788.2830508474575</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="0"/>
-        <v>-1210.99</v>
+        <f t="shared" si="4"/>
+        <v>-1328.82</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="1"/>
-        <v>-621.37610169491711</v>
+        <f t="shared" si="5"/>
+        <v>-169.31694915254411</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="7">
@@ -4108,15 +4114,15 @@
         <v>0.40677966101694918</v>
       </c>
       <c r="P60" s="5">
-        <f>N60*F60 + O60</f>
-        <v>492.60610169491531</v>
+        <f t="shared" si="14"/>
+        <v>540.53694915254243</v>
       </c>
       <c r="Q60" s="10">
-        <v>545.84</v>
+        <v>545.83000000000004</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="9"/>
-        <v>56.547231638418737</v>
+        <f t="shared" si="15"/>
+        <v>8.6063841807916788</v>
       </c>
       <c r="AG60" s="5"/>
     </row>
@@ -4126,6 +4132,41 @@
       </c>
       <c r="C61" s="1">
         <v>1145</v>
+      </c>
+      <c r="E61" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="16"/>
+        <v>1210.99</v>
+      </c>
+      <c r="I61" s="8">
+        <f>35000/(35000+24000)</f>
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="17"/>
+        <v>718.3838983050847</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="4"/>
+        <v>-1210.99</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="5"/>
+        <v>-661.92305084745942</v>
+      </c>
+      <c r="N61" s="7">
+        <f>1-I61</f>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="14"/>
+        <v>492.60610169491531</v>
+      </c>
+      <c r="R61" s="5">
+        <f t="shared" si="15"/>
+        <v>-483.99971751412363</v>
       </c>
     </row>
   </sheetData>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EDE4F-B39A-47C4-BB0B-2EB717D5FF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72967D21-F993-465C-8E8B-64E35CA21F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -173,7 +173,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +191,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -617,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM61"/>
+  <dimension ref="A1:BM73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2872,7 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ref="F41:F61" si="16">C41 + D41 + E41</f>
+        <f t="shared" ref="F41:F62" si="16">C41 + D41 + E41</f>
         <v>1347.29</v>
       </c>
       <c r="I41" s="8">
@@ -4133,12 +4139,15 @@
       <c r="C61" s="1">
         <v>1145</v>
       </c>
+      <c r="D61" s="1">
+        <v>125.46</v>
+      </c>
       <c r="E61" s="1">
         <v>65.989999999999995</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="16"/>
-        <v>1210.99</v>
+        <v>1336.45</v>
       </c>
       <c r="I61" s="8">
         <f>35000/(35000+24000)</f>
@@ -4146,15 +4155,15 @@
       </c>
       <c r="J61" s="5">
         <f t="shared" si="17"/>
-        <v>718.3838983050847</v>
+        <v>792.8093220338983</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="4"/>
-        <v>-1210.99</v>
+        <v>-1336.45</v>
       </c>
       <c r="L61" s="5">
         <f t="shared" si="5"/>
-        <v>-661.92305084745942</v>
+        <v>-177.92762711864589</v>
       </c>
       <c r="N61" s="7">
         <f>1-I61</f>
@@ -4162,14 +4171,91 @@
       </c>
       <c r="P61" s="5">
         <f t="shared" si="14"/>
-        <v>492.60610169491531</v>
+        <v>543.64067796610175</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>535.03</v>
       </c>
       <c r="R61" s="5">
         <f t="shared" si="15"/>
-        <v>-483.99971751412363</v>
+        <v>-4.2937853100966095E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2021</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1145</v>
+      </c>
+      <c r="E62" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="16"/>
+        <v>1210.99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72967D21-F993-465C-8E8B-64E35CA21F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EF76B-2C4F-4409-B71C-9C7C8EFDC47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,10 +626,10 @@
   <dimension ref="A1:BM73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,11 +918,11 @@
         <v>424.43999999999994</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:K61" si="4">-F10-O10</f>
+        <f t="shared" ref="K10:K62" si="4">-F10-O10</f>
         <v>-1273.32</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L61" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
+        <f t="shared" ref="L10:L62" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
         <v>-2.2266666666665742</v>
       </c>
       <c r="M10" s="5"/>
@@ -2569,7 +2569,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" ref="P36:P61" si="14">N36*F36 + O36</f>
+        <f t="shared" ref="P36:P62" si="14">N36*F36 + O36</f>
         <v>445.16999999999996</v>
       </c>
       <c r="Q36" s="10">
@@ -2645,7 +2645,7 @@
         <v>486.26</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37:R61" si="15">R36-P37+Q37</f>
+        <f t="shared" ref="R37:R62" si="15">R36-P37+Q37</f>
         <v>-21.569999999999936</v>
       </c>
       <c r="T37" s="7">
@@ -2879,7 +2879,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" ref="J41:J61" si="17">I41*F41</f>
+        <f t="shared" ref="J41:J62" si="17">I41*F41</f>
         <v>449.09666666666664</v>
       </c>
       <c r="K41" s="2">
@@ -4191,17 +4191,54 @@
       <c r="C62" s="1">
         <v>1145</v>
       </c>
+      <c r="D62" s="1">
+        <v>109.81</v>
+      </c>
       <c r="E62" s="1">
         <v>65.989999999999995</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="16"/>
-        <v>1210.99</v>
+        <v>1320.8</v>
+      </c>
+      <c r="I62" s="8">
+        <f>35000/(35000+24000)</f>
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="17"/>
+        <v>783.52542372881351</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="4"/>
+        <v>-1320.8</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="5"/>
+        <v>-177.92220338983236</v>
+      </c>
+      <c r="N62" s="7">
+        <f>1-I62</f>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="P62" s="5">
+        <f t="shared" si="14"/>
+        <v>537.27457627118645</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>537.28</v>
+      </c>
+      <c r="R62" s="5">
+        <f t="shared" si="15"/>
+        <v>1.1299435034288763E-3</v>
       </c>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>11</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1145</v>
       </c>
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.25">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EF76B-2C4F-4409-B71C-9C7C8EFDC47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FF019-9917-4265-9570-BA2747F1DB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,10 +626,10 @@
   <dimension ref="A1:BM73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,11 +918,11 @@
         <v>424.43999999999994</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:K62" si="4">-F10-O10</f>
+        <f t="shared" ref="K10:K64" si="4">-F10-O10</f>
         <v>-1273.32</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L62" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
+        <f t="shared" ref="L10:L64" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
         <v>-2.2266666666665742</v>
       </c>
       <c r="M10" s="5"/>
@@ -2569,7 +2569,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" ref="P36:P62" si="14">N36*F36 + O36</f>
+        <f t="shared" ref="P36:P64" si="14">N36*F36 + O36</f>
         <v>445.16999999999996</v>
       </c>
       <c r="Q36" s="10">
@@ -2645,7 +2645,7 @@
         <v>486.26</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37:R62" si="15">R36-P37+Q37</f>
+        <f t="shared" ref="R37:R64" si="15">R36-P37+Q37</f>
         <v>-21.569999999999936</v>
       </c>
       <c r="T37" s="7">
@@ -2872,14 +2872,14 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ref="F41:F62" si="16">C41 + D41 + E41</f>
+        <f t="shared" ref="F41:F64" si="16">C41 + D41 + E41</f>
         <v>1347.29</v>
       </c>
       <c r="I41" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" ref="J41:J62" si="17">I41*F41</f>
+        <f t="shared" ref="J41:J64" si="17">I41*F41</f>
         <v>449.09666666666664</v>
       </c>
       <c r="K41" s="2">
@@ -4240,10 +4240,95 @@
       <c r="C63" s="1">
         <v>1145</v>
       </c>
+      <c r="D63" s="1">
+        <v>139.91</v>
+      </c>
+      <c r="E63" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="16"/>
+        <v>1350.9</v>
+      </c>
+      <c r="I63" s="8">
+        <f>35000/(35000+24000)</f>
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="17"/>
+        <v>801.38135593220341</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="4"/>
+        <v>-1350.9</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="5"/>
+        <v>-177.92084745762895</v>
+      </c>
+      <c r="N63" s="7">
+        <f>1-I63</f>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="P63" s="5">
+        <f t="shared" si="14"/>
+        <v>549.51864406779669</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>549.52</v>
+      </c>
+      <c r="R63" s="5">
+        <f t="shared" si="15"/>
+        <v>2.4858757067249826E-3</v>
+      </c>
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>12</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D64" s="1">
+        <v>126.16</v>
+      </c>
+      <c r="E64" s="1">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="16"/>
+        <v>1337.15</v>
+      </c>
+      <c r="I64" s="8">
+        <f>35000/(35000+24000)</f>
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="17"/>
+        <v>793.22457627118649</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="4"/>
+        <v>-1337.15</v>
+      </c>
+      <c r="L64" s="5">
+        <f t="shared" si="5"/>
+        <v>-177.9162711864426</v>
+      </c>
+      <c r="N64" s="7">
+        <f>1-I64</f>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="14"/>
+        <v>543.9254237288136</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>543.92999999999995</v>
+      </c>
+      <c r="R64" s="5">
+        <f t="shared" si="15"/>
+        <v>7.0621468930767151E-3</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">

--- a/rent.xlsx
+++ b/rent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrdie\Documents\Hayes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royts\Documents\Hayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FF019-9917-4265-9570-BA2747F1DB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D365E-49F0-4066-8119-8E25566916A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,66 +626,66 @@
   <dimension ref="A1:BM73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
-      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomRight" activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="5"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.265625" style="7" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="7" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="5" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="5" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" style="7" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="5"/>
-    <col min="32" max="32" width="10.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" style="7" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" style="5" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="11.28515625" style="5" customWidth="1"/>
-    <col min="45" max="45" width="14.140625" style="11" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" style="9" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" style="9" customWidth="1"/>
-    <col min="48" max="48" width="10.5703125" style="9" customWidth="1"/>
-    <col min="49" max="49" width="11.85546875" style="9" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="7"/>
+    <col min="16" max="16" width="12.73046875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.3984375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="13.73046875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.1328125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.86328125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="11.3984375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="14.1328125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="12.86328125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="12.73046875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="11.59765625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.86328125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="12.265625" style="7" customWidth="1"/>
+    <col min="31" max="31" width="9.1328125" style="5"/>
+    <col min="32" max="32" width="10.3984375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.3984375" customWidth="1"/>
+    <col min="35" max="35" width="12.59765625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="11.73046875" style="5" customWidth="1"/>
+    <col min="37" max="37" width="13.1328125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="11.265625" style="5" customWidth="1"/>
+    <col min="45" max="45" width="14.1328125" style="11" customWidth="1"/>
+    <col min="46" max="46" width="14.1328125" style="9" customWidth="1"/>
+    <col min="47" max="47" width="13.73046875" style="9" customWidth="1"/>
+    <col min="48" max="48" width="10.59765625" style="9" customWidth="1"/>
+    <col min="49" max="49" width="11.86328125" style="9" customWidth="1"/>
+    <col min="50" max="50" width="9.1328125" style="7"/>
     <col min="51" max="51" width="11" style="3" customWidth="1"/>
-    <col min="52" max="56" width="9.140625" style="7"/>
-    <col min="57" max="57" width="9.140625" style="10"/>
-    <col min="58" max="58" width="12.5703125" style="3" customWidth="1"/>
-    <col min="59" max="60" width="12.42578125" style="3" customWidth="1"/>
-    <col min="61" max="61" width="11.28515625" style="3" customWidth="1"/>
-    <col min="62" max="62" width="13.5703125" style="10" customWidth="1"/>
-    <col min="63" max="63" width="13.42578125" style="10" customWidth="1"/>
-    <col min="64" max="64" width="8.7109375" style="7" customWidth="1"/>
-    <col min="65" max="65" width="11.85546875" style="7" customWidth="1"/>
-    <col min="66" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="52" max="56" width="9.1328125" style="7"/>
+    <col min="57" max="57" width="9.1328125" style="10"/>
+    <col min="58" max="58" width="12.59765625" style="3" customWidth="1"/>
+    <col min="59" max="60" width="12.3984375" style="3" customWidth="1"/>
+    <col min="61" max="61" width="11.265625" style="3" customWidth="1"/>
+    <col min="62" max="62" width="13.59765625" style="10" customWidth="1"/>
+    <col min="63" max="63" width="13.3984375" style="10" customWidth="1"/>
+    <col min="64" max="64" width="8.73046875" style="7" customWidth="1"/>
+    <col min="65" max="65" width="11.86328125" style="7" customWidth="1"/>
+    <col min="66" max="1025" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -793,27 +793,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -821,7 +821,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -829,7 +829,7 @@
         <v>87.26</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0.32666666666671063</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -918,11 +918,11 @@
         <v>424.43999999999994</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:K64" si="4">-F10-O10</f>
+        <f t="shared" ref="K10:K65" si="4">-F10-O10</f>
         <v>-1273.32</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L64" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
+        <f t="shared" ref="L10:L65" si="5">L9+K10+J10+Q10+V10+AA10+AF10+AK10</f>
         <v>-2.2266666666665742</v>
       </c>
       <c r="M10" s="5"/>
@@ -957,7 +957,7 @@
         <v>-0.11333333333323026</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>-7.4233333333332325</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>-447.68999999999988</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>-52.533333333333189</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>-519.0233333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>-14.909999999999854</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>-33.769999999999811</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>-467.47333333333307</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>-17.76333333333298</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>-418.99666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>26.243333333333453</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>-392.65333333333319</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>24.056666666666843</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>-422.61666666666645</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>33.723333333333585</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>-417.98666666666634</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>-872.31333333333305</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>-833.1566666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>-119.58666666666613</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>-564.39666666666608</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>14</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="BJ30" s="3"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="BJ31" s="3"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="BJ32" s="3"/>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="BJ33" s="3"/>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>18</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="BJ34" s="3"/>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="AG35" s="5"/>
       <c r="BJ35" s="3"/>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>20</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" ref="P36:P64" si="14">N36*F36 + O36</f>
+        <f t="shared" ref="P36:P65" si="14">N36*F36 + O36</f>
         <v>445.16999999999996</v>
       </c>
       <c r="Q36" s="10">
@@ -2599,7 +2599,7 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>21</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>486.26</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37:R64" si="15">R36-P37+Q37</f>
+        <f t="shared" ref="R37:R65" si="15">R36-P37+Q37</f>
         <v>-21.569999999999936</v>
       </c>
       <c r="T37" s="7">
@@ -2663,7 +2663,7 @@
       <c r="AG37" s="5"/>
       <c r="BK37" s="3"/>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="AG38" s="5"/>
       <c r="BK38" s="3"/>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="AG39" s="5"/>
       <c r="BK39" s="3"/>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>12</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="AG40" s="5"/>
       <c r="BK40" s="3"/>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>13</v>
       </c>
@@ -2872,14 +2872,14 @@
         <v>65.989999999999995</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ref="F41:F64" si="16">C41 + D41 + E41</f>
+        <f t="shared" ref="F41:F65" si="16">C41 + D41 + E41</f>
         <v>1347.29</v>
       </c>
       <c r="I41" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" ref="J41:J64" si="17">I41*F41</f>
+        <f t="shared" ref="J41:J65" si="17">I41*F41</f>
         <v>449.09666666666664</v>
       </c>
       <c r="K41" s="2">
@@ -2921,7 +2921,7 @@
       <c r="AG41" s="5"/>
       <c r="BK41" s="3"/>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="AG42" s="5"/>
       <c r="BK42" s="3"/>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="AG43" s="5"/>
       <c r="BK43" s="3"/>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>16</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="AG44" s="5"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>17</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="AG45" s="5"/>
       <c r="BK45" s="3"/>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="AG46" s="5"/>
       <c r="BK46" s="3"/>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>19</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="AG47" s="5"/>
       <c r="BK47" s="3"/>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="AG48" s="5"/>
       <c r="BK48" s="3"/>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>21</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="AG49" s="5"/>
       <c r="BK49" s="3"/>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="AG50" s="5"/>
       <c r="BK50" s="3"/>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>11</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="AG51" s="5"/>
       <c r="BK51" s="3"/>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="AG52" s="5"/>
       <c r="BK52" s="3"/>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="AG53" s="5"/>
       <c r="BK53" s="3"/>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="AG54" s="5"/>
       <c r="BK54" s="3"/>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="AG55" s="5"/>
       <c r="BK55" s="3"/>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>16</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="AG56" s="5"/>
       <c r="BK56" s="3"/>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>17</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="AG57" s="5"/>
       <c r="BK57" s="3"/>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>18</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="AG58" s="5"/>
       <c r="BK58" s="3"/>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>19</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="AG59" s="5"/>
       <c r="BK59" s="3"/>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>20</v>
       </c>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="AG60" s="5"/>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>21</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>-4.2937853100966095E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -4195,11 +4195,11 @@
         <v>109.81</v>
       </c>
       <c r="E62" s="1">
-        <v>65.989999999999995</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="16"/>
-        <v>1320.8</v>
+        <v>1329.8</v>
       </c>
       <c r="I62" s="8">
         <f>35000/(35000+24000)</f>
@@ -4207,15 +4207,15 @@
       </c>
       <c r="J62" s="5">
         <f t="shared" si="17"/>
-        <v>783.52542372881351</v>
+        <v>788.86440677966095</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="4"/>
-        <v>-1320.8</v>
+        <v>-1329.8</v>
       </c>
       <c r="L62" s="5">
         <f t="shared" si="5"/>
-        <v>-177.92220338983236</v>
+        <v>-181.58322033898492</v>
       </c>
       <c r="N62" s="7">
         <f>1-I62</f>
@@ -4223,17 +4223,17 @@
       </c>
       <c r="P62" s="5">
         <f t="shared" si="14"/>
-        <v>537.27457627118645</v>
+        <v>540.935593220339</v>
       </c>
       <c r="Q62" s="10">
         <v>537.28</v>
       </c>
       <c r="R62" s="5">
         <f t="shared" si="15"/>
-        <v>1.1299435034288763E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+        <v>-3.6598870056491251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>11</v>
       </c>
@@ -4244,11 +4244,11 @@
         <v>139.91</v>
       </c>
       <c r="E63" s="1">
-        <v>65.989999999999995</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="16"/>
-        <v>1350.9</v>
+        <v>1359.9</v>
       </c>
       <c r="I63" s="8">
         <f>35000/(35000+24000)</f>
@@ -4256,15 +4256,15 @@
       </c>
       <c r="J63" s="5">
         <f t="shared" si="17"/>
-        <v>801.38135593220341</v>
+        <v>806.72033898305085</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="4"/>
-        <v>-1350.9</v>
+        <v>-1359.9</v>
       </c>
       <c r="L63" s="5">
         <f t="shared" si="5"/>
-        <v>-177.92084745762895</v>
+        <v>-185.24288135593429</v>
       </c>
       <c r="N63" s="7">
         <f>1-I63</f>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="P63" s="5">
         <f t="shared" si="14"/>
-        <v>549.51864406779669</v>
+        <v>553.17966101694924</v>
       </c>
       <c r="Q63" s="10">
         <v>549.52</v>
       </c>
       <c r="R63" s="5">
         <f t="shared" si="15"/>
-        <v>2.4858757067249826E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+        <v>-7.3195480225983829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>12</v>
       </c>
@@ -4293,11 +4293,11 @@
         <v>126.16</v>
       </c>
       <c r="E64" s="1">
-        <v>65.989999999999995</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="16"/>
-        <v>1337.15</v>
+        <v>1346.15</v>
       </c>
       <c r="I64" s="8">
         <f>35000/(35000+24000)</f>
@@ -4305,15 +4305,15 @@
       </c>
       <c r="J64" s="5">
         <f t="shared" si="17"/>
-        <v>793.22457627118649</v>
+        <v>798.56355932203394</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="4"/>
-        <v>-1337.15</v>
+        <v>-1346.15</v>
       </c>
       <c r="L64" s="5">
         <f t="shared" si="5"/>
-        <v>-177.9162711864426</v>
+        <v>-188.89932203390049</v>
       </c>
       <c r="N64" s="7">
         <f>1-I64</f>
@@ -4321,57 +4321,101 @@
       </c>
       <c r="P64" s="5">
         <f t="shared" si="14"/>
-        <v>543.9254237288136</v>
+        <v>547.58644067796615</v>
       </c>
       <c r="Q64" s="10">
         <v>543.92999999999995</v>
       </c>
       <c r="R64" s="5">
         <f t="shared" si="15"/>
-        <v>7.0621468930767151E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+        <v>-10.975988700564585</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D65" s="1">
+        <v>97.04</v>
+      </c>
+      <c r="E65" s="1">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="16"/>
+        <v>1317.03</v>
+      </c>
+      <c r="I65" s="8">
+        <f>35000/(35000+24000)</f>
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="17"/>
+        <v>781.28898305084738</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="4"/>
+        <v>-1317.03</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" si="5"/>
+        <v>-188.90033898305308</v>
+      </c>
+      <c r="N65" s="7">
+        <f>1-I65</f>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="14"/>
+        <v>535.74101694915259</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>535.74</v>
+      </c>
+      <c r="R65" s="5">
+        <f t="shared" si="15"/>
+        <v>-10.977005649717171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>21</v>
       </c>
